--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684F611-4F3D-40D5-80CA-A4E71DA4BFCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E59B6-24AD-49AB-B308-16EE377B57D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
+    <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
   <sheets>
     <sheet name="QuoteCal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1315,7 +1315,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ali Kalwar:</t>
         </r>
@@ -1324,7 +1324,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Orderd 35</t>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9475" uniqueCount="5891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9479" uniqueCount="5894">
   <si>
     <t>TSE</t>
   </si>
@@ -19188,6 +19188,15 @@
   <si>
     <t>samantha.gorney@vteworld.com</t>
   </si>
+  <si>
+    <t>34914</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
@@ -19199,7 +19208,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19556,19 +19565,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="&amp;quot"/>
     </font>
@@ -19607,22 +19603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -19631,7 +19611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19724,17 +19704,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -19956,6 +19930,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3C4B78"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3C4B78"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3C4B78"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -19965,7 +19954,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -20186,32 +20175,26 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20229,6 +20212,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -30055,8 +30044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30070,8 +30059,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A1" s="201"/>
-      <c r="B1" s="202" t="s">
+      <c r="A1" s="199"/>
+      <c r="B1" s="200" t="s">
         <v>4405</v>
       </c>
       <c r="C1" t="s">
@@ -30082,8 +30071,8 @@
       <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202" t="s">
+      <c r="A2" s="199"/>
+      <c r="B2" s="200" t="s">
         <v>747</v>
       </c>
       <c r="C2" t="s">
@@ -30096,8 +30085,8 @@
       <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="201"/>
-      <c r="B3" s="202" t="s">
+      <c r="A3" s="199"/>
+      <c r="B3" s="200" t="s">
         <v>4239</v>
       </c>
       <c r="C3" t="s">
@@ -30110,8 +30099,8 @@
       <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202" t="s">
+      <c r="A4" s="199"/>
+      <c r="B4" s="200" t="s">
         <v>5825</v>
       </c>
       <c r="C4" t="s">
@@ -30122,8 +30111,8 @@
       <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202">
+      <c r="A5" s="199"/>
+      <c r="B5" s="200">
         <v>70508</v>
       </c>
       <c r="C5" t="s">
@@ -30136,8 +30125,8 @@
       <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="200" t="s">
         <v>4346</v>
       </c>
       <c r="C6" t="s">
@@ -30150,8 +30139,8 @@
       <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="201"/>
-      <c r="B7" s="204">
+      <c r="A7" s="199"/>
+      <c r="B7" s="202">
         <v>91663</v>
       </c>
       <c r="C7" t="s">
@@ -30162,14 +30151,14 @@
       <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200" t="s">
         <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="207" t="s">
+      <c r="D8" s="205" t="s">
         <v>4243</v>
       </c>
       <c r="E8" s="186" t="s">
@@ -30181,8 +30170,8 @@
       <c r="G8" s="186"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202" t="s">
+      <c r="A9" s="199"/>
+      <c r="B9" s="200" t="s">
         <v>1682</v>
       </c>
       <c r="C9" t="s">
@@ -30196,8 +30185,8 @@
       <c r="G9" s="131"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202" t="s">
+      <c r="A10" s="199"/>
+      <c r="B10" s="200" t="s">
         <v>4492</v>
       </c>
       <c r="C10" t="s">
@@ -30208,14 +30197,14 @@
       <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="201"/>
-      <c r="B11" s="202" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="200" t="s">
         <v>4722</v>
       </c>
       <c r="C11" t="s">
         <v>4246</v>
       </c>
-      <c r="D11" s="206" t="s">
+      <c r="D11" s="204" t="s">
         <v>5867</v>
       </c>
       <c r="E11" s="186" t="s">
@@ -30224,8 +30213,8 @@
       <c r="F11" s="186"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="201"/>
-      <c r="B12" s="202" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="200" t="s">
         <v>159</v>
       </c>
       <c r="C12" t="s">
@@ -30236,8 +30225,8 @@
       <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="201"/>
-      <c r="B13" s="202" t="s">
+      <c r="A13" s="199"/>
+      <c r="B13" s="200" t="s">
         <v>221</v>
       </c>
       <c r="C13" t="s">
@@ -30250,8 +30239,8 @@
       <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="200" t="s">
         <v>379</v>
       </c>
       <c r="C14" t="s">
@@ -30264,8 +30253,8 @@
       <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="201"/>
-      <c r="B15" s="202" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="200" t="s">
         <v>150</v>
       </c>
       <c r="C15" t="s">
@@ -30278,8 +30267,8 @@
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="201"/>
-      <c r="B16" s="202" t="s">
+      <c r="A16" s="199"/>
+      <c r="B16" s="200" t="s">
         <v>4376</v>
       </c>
       <c r="C16" t="s">
@@ -30292,22 +30281,22 @@
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202">
+      <c r="A17" s="199"/>
+      <c r="B17" s="200">
         <v>76096</v>
       </c>
       <c r="C17" t="s">
         <v>4403</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="204" t="s">
         <v>5868</v>
       </c>
-      <c r="E17" s="199"/>
+      <c r="E17" s="198"/>
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="201"/>
-      <c r="B18" s="204" t="s">
+      <c r="A18" s="199"/>
+      <c r="B18" s="202" t="s">
         <v>466</v>
       </c>
       <c r="C18" t="s">
@@ -30316,12 +30305,12 @@
       <c r="D18" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E18" s="199"/>
+      <c r="E18" s="198"/>
       <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="201"/>
-      <c r="B19" s="204">
+      <c r="A19" s="199"/>
+      <c r="B19" s="202">
         <v>51435</v>
       </c>
       <c r="C19" t="s">
@@ -30334,8 +30323,8 @@
       <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202" t="s">
+      <c r="A20" s="199"/>
+      <c r="B20" s="200" t="s">
         <v>4332</v>
       </c>
       <c r="C20" t="s">
@@ -30348,8 +30337,8 @@
       <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="201"/>
-      <c r="B21" s="202" t="s">
+      <c r="A21" s="199"/>
+      <c r="B21" s="200" t="s">
         <v>91</v>
       </c>
       <c r="C21" t="s">
@@ -30360,8 +30349,8 @@
       <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="201"/>
-      <c r="B22" s="205" t="s">
+      <c r="A22" s="199"/>
+      <c r="B22" s="203" t="s">
         <v>1417</v>
       </c>
       <c r="C22" t="s">
@@ -30374,8 +30363,10 @@
       <c r="F22" s="83"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="201"/>
-      <c r="B23" s="202" t="s">
+      <c r="A23" s="199" t="s">
+        <v>5892</v>
+      </c>
+      <c r="B23" s="200" t="s">
         <v>110</v>
       </c>
       <c r="C23" t="s">
@@ -30388,8 +30379,8 @@
       <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="201"/>
-      <c r="B24" s="202" t="s">
+      <c r="A24" s="199"/>
+      <c r="B24" s="200" t="s">
         <v>394</v>
       </c>
       <c r="C24" t="s">
@@ -30402,8 +30393,8 @@
       <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="201"/>
-      <c r="B25" s="202" t="s">
+      <c r="A25" s="199"/>
+      <c r="B25" s="200" t="s">
         <v>517</v>
       </c>
       <c r="C25" t="s">
@@ -30418,20 +30409,24 @@
       <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="201"/>
-      <c r="B26" s="202">
-        <v>34914</v>
+      <c r="A26" s="199"/>
+      <c r="B26" s="200" t="s">
+        <v>5891</v>
       </c>
       <c r="C26" t="s">
         <v>4270</v>
       </c>
-      <c r="D26" s="186"/>
+      <c r="D26" s="10" t="s">
+        <v>4268</v>
+      </c>
       <c r="E26" s="186"/>
       <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="201"/>
-      <c r="B27" s="204" t="s">
+      <c r="A27" s="199" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B27" s="202" t="s">
         <v>636</v>
       </c>
       <c r="C27" t="s">
@@ -30440,12 +30435,12 @@
       <c r="D27" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="E27" s="198"/>
+      <c r="E27" s="197"/>
       <c r="F27" s="83"/>
     </row>
     <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="201"/>
-      <c r="B28" s="202" t="s">
+      <c r="A28" s="199"/>
+      <c r="B28" s="200" t="s">
         <v>4323</v>
       </c>
       <c r="C28" t="s">
@@ -30458,8 +30453,8 @@
       <c r="F28" s="83"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="201"/>
-      <c r="B29" s="202"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="200"/>
       <c r="C29" t="s">
         <v>4480</v>
       </c>
@@ -30470,8 +30465,8 @@
       <c r="F29" s="83"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="201"/>
-      <c r="B30" s="202">
+      <c r="A30" s="199"/>
+      <c r="B30" s="200">
         <v>57715</v>
       </c>
       <c r="C30" t="s">
@@ -30484,8 +30479,8 @@
       <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="201"/>
-      <c r="B31" s="202" t="s">
+      <c r="A31" s="199"/>
+      <c r="B31" s="200" t="s">
         <v>4353</v>
       </c>
       <c r="C31" t="s">
@@ -30496,8 +30491,8 @@
       <c r="F31" s="83"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="201"/>
-      <c r="B32" s="203" t="s">
+      <c r="A32" s="199"/>
+      <c r="B32" s="201" t="s">
         <v>987</v>
       </c>
       <c r="C32" t="s">
@@ -30510,8 +30505,8 @@
       <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="201"/>
-      <c r="B33" s="202" t="s">
+      <c r="A33" s="199"/>
+      <c r="B33" s="200" t="s">
         <v>1673</v>
       </c>
       <c r="C33" t="s">
@@ -30524,8 +30519,8 @@
       <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="201"/>
-      <c r="B34" s="202" t="s">
+      <c r="A34" s="199"/>
+      <c r="B34" s="200" t="s">
         <v>4942</v>
       </c>
       <c r="C34" t="s">
@@ -30536,8 +30531,8 @@
       <c r="F34" s="83"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="201"/>
-      <c r="B35" s="202" t="s">
+      <c r="A35" s="199"/>
+      <c r="B35" s="200" t="s">
         <v>1863</v>
       </c>
       <c r="C35" t="s">
@@ -30548,8 +30543,8 @@
       <c r="F35" s="83"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202">
+      <c r="A36" s="199"/>
+      <c r="B36" s="200">
         <v>43321</v>
       </c>
       <c r="C36" t="s">
@@ -30560,8 +30555,8 @@
       <c r="F36" s="83"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="201"/>
-      <c r="B37" s="204" t="s">
+      <c r="A37" s="199"/>
+      <c r="B37" s="202" t="s">
         <v>502</v>
       </c>
       <c r="C37" t="s">
@@ -30574,8 +30569,8 @@
       <c r="F37" s="83"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="201"/>
-      <c r="B38" s="204" t="s">
+      <c r="A38" s="199"/>
+      <c r="B38" s="202" t="s">
         <v>4474</v>
       </c>
       <c r="C38" t="s">
@@ -30586,8 +30581,8 @@
       <c r="F38" s="83"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="201"/>
-      <c r="B39" s="202" t="s">
+      <c r="A39" s="199"/>
+      <c r="B39" s="200" t="s">
         <v>1166</v>
       </c>
       <c r="C39" t="s">
@@ -30600,8 +30595,8 @@
       <c r="F39" s="83"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="201"/>
-      <c r="B40" s="202">
+      <c r="A40" s="199"/>
+      <c r="B40" s="200">
         <v>87009</v>
       </c>
       <c r="C40" t="s">
@@ -30614,8 +30609,8 @@
       <c r="F40" s="83"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="201"/>
-      <c r="B41" s="202" t="s">
+      <c r="A41" s="199"/>
+      <c r="B41" s="200" t="s">
         <v>4445</v>
       </c>
       <c r="C41" t="s">
@@ -30626,8 +30621,8 @@
       <c r="F41" s="83"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="A42" s="201"/>
-      <c r="B42" s="202" t="s">
+      <c r="A42" s="199"/>
+      <c r="B42" s="200" t="s">
         <v>446</v>
       </c>
       <c r="C42" t="s">
@@ -30640,20 +30635,20 @@
       <c r="F42" s="83"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202" t="s">
+      <c r="A43" s="199"/>
+      <c r="B43" s="200" t="s">
         <v>449</v>
       </c>
       <c r="C43" t="s">
         <v>448</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
       <c r="F43" s="83"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202" t="s">
+      <c r="A44" s="199"/>
+      <c r="B44" s="200" t="s">
         <v>4278</v>
       </c>
       <c r="C44" t="s">
@@ -30666,8 +30661,8 @@
       <c r="F44" s="83"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="201"/>
-      <c r="B45" s="202" t="s">
+      <c r="A45" s="199"/>
+      <c r="B45" s="200" t="s">
         <v>225</v>
       </c>
       <c r="C45" t="s">
@@ -30680,8 +30675,8 @@
       <c r="F45" s="83"/>
     </row>
     <row r="46" spans="1:6" ht="16.899999999999999" customHeight="1">
-      <c r="A46" s="201"/>
-      <c r="B46" s="202">
+      <c r="A46" s="199"/>
+      <c r="B46" s="200">
         <v>32387</v>
       </c>
       <c r="C46" t="s">
@@ -30694,8 +30689,8 @@
       <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="201"/>
-      <c r="B47" s="202" t="s">
+      <c r="A47" s="199"/>
+      <c r="B47" s="200" t="s">
         <v>818</v>
       </c>
       <c r="C47" t="s">
@@ -30708,8 +30703,8 @@
       <c r="F47" s="83"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="201"/>
-      <c r="B48" s="202" t="s">
+      <c r="A48" s="199"/>
+      <c r="B48" s="200" t="s">
         <v>456</v>
       </c>
       <c r="C48" t="s">
@@ -30720,8 +30715,8 @@
       <c r="F48" s="83"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="201"/>
-      <c r="B49" s="202" t="s">
+      <c r="A49" s="199"/>
+      <c r="B49" s="200" t="s">
         <v>616</v>
       </c>
       <c r="C49" t="s">
@@ -30734,22 +30729,22 @@
       <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="201"/>
-      <c r="B50" s="202" t="s">
+      <c r="A50" s="199"/>
+      <c r="B50" s="200" t="s">
         <v>4314</v>
       </c>
       <c r="C50" t="s">
         <v>4315</v>
       </c>
-      <c r="D50" s="206" t="s">
+      <c r="D50" s="204" t="s">
         <v>5874</v>
       </c>
       <c r="E50" s="186"/>
       <c r="F50" s="83"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="201"/>
-      <c r="B51" s="202" t="s">
+      <c r="A51" s="199"/>
+      <c r="B51" s="200" t="s">
         <v>4422</v>
       </c>
       <c r="C51" t="s">
@@ -30762,8 +30757,8 @@
       <c r="F51" s="83"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="201"/>
-      <c r="B52" s="202" t="s">
+      <c r="A52" s="199"/>
+      <c r="B52" s="200" t="s">
         <v>157</v>
       </c>
       <c r="C52" t="s">
@@ -30778,8 +30773,8 @@
       <c r="F52" s="83"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="201"/>
-      <c r="B53" s="202" t="s">
+      <c r="A53" s="199"/>
+      <c r="B53" s="200" t="s">
         <v>4292</v>
       </c>
       <c r="C53" t="s">
@@ -30792,8 +30787,8 @@
       <c r="F53" s="83"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="201"/>
-      <c r="B54" s="202" t="s">
+      <c r="A54" s="199"/>
+      <c r="B54" s="200" t="s">
         <v>412</v>
       </c>
       <c r="C54" t="s">
@@ -30806,8 +30801,8 @@
       <c r="F54" s="83"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="201"/>
-      <c r="B55" s="202" t="s">
+      <c r="A55" s="199"/>
+      <c r="B55" s="200" t="s">
         <v>534</v>
       </c>
       <c r="C55" t="s">
@@ -30820,8 +30815,8 @@
       <c r="F55" s="83"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="201"/>
-      <c r="B56" s="202" t="s">
+      <c r="A56" s="199"/>
+      <c r="B56" s="200" t="s">
         <v>1329</v>
       </c>
       <c r="C56" t="s">
@@ -30830,12 +30825,12 @@
       <c r="D56" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="E56" s="199"/>
+      <c r="E56" s="198"/>
       <c r="F56" s="83"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="201"/>
-      <c r="B57" s="202" t="s">
+      <c r="A57" s="199"/>
+      <c r="B57" s="200" t="s">
         <v>437</v>
       </c>
       <c r="C57" t="s">
@@ -30848,8 +30843,8 @@
       <c r="F57" s="83"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="201"/>
-      <c r="B58" s="202">
+      <c r="A58" s="199"/>
+      <c r="B58" s="200">
         <v>82199</v>
       </c>
       <c r="C58" t="s">
@@ -30862,8 +30857,8 @@
       <c r="F58" s="83"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202" t="s">
+      <c r="A59" s="199"/>
+      <c r="B59" s="200" t="s">
         <v>4758</v>
       </c>
       <c r="C59" t="s">
@@ -30876,8 +30871,8 @@
       <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="201"/>
-      <c r="B60" s="204" t="s">
+      <c r="A60" s="199"/>
+      <c r="B60" s="202" t="s">
         <v>4476</v>
       </c>
       <c r="C60" t="s">
@@ -30888,8 +30883,8 @@
       <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="201"/>
-      <c r="B61" s="202" t="s">
+      <c r="A61" s="199"/>
+      <c r="B61" s="200" t="s">
         <v>4881</v>
       </c>
       <c r="C61" t="s">
@@ -30900,8 +30895,8 @@
       <c r="F61" s="83"/>
     </row>
     <row r="62" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A62" s="201"/>
-      <c r="B62" s="202" t="s">
+      <c r="A62" s="199"/>
+      <c r="B62" s="200" t="s">
         <v>4280</v>
       </c>
       <c r="C62" t="s">
@@ -30912,20 +30907,20 @@
       <c r="F62" s="83"/>
     </row>
     <row r="63" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A63" s="201"/>
-      <c r="B63" s="204" t="s">
+      <c r="A63" s="199"/>
+      <c r="B63" s="202" t="s">
         <v>283</v>
       </c>
       <c r="C63" t="s">
         <v>520</v>
       </c>
       <c r="D63" s="186"/>
-      <c r="E63" s="200"/>
+      <c r="E63" s="207"/>
       <c r="F63" s="83"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="201"/>
-      <c r="B64" s="202" t="s">
+      <c r="A64" s="199"/>
+      <c r="B64" s="200" t="s">
         <v>540</v>
       </c>
       <c r="C64" t="s">
@@ -30935,11 +30930,11 @@
         <v>670</v>
       </c>
       <c r="E64" s="186"/>
-      <c r="F64" s="197"/>
+      <c r="F64" s="206"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="201"/>
-      <c r="B65" s="202">
+      <c r="A65" s="199"/>
+      <c r="B65" s="200">
         <v>66647</v>
       </c>
       <c r="C65" t="s">
@@ -30952,8 +30947,8 @@
       <c r="F65" s="83"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="201"/>
-      <c r="B66" s="202">
+      <c r="A66" s="199"/>
+      <c r="B66" s="200">
         <v>50541</v>
       </c>
       <c r="C66" t="s">
@@ -30966,8 +30961,8 @@
       <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="201"/>
-      <c r="B67" s="202">
+      <c r="A67" s="199"/>
+      <c r="B67" s="200">
         <v>24602</v>
       </c>
       <c r="C67" t="s">
@@ -30980,8 +30975,8 @@
       <c r="F67" s="83"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="201"/>
-      <c r="B68" s="202" t="s">
+      <c r="A68" s="199"/>
+      <c r="B68" s="200" t="s">
         <v>4337</v>
       </c>
       <c r="C68" t="s">
@@ -30994,8 +30989,8 @@
       <c r="F68" s="83"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="201"/>
-      <c r="B69" s="202" t="s">
+      <c r="A69" s="199"/>
+      <c r="B69" s="200" t="s">
         <v>4368</v>
       </c>
       <c r="C69" t="s">
@@ -31008,8 +31003,8 @@
       <c r="F69" s="83"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="201"/>
-      <c r="B70" s="202">
+      <c r="A70" s="199"/>
+      <c r="B70" s="200">
         <v>64411</v>
       </c>
       <c r="C70" t="s">
@@ -31018,14 +31013,14 @@
       <c r="D70" s="10" t="s">
         <v>5879</v>
       </c>
-      <c r="E70" s="198" t="s">
+      <c r="E70" s="197" t="s">
         <v>4370</v>
       </c>
       <c r="F70" s="83"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="201"/>
-      <c r="B71" s="202" t="s">
+      <c r="A71" s="199"/>
+      <c r="B71" s="200" t="s">
         <v>5852</v>
       </c>
       <c r="C71" t="s">
@@ -31036,8 +31031,8 @@
       <c r="F71" s="83"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="201"/>
-      <c r="B72" s="202" t="s">
+      <c r="A72" s="199"/>
+      <c r="B72" s="200" t="s">
         <v>4418</v>
       </c>
       <c r="C72" t="s">
@@ -31046,12 +31041,12 @@
       <c r="D72" s="10" t="s">
         <v>5880</v>
       </c>
-      <c r="E72" s="198"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="83"/>
     </row>
     <row r="73" spans="1:6" ht="17.649999999999999" customHeight="1">
-      <c r="A73" s="201"/>
-      <c r="B73" s="202">
+      <c r="A73" s="199"/>
+      <c r="B73" s="200">
         <v>58860</v>
       </c>
       <c r="C73" t="s">
@@ -31060,14 +31055,14 @@
       <c r="D73" s="10" t="s">
         <v>4478</v>
       </c>
-      <c r="E73" s="199" t="s">
+      <c r="E73" s="198" t="s">
         <v>4420</v>
       </c>
       <c r="F73" s="83"/>
     </row>
     <row r="74" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A74" s="201"/>
-      <c r="B74" s="202" t="s">
+      <c r="A74" s="199"/>
+      <c r="B74" s="200" t="s">
         <v>1632</v>
       </c>
       <c r="C74" t="s">
@@ -31080,8 +31075,8 @@
       <c r="F74" s="83"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="201"/>
-      <c r="B75" s="202">
+      <c r="A75" s="199"/>
+      <c r="B75" s="200">
         <v>44256</v>
       </c>
       <c r="C75" t="s">
@@ -31094,8 +31089,8 @@
       <c r="F75" s="83"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="201"/>
-      <c r="B76" s="202" t="s">
+      <c r="A76" s="199"/>
+      <c r="B76" s="200" t="s">
         <v>1573</v>
       </c>
       <c r="C76" t="s">
@@ -31108,8 +31103,8 @@
       <c r="F76" s="83"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="201"/>
-      <c r="B77" s="202" t="s">
+      <c r="A77" s="199"/>
+      <c r="B77" s="200" t="s">
         <v>4372</v>
       </c>
       <c r="C77" t="s">
@@ -31122,8 +31117,8 @@
       <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="201"/>
-      <c r="B78" s="202" t="s">
+      <c r="A78" s="199"/>
+      <c r="B78" s="200" t="s">
         <v>4765</v>
       </c>
       <c r="C78" t="s">
@@ -31136,8 +31131,8 @@
       <c r="F78" s="83"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="201"/>
-      <c r="B79" s="202" t="s">
+      <c r="A79" s="199"/>
+      <c r="B79" s="200" t="s">
         <v>1168</v>
       </c>
       <c r="C79" t="s">
@@ -31151,7 +31146,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="83"/>
-      <c r="B80" s="202" t="s">
+      <c r="B80" s="200" t="s">
         <v>4472</v>
       </c>
       <c r="C80" t="s">
@@ -31163,7 +31158,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="83"/>
-      <c r="B81" s="202" t="s">
+      <c r="B81" s="200" t="s">
         <v>5855</v>
       </c>
       <c r="C81" t="s">
@@ -31175,7 +31170,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="83"/>
-      <c r="B82" s="202">
+      <c r="B82" s="200">
         <v>61141</v>
       </c>
       <c r="C82" t="s">
@@ -31187,7 +31182,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="83"/>
-      <c r="B83" s="202" t="s">
+      <c r="B83" s="200" t="s">
         <v>5223</v>
       </c>
       <c r="C83" t="s">
@@ -31199,7 +31194,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="83"/>
-      <c r="B84" s="202" t="s">
+      <c r="B84" s="200" t="s">
         <v>4459</v>
       </c>
       <c r="C84" t="s">
@@ -31211,7 +31206,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="83"/>
-      <c r="B85" s="202" t="s">
+      <c r="B85" s="200" t="s">
         <v>5688</v>
       </c>
       <c r="C85" t="s">
@@ -31223,7 +31218,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="83"/>
-      <c r="B86" s="202">
+      <c r="B86" s="200">
         <v>95368</v>
       </c>
       <c r="C86" t="s">
@@ -31237,7 +31232,7 @@
     </row>
     <row r="87" spans="1:6" ht="17.649999999999999" customHeight="1">
       <c r="A87" s="83"/>
-      <c r="B87" s="202" t="s">
+      <c r="B87" s="200" t="s">
         <v>4439</v>
       </c>
       <c r="C87" t="s">
@@ -31249,7 +31244,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="83"/>
-      <c r="B88" s="202" t="s">
+      <c r="B88" s="200" t="s">
         <v>168</v>
       </c>
       <c r="C88" t="s">
@@ -31261,7 +31256,7 @@
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1">
       <c r="A89" s="83"/>
-      <c r="B89" s="202" t="s">
+      <c r="B89" s="200" t="s">
         <v>995</v>
       </c>
       <c r="C89" t="s">
@@ -31277,7 +31272,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="83"/>
-      <c r="B90" s="202" t="s">
+      <c r="B90" s="200" t="s">
         <v>900</v>
       </c>
       <c r="C90" t="s">
@@ -31289,7 +31284,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="83"/>
-      <c r="B91" s="202" t="s">
+      <c r="B91" s="200" t="s">
         <v>177</v>
       </c>
       <c r="C91" t="s">
@@ -31303,7 +31298,7 @@
     </row>
     <row r="92" spans="1:6" ht="21.6" customHeight="1">
       <c r="A92" s="83"/>
-      <c r="B92" s="202" t="s">
+      <c r="B92" s="200" t="s">
         <v>4466</v>
       </c>
       <c r="C92" t="s">
@@ -31315,7 +31310,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="83"/>
-      <c r="B93" s="202">
+      <c r="B93" s="200">
         <v>70508</v>
       </c>
       <c r="C93" t="s">
@@ -31327,7 +31322,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="83"/>
-      <c r="B94" s="202" t="s">
+      <c r="B94" s="200" t="s">
         <v>4362</v>
       </c>
       <c r="C94" t="s">
@@ -31341,7 +31336,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="83"/>
-      <c r="B95" s="202" t="s">
+      <c r="B95" s="200" t="s">
         <v>4389</v>
       </c>
       <c r="C95" t="s">
@@ -31353,7 +31348,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="83"/>
-      <c r="B96" s="202">
+      <c r="B96" s="200">
         <v>32245</v>
       </c>
       <c r="C96" t="s">
@@ -31365,7 +31360,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="83"/>
-      <c r="B97" s="202" t="s">
+      <c r="B97" s="200" t="s">
         <v>922</v>
       </c>
       <c r="C97" t="s">
@@ -31379,7 +31374,7 @@
     </row>
     <row r="98" spans="1:6" ht="22.15" customHeight="1">
       <c r="A98" s="83"/>
-      <c r="B98" s="203" t="s">
+      <c r="B98" s="201" t="s">
         <v>4465</v>
       </c>
       <c r="C98" t="s">
@@ -31391,7 +31386,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="83"/>
-      <c r="B99" s="202" t="s">
+      <c r="B99" s="200" t="s">
         <v>655</v>
       </c>
       <c r="C99" t="s">
@@ -31405,7 +31400,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="83"/>
-      <c r="B100" s="202" t="s">
+      <c r="B100" s="200" t="s">
         <v>605</v>
       </c>
       <c r="C100" t="s">
@@ -31417,19 +31412,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="83"/>
-      <c r="B101" s="202" t="s">
+      <c r="B101" s="200" t="s">
         <v>4436</v>
       </c>
       <c r="C101" t="s">
         <v>4437</v>
       </c>
-      <c r="D101" s="198"/>
+      <c r="D101" s="197"/>
       <c r="E101" s="186"/>
       <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="83"/>
-      <c r="B102" s="202">
+      <c r="B102" s="200">
         <v>66618</v>
       </c>
       <c r="C102" t="s">
@@ -31443,7 +31438,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="83"/>
-      <c r="B103" s="202" t="s">
+      <c r="B103" s="200" t="s">
         <v>4282</v>
       </c>
       <c r="C103" t="s">
@@ -31457,7 +31452,7 @@
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1">
       <c r="A104" s="83"/>
-      <c r="B104" s="202" t="s">
+      <c r="B104" s="200" t="s">
         <v>5746</v>
       </c>
       <c r="C104" t="s">
@@ -31471,7 +31466,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="83"/>
-      <c r="B105" s="203" t="s">
+      <c r="B105" s="201" t="s">
         <v>5691</v>
       </c>
       <c r="C105" t="s">
@@ -31483,19 +31478,19 @@
     </row>
     <row r="106" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A106" s="83"/>
-      <c r="B106" s="202" t="s">
+      <c r="B106" s="200" t="s">
         <v>4452</v>
       </c>
       <c r="C106" t="s">
         <v>4453</v>
       </c>
       <c r="D106" s="186"/>
-      <c r="E106" s="198"/>
+      <c r="E106" s="197"/>
       <c r="F106" s="83"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="83"/>
-      <c r="B107" s="202" t="s">
+      <c r="B107" s="200" t="s">
         <v>4371</v>
       </c>
       <c r="C107" t="s">
@@ -31507,7 +31502,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="83"/>
-      <c r="B108" s="202" t="s">
+      <c r="B108" s="200" t="s">
         <v>5372</v>
       </c>
       <c r="C108" t="s">
@@ -31519,7 +31514,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="83"/>
-      <c r="B109" s="202" t="s">
+      <c r="B109" s="200" t="s">
         <v>4817</v>
       </c>
       <c r="C109" t="s">
@@ -31531,7 +31526,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="83"/>
-      <c r="B110" s="202" t="s">
+      <c r="B110" s="200" t="s">
         <v>442</v>
       </c>
       <c r="C110" t="s">
@@ -31540,12 +31535,12 @@
       <c r="D110" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="E110" s="198"/>
+      <c r="E110" s="197"/>
       <c r="F110" s="83"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="83"/>
-      <c r="B111" s="202">
+      <c r="B111" s="200">
         <v>86044</v>
       </c>
       <c r="C111" t="s">
@@ -31559,7 +31554,7 @@
     </row>
     <row r="112" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A112" s="83"/>
-      <c r="B112" s="202" t="s">
+      <c r="B112" s="200" t="s">
         <v>5845</v>
       </c>
       <c r="C112" t="s">
@@ -31573,7 +31568,7 @@
     </row>
     <row r="113" spans="1:6" ht="14.45" customHeight="1">
       <c r="A113" s="83"/>
-      <c r="B113" s="202" t="s">
+      <c r="B113" s="200" t="s">
         <v>403</v>
       </c>
       <c r="C113" t="s">
@@ -31585,7 +31580,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="83"/>
-      <c r="B114" s="202">
+      <c r="B114" s="200">
         <v>71304</v>
       </c>
       <c r="C114" t="s">
@@ -31597,7 +31592,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="83"/>
-      <c r="B115" s="202" t="s">
+      <c r="B115" s="200" t="s">
         <v>5428</v>
       </c>
       <c r="C115" t="s">
@@ -31609,7 +31604,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="83"/>
-      <c r="B116" s="202" t="s">
+      <c r="B116" s="200" t="s">
         <v>904</v>
       </c>
       <c r="C116" t="s">
@@ -31621,7 +31616,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="83"/>
-      <c r="B117" s="202">
+      <c r="B117" s="200">
         <v>65586</v>
       </c>
       <c r="C117" t="s">
@@ -31635,7 +31630,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="83"/>
-      <c r="B118" s="202" t="s">
+      <c r="B118" s="200" t="s">
         <v>5844</v>
       </c>
       <c r="C118" t="s">
@@ -31649,7 +31644,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="83"/>
-      <c r="B119" s="202" t="s">
+      <c r="B119" s="200" t="s">
         <v>1346</v>
       </c>
       <c r="C119" t="s">
@@ -31661,7 +31656,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="83"/>
-      <c r="B120" s="202">
+      <c r="B120" s="200">
         <v>54119</v>
       </c>
       <c r="C120" t="s">
@@ -31673,7 +31668,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="83"/>
-      <c r="B121" s="202">
+      <c r="B121" s="200">
         <v>10988</v>
       </c>
       <c r="C121" t="s">
@@ -31685,7 +31680,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="83"/>
-      <c r="B122" s="202">
+      <c r="B122" s="200">
         <v>81815</v>
       </c>
       <c r="C122" t="s">
@@ -31697,7 +31692,7 @@
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1">
       <c r="A123" s="83"/>
-      <c r="B123" s="202" t="s">
+      <c r="B123" s="200" t="s">
         <v>214</v>
       </c>
       <c r="C123" t="s">
@@ -31711,7 +31706,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="83"/>
-      <c r="B124" s="202" t="s">
+      <c r="B124" s="200" t="s">
         <v>4351</v>
       </c>
       <c r="C124" t="s">
@@ -31725,7 +31720,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="83"/>
-      <c r="B125" s="202" t="s">
+      <c r="B125" s="200" t="s">
         <v>4383</v>
       </c>
       <c r="C125" t="s">
@@ -31737,7 +31732,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="83"/>
-      <c r="B126" s="202">
+      <c r="B126" s="200">
         <v>15645</v>
       </c>
       <c r="C126" t="s">
@@ -31749,7 +31744,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="83"/>
-      <c r="B127" s="202">
+      <c r="B127" s="200">
         <v>76588</v>
       </c>
       <c r="C127" t="s">
@@ -31761,7 +31756,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="83"/>
-      <c r="B128" s="202" t="s">
+      <c r="B128" s="200" t="s">
         <v>1020</v>
       </c>
       <c r="C128" t="s">
@@ -31775,7 +31770,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="83"/>
-      <c r="B129" s="202">
+      <c r="B129" s="200">
         <v>11243</v>
       </c>
       <c r="C129" t="s">
@@ -31787,7 +31782,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="83"/>
-      <c r="B130" s="202" t="s">
+      <c r="B130" s="200" t="s">
         <v>631</v>
       </c>
       <c r="C130" t="s">
@@ -31801,7 +31796,7 @@
     </row>
     <row r="131" spans="1:6" ht="14.25" customHeight="1">
       <c r="A131" s="83"/>
-      <c r="B131" s="202" t="s">
+      <c r="B131" s="200" t="s">
         <v>1076</v>
       </c>
       <c r="C131" t="s">
@@ -31813,7 +31808,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="83"/>
-      <c r="B132" s="202">
+      <c r="B132" s="200">
         <v>66087</v>
       </c>
       <c r="C132" t="s">
@@ -31827,7 +31822,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="83"/>
-      <c r="B133" s="202" t="s">
+      <c r="B133" s="200" t="s">
         <v>532</v>
       </c>
       <c r="C133" t="s">
@@ -31841,7 +31836,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="83"/>
-      <c r="B134" s="202" t="s">
+      <c r="B134" s="200" t="s">
         <v>163</v>
       </c>
       <c r="C134" t="s">
@@ -31855,7 +31850,7 @@
     </row>
     <row r="135" spans="1:6" ht="19.5" customHeight="1">
       <c r="A135" s="83"/>
-      <c r="B135" s="202" t="s">
+      <c r="B135" s="200" t="s">
         <v>1311</v>
       </c>
       <c r="C135" t="s">
@@ -31867,7 +31862,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="83"/>
-      <c r="B136" s="202" t="s">
+      <c r="B136" s="200" t="s">
         <v>94</v>
       </c>
       <c r="C136" t="s">
@@ -31881,7 +31876,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="83"/>
-      <c r="B137" s="202">
+      <c r="B137" s="200">
         <v>71985</v>
       </c>
       <c r="C137" t="s">
@@ -31893,7 +31888,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="83"/>
-      <c r="B138" s="202" t="s">
+      <c r="B138" s="200" t="s">
         <v>4397</v>
       </c>
       <c r="C138" t="s">
@@ -31905,7 +31900,7 @@
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1">
       <c r="A139" s="83"/>
-      <c r="B139" s="202">
+      <c r="B139" s="200">
         <v>57771</v>
       </c>
       <c r="C139" t="s">
@@ -31917,7 +31912,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="83"/>
-      <c r="B140" s="202" t="s">
+      <c r="B140" s="200" t="s">
         <v>5370</v>
       </c>
       <c r="C140" t="s">
@@ -31929,7 +31924,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="83"/>
-      <c r="B141" s="202">
+      <c r="B141" s="200">
         <v>12190</v>
       </c>
       <c r="C141" t="s">
@@ -31941,7 +31936,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="83"/>
-      <c r="B142" s="202" t="s">
+      <c r="B142" s="200" t="s">
         <v>4486</v>
       </c>
       <c r="C142" t="s">
@@ -31953,7 +31948,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="83"/>
-      <c r="B143" s="202" t="s">
+      <c r="B143" s="200" t="s">
         <v>1181</v>
       </c>
       <c r="C143" t="s">
@@ -31967,7 +31962,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="83"/>
-      <c r="B144" s="202">
+      <c r="B144" s="200">
         <v>83533</v>
       </c>
       <c r="C144" t="s">
@@ -31981,7 +31976,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="83"/>
-      <c r="B145" s="202" t="s">
+      <c r="B145" s="200" t="s">
         <v>745</v>
       </c>
       <c r="C145" t="s">
@@ -31993,7 +31988,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="83"/>
-      <c r="B146" s="202" t="s">
+      <c r="B146" s="200" t="s">
         <v>5424</v>
       </c>
       <c r="C146" t="s">
@@ -32005,7 +32000,7 @@
     </row>
     <row r="147" spans="1:6" ht="19.5" customHeight="1">
       <c r="A147" s="83"/>
-      <c r="B147" s="202" t="s">
+      <c r="B147" s="200" t="s">
         <v>4249</v>
       </c>
       <c r="C147" t="s">
@@ -32017,7 +32012,7 @@
     </row>
     <row r="148" spans="1:6" ht="17.25" customHeight="1">
       <c r="A148" s="83"/>
-      <c r="B148" s="202" t="s">
+      <c r="B148" s="200" t="s">
         <v>4462</v>
       </c>
       <c r="C148" t="s">
@@ -32029,7 +32024,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="83"/>
-      <c r="B149" s="202" t="s">
+      <c r="B149" s="200" t="s">
         <v>4251</v>
       </c>
       <c r="C149" t="s">
@@ -32043,7 +32038,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="83"/>
-      <c r="B150" s="202" t="s">
+      <c r="B150" s="200" t="s">
         <v>507</v>
       </c>
       <c r="C150" t="s">
@@ -32055,7 +32050,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="83"/>
-      <c r="B151" s="202" t="s">
+      <c r="B151" s="200" t="s">
         <v>1522</v>
       </c>
       <c r="C151" t="s">
@@ -32069,7 +32064,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="83"/>
-      <c r="B152" s="202">
+      <c r="B152" s="200">
         <v>30169</v>
       </c>
       <c r="C152" t="s">
@@ -32081,7 +32076,7 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1">
       <c r="A153" s="83"/>
-      <c r="B153" s="202" t="s">
+      <c r="B153" s="200" t="s">
         <v>4399</v>
       </c>
       <c r="C153" t="s">
@@ -32093,7 +32088,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="83"/>
-      <c r="B154" s="202" t="s">
+      <c r="B154" s="200" t="s">
         <v>4813</v>
       </c>
       <c r="C154" t="s">
@@ -32105,7 +32100,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="83"/>
-      <c r="B155" s="202" t="s">
+      <c r="B155" s="200" t="s">
         <v>4254</v>
       </c>
       <c r="C155" t="s">
@@ -32119,7 +32114,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="83"/>
-      <c r="B156" s="202">
+      <c r="B156" s="200">
         <v>73680</v>
       </c>
       <c r="C156" t="s">
@@ -32131,7 +32126,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="83"/>
-      <c r="B157" s="202" t="s">
+      <c r="B157" s="200" t="s">
         <v>4405</v>
       </c>
       <c r="C157" t="s">
@@ -32143,7 +32138,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="83"/>
-      <c r="B158" s="202" t="s">
+      <c r="B158" s="200" t="s">
         <v>4356</v>
       </c>
       <c r="C158" t="s">
@@ -32155,7 +32150,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="83"/>
-      <c r="B159" s="202" t="s">
+      <c r="B159" s="200" t="s">
         <v>4257</v>
       </c>
       <c r="C159" t="s">
@@ -32169,7 +32164,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="83"/>
-      <c r="B160" s="202" t="s">
+      <c r="B160" s="200" t="s">
         <v>4260</v>
       </c>
       <c r="C160" t="s">
@@ -32183,7 +32178,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="83"/>
-      <c r="B161" s="202">
+      <c r="B161" s="200">
         <v>63282</v>
       </c>
       <c r="C161" t="s">
@@ -32195,7 +32190,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="83"/>
-      <c r="B162" s="202">
+      <c r="B162" s="200">
         <v>52213</v>
       </c>
       <c r="C162" t="s">
@@ -32207,7 +32202,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="83"/>
-      <c r="B163" s="202" t="s">
+      <c r="B163" s="200" t="s">
         <v>612</v>
       </c>
       <c r="C163" t="s">
@@ -32221,7 +32216,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="83"/>
-      <c r="B164" s="202" t="s">
+      <c r="B164" s="200" t="s">
         <v>4418</v>
       </c>
       <c r="C164" t="s">
@@ -32233,7 +32228,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="83"/>
-      <c r="B165" s="202" t="s">
+      <c r="B165" s="200" t="s">
         <v>5840</v>
       </c>
       <c r="C165" t="s">
@@ -32245,7 +32240,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="83"/>
-      <c r="B166" s="202" t="s">
+      <c r="B166" s="200" t="s">
         <v>4405</v>
       </c>
       <c r="C166" t="s">
@@ -32257,7 +32252,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="83"/>
-      <c r="B167" s="202">
+      <c r="B167" s="200">
         <v>53882</v>
       </c>
       <c r="C167" t="s">
@@ -32269,7 +32264,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="83"/>
-      <c r="B168" s="202" t="s">
+      <c r="B168" s="200" t="s">
         <v>5847</v>
       </c>
       <c r="C168" t="s">
@@ -32283,7 +32278,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="83"/>
-      <c r="B169" s="202">
+      <c r="B169" s="200">
         <v>64411</v>
       </c>
       <c r="C169" t="s">
@@ -32295,7 +32290,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="83"/>
-      <c r="B170" s="202">
+      <c r="B170" s="200">
         <v>34222</v>
       </c>
       <c r="C170" t="s">
@@ -32307,7 +32302,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="83"/>
-      <c r="B171" s="202" t="s">
+      <c r="B171" s="200" t="s">
         <v>5841</v>
       </c>
       <c r="C171" t="s">
@@ -32321,7 +32316,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="83"/>
-      <c r="B172" s="202" t="s">
+      <c r="B172" s="200" t="s">
         <v>1170</v>
       </c>
       <c r="C172" t="s">
@@ -32335,7 +32330,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="83"/>
-      <c r="B173" s="202" t="s">
+      <c r="B173" s="200" t="s">
         <v>5823</v>
       </c>
       <c r="C173" t="s">
@@ -32347,7 +32342,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="83"/>
-      <c r="B174" s="202" t="s">
+      <c r="B174" s="200" t="s">
         <v>408</v>
       </c>
       <c r="C174" t="s">
@@ -32361,7 +32356,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="83"/>
-      <c r="B175" s="202" t="s">
+      <c r="B175" s="200" t="s">
         <v>97</v>
       </c>
       <c r="C175" t="s">
@@ -32373,7 +32368,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="83"/>
-      <c r="B176" s="202" t="s">
+      <c r="B176" s="200" t="s">
         <v>4340</v>
       </c>
       <c r="C176" t="s">
@@ -32385,7 +32380,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="83"/>
-      <c r="B177" s="202">
+      <c r="B177" s="200">
         <v>11707</v>
       </c>
       <c r="C177" t="s">
@@ -32397,7 +32392,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="83"/>
-      <c r="B178" s="202" t="s">
+      <c r="B178" s="200" t="s">
         <v>5419</v>
       </c>
       <c r="C178" t="s">
@@ -32409,7 +32404,7 @@
     </row>
     <row r="179" spans="1:6" ht="18" customHeight="1">
       <c r="A179" s="83"/>
-      <c r="B179" s="202" t="s">
+      <c r="B179" s="200" t="s">
         <v>513</v>
       </c>
       <c r="C179" t="s">
@@ -32421,7 +32416,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="83"/>
-      <c r="B180" s="202" t="s">
+      <c r="B180" s="200" t="s">
         <v>5677</v>
       </c>
       <c r="C180" t="s">
@@ -32433,7 +32428,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="83"/>
-      <c r="B181" s="202" t="s">
+      <c r="B181" s="200" t="s">
         <v>5687</v>
       </c>
       <c r="C181" t="s">
@@ -32445,7 +32440,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="83"/>
-      <c r="B182" s="202" t="s">
+      <c r="B182" s="200" t="s">
         <v>4408</v>
       </c>
       <c r="C182" t="s">
@@ -32457,7 +32452,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="83"/>
-      <c r="B183" s="202" t="s">
+      <c r="B183" s="200" t="s">
         <v>228</v>
       </c>
       <c r="C183" t="s">
@@ -32471,7 +32466,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="83"/>
-      <c r="B184" s="203" t="s">
+      <c r="B184" s="201" t="s">
         <v>4467</v>
       </c>
       <c r="C184" t="s">
@@ -32483,7 +32478,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="83"/>
-      <c r="B185" s="202">
+      <c r="B185" s="200">
         <v>71670</v>
       </c>
       <c r="C185" t="s">
@@ -32495,7 +32490,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="83"/>
-      <c r="B186" s="202">
+      <c r="B186" s="200">
         <v>26136</v>
       </c>
       <c r="C186" t="s">
@@ -32507,7 +32502,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="83"/>
-      <c r="B187" s="202" t="s">
+      <c r="B187" s="200" t="s">
         <v>4432</v>
       </c>
       <c r="C187" t="s">
@@ -32519,7 +32514,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="83"/>
-      <c r="B188" s="202" t="s">
+      <c r="B188" s="200" t="s">
         <v>898</v>
       </c>
       <c r="C188" t="s">
@@ -32533,7 +32528,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="83"/>
-      <c r="B189" s="202" t="s">
+      <c r="B189" s="200" t="s">
         <v>4434</v>
       </c>
       <c r="C189" t="s">
@@ -32545,7 +32540,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="83"/>
-      <c r="B190" s="202">
+      <c r="B190" s="200">
         <v>85213</v>
       </c>
       <c r="C190" t="s">
@@ -32559,7 +32554,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="83"/>
-      <c r="B191" s="202">
+      <c r="B191" s="200">
         <v>95094</v>
       </c>
       <c r="C191" t="s">
@@ -32571,7 +32566,7 @@
     </row>
     <row r="192" spans="1:6" ht="13.5" customHeight="1">
       <c r="A192" s="83"/>
-      <c r="B192" s="202">
+      <c r="B192" s="200">
         <v>33152</v>
       </c>
       <c r="C192" t="s">
@@ -32583,7 +32578,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="83"/>
-      <c r="B193" s="202">
+      <c r="B193" s="200">
         <v>17798</v>
       </c>
       <c r="C193" t="s">
@@ -32595,7 +32590,7 @@
     </row>
     <row r="194" spans="1:6" ht="17.45" customHeight="1">
       <c r="A194" s="83"/>
-      <c r="B194" s="202" t="s">
+      <c r="B194" s="200" t="s">
         <v>582</v>
       </c>
       <c r="C194" t="s">
@@ -32609,7 +32604,7 @@
     </row>
     <row r="195" spans="1:6" ht="17.25" customHeight="1">
       <c r="A195" s="83"/>
-      <c r="B195" s="202" t="s">
+      <c r="B195" s="200" t="s">
         <v>282</v>
       </c>
       <c r="C195" t="s">
@@ -32621,7 +32616,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="83"/>
-      <c r="B196" s="202" t="s">
+      <c r="B196" s="200" t="s">
         <v>5835</v>
       </c>
       <c r="C196" t="s">
@@ -32633,7 +32628,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="83"/>
-      <c r="B197" s="202" t="s">
+      <c r="B197" s="200" t="s">
         <v>4355</v>
       </c>
       <c r="C197" t="s">
@@ -32645,7 +32640,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="83"/>
-      <c r="B198" s="202" t="s">
+      <c r="B198" s="200" t="s">
         <v>1865</v>
       </c>
       <c r="C198" t="s">
@@ -32659,7 +32654,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="83"/>
-      <c r="B199" s="202">
+      <c r="B199" s="200">
         <v>14561</v>
       </c>
       <c r="C199" t="s">
@@ -32671,7 +32666,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="83"/>
-      <c r="B200" s="202">
+      <c r="B200" s="200">
         <v>87009</v>
       </c>
       <c r="C200" t="s">
@@ -32683,7 +32678,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="83"/>
-      <c r="B201" s="202">
+      <c r="B201" s="200">
         <v>38664</v>
       </c>
       <c r="C201" t="s">
@@ -32695,7 +32690,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="83"/>
-      <c r="B202" s="202">
+      <c r="B202" s="200">
         <v>60955</v>
       </c>
       <c r="C202" t="s">
@@ -32709,7 +32704,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="83"/>
-      <c r="B203" s="202">
+      <c r="B203" s="200">
         <v>13047</v>
       </c>
       <c r="C203" t="s">
@@ -32723,7 +32718,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="83"/>
-      <c r="B204" s="202">
+      <c r="B204" s="200">
         <v>22978</v>
       </c>
       <c r="C204" t="s">
@@ -32737,7 +32732,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="83"/>
-      <c r="B205" s="202" t="s">
+      <c r="B205" s="200" t="s">
         <v>5236</v>
       </c>
       <c r="C205" t="s">
@@ -32749,7 +32744,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="83"/>
-      <c r="B206" s="202">
+      <c r="B206" s="200">
         <v>12021</v>
       </c>
       <c r="C206" t="s">
@@ -32761,7 +32756,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="83"/>
-      <c r="B207" s="202">
+      <c r="B207" s="200">
         <v>62727</v>
       </c>
       <c r="C207" t="s">
@@ -32775,7 +32770,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="83"/>
-      <c r="B208" s="202" t="s">
+      <c r="B208" s="200" t="s">
         <v>1689</v>
       </c>
       <c r="C208" t="s">
@@ -32789,7 +32784,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="83"/>
-      <c r="B209" s="202" t="s">
+      <c r="B209" s="200" t="s">
         <v>4275</v>
       </c>
       <c r="C209" t="s">
@@ -32803,7 +32798,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="83"/>
-      <c r="B210" s="202" t="s">
+      <c r="B210" s="200" t="s">
         <v>4455</v>
       </c>
       <c r="C210" t="s">
@@ -32815,7 +32810,7 @@
     </row>
     <row r="211" spans="1:6" ht="18.75" customHeight="1">
       <c r="A211" s="83"/>
-      <c r="B211" s="202">
+      <c r="B211" s="200">
         <v>38881</v>
       </c>
       <c r="C211" t="s">
@@ -32827,7 +32822,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="83"/>
-      <c r="B212" s="202">
+      <c r="B212" s="200">
         <v>41592</v>
       </c>
       <c r="C212" t="s">
@@ -32839,7 +32834,7 @@
     </row>
     <row r="213" spans="1:6" ht="18" customHeight="1">
       <c r="A213" s="83"/>
-      <c r="B213" s="202" t="s">
+      <c r="B213" s="200" t="s">
         <v>4470</v>
       </c>
       <c r="C213" t="s">
@@ -32851,7 +32846,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="83"/>
-      <c r="B214" s="202" t="s">
+      <c r="B214" s="200" t="s">
         <v>4489</v>
       </c>
       <c r="C214" t="s">
@@ -32863,7 +32858,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="83"/>
-      <c r="B215" s="202">
+      <c r="B215" s="200">
         <v>32387</v>
       </c>
       <c r="C215" t="s">
@@ -32877,7 +32872,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="83"/>
-      <c r="B216" s="202" t="s">
+      <c r="B216" s="200" t="s">
         <v>5837</v>
       </c>
       <c r="C216" t="s">
@@ -32889,7 +32884,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="83"/>
-      <c r="B217" s="202"/>
+      <c r="B217" s="200"/>
       <c r="C217" t="s">
         <v>1565</v>
       </c>
@@ -32899,7 +32894,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="83"/>
-      <c r="B218" s="202">
+      <c r="B218" s="200">
         <v>43990</v>
       </c>
       <c r="C218" t="s">
@@ -32911,7 +32906,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="83"/>
-      <c r="B219" s="202">
+      <c r="B219" s="200">
         <v>59165</v>
       </c>
       <c r="C219" t="s">
@@ -32925,7 +32920,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="83"/>
-      <c r="B220" s="202" t="s">
+      <c r="B220" s="200" t="s">
         <v>676</v>
       </c>
       <c r="C220" t="s">
@@ -32939,7 +32934,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="83"/>
-      <c r="B221" s="202" t="s">
+      <c r="B221" s="200" t="s">
         <v>4802</v>
       </c>
       <c r="C221" t="s">
@@ -32951,7 +32946,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="83"/>
-      <c r="B222" s="202" t="s">
+      <c r="B222" s="200" t="s">
         <v>4527</v>
       </c>
       <c r="C222" t="s">
@@ -32963,7 +32958,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="83"/>
-      <c r="B223" s="202" t="s">
+      <c r="B223" s="200" t="s">
         <v>5685</v>
       </c>
       <c r="C223" t="s">
@@ -32975,7 +32970,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="83"/>
-      <c r="B224" s="202">
+      <c r="B224" s="200">
         <v>25281</v>
       </c>
       <c r="C224" t="s">
@@ -32987,7 +32982,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="83"/>
-      <c r="B225" s="202">
+      <c r="B225" s="200">
         <v>12066</v>
       </c>
       <c r="C225" t="s">
@@ -32999,7 +32994,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="83"/>
-      <c r="B226" s="202" t="s">
+      <c r="B226" s="200" t="s">
         <v>5836</v>
       </c>
       <c r="C226" t="s">
@@ -33011,7 +33006,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="83"/>
-      <c r="B227" s="202">
+      <c r="B227" s="200">
         <v>44674</v>
       </c>
       <c r="C227" t="s">
@@ -33023,7 +33018,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="83"/>
-      <c r="B228" s="202">
+      <c r="B228" s="200">
         <v>34712</v>
       </c>
       <c r="C228" t="s">
@@ -33035,7 +33030,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="83"/>
-      <c r="B229" s="202">
+      <c r="B229" s="200">
         <v>15305</v>
       </c>
       <c r="C229" t="s">
@@ -33047,7 +33042,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="83"/>
-      <c r="B230" s="202">
+      <c r="B230" s="200">
         <v>63266</v>
       </c>
       <c r="C230" t="s">
@@ -33059,7 +33054,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="83"/>
-      <c r="B231" s="202" t="s">
+      <c r="B231" s="200" t="s">
         <v>5238</v>
       </c>
       <c r="C231" t="s">
@@ -33071,7 +33066,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="83"/>
-      <c r="B232" s="202" t="s">
+      <c r="B232" s="200" t="s">
         <v>487</v>
       </c>
       <c r="C232" t="s">
@@ -33085,7 +33080,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="83"/>
-      <c r="B233" s="202" t="s">
+      <c r="B233" s="200" t="s">
         <v>608</v>
       </c>
       <c r="C233" t="s">
@@ -33099,7 +33094,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="83"/>
-      <c r="B234" s="202" t="s">
+      <c r="B234" s="200" t="s">
         <v>5450</v>
       </c>
       <c r="C234" t="s">
@@ -33111,7 +33106,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="83"/>
-      <c r="B235" s="202">
+      <c r="B235" s="200">
         <v>66774</v>
       </c>
       <c r="C235" t="s">
@@ -33123,7 +33118,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="83"/>
-      <c r="B236" s="202" t="s">
+      <c r="B236" s="200" t="s">
         <v>5421</v>
       </c>
       <c r="C236" t="s">
@@ -33135,7 +33130,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="83"/>
-      <c r="B237" s="202" t="s">
+      <c r="B237" s="200" t="s">
         <v>4449</v>
       </c>
       <c r="C237" t="s">
@@ -33147,7 +33142,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="83"/>
-      <c r="B238" s="202" t="s">
+      <c r="B238" s="200" t="s">
         <v>4295</v>
       </c>
       <c r="C238" t="s">
@@ -33161,7 +33156,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="83"/>
-      <c r="B239" s="202">
+      <c r="B239" s="200">
         <v>63208</v>
       </c>
       <c r="C239" t="s">
@@ -33173,7 +33168,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="83"/>
-      <c r="B240" s="202">
+      <c r="B240" s="200">
         <v>90031</v>
       </c>
       <c r="C240" t="s">
@@ -33185,7 +33180,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="83"/>
-      <c r="B241" s="203" t="s">
+      <c r="B241" s="201" t="s">
         <v>5834</v>
       </c>
       <c r="C241" t="s">
@@ -33197,7 +33192,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="83"/>
-      <c r="B242" s="202">
+      <c r="B242" s="200">
         <v>54584</v>
       </c>
       <c r="C242" t="s">
@@ -33209,7 +33204,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="83"/>
-      <c r="B243" s="202" t="s">
+      <c r="B243" s="200" t="s">
         <v>4447</v>
       </c>
       <c r="C243" t="s">
@@ -33221,7 +33216,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="83"/>
-      <c r="B244" s="202">
+      <c r="B244" s="200">
         <v>52406</v>
       </c>
       <c r="C244" t="s">
@@ -33232,7 +33227,7 @@
       <c r="F244" s="83"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="B245" s="202">
+      <c r="B245" s="200">
         <v>86835</v>
       </c>
       <c r="C245" t="s">
@@ -33246,7 +33241,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="83"/>
-      <c r="B246" s="202" t="s">
+      <c r="B246" s="200" t="s">
         <v>5714</v>
       </c>
       <c r="C246" t="s">
@@ -33258,7 +33253,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="83"/>
-      <c r="B247" s="202">
+      <c r="B247" s="200">
         <v>86928</v>
       </c>
       <c r="C247" t="s">
@@ -33270,7 +33265,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="83"/>
-      <c r="B248" s="202">
+      <c r="B248" s="200">
         <v>9704</v>
       </c>
       <c r="C248" t="s">
@@ -33282,7 +33277,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="83"/>
-      <c r="B249" s="202">
+      <c r="B249" s="200">
         <v>91643</v>
       </c>
       <c r="C249" t="s">
@@ -33294,7 +33289,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="83"/>
-      <c r="B250" s="202" t="s">
+      <c r="B250" s="200" t="s">
         <v>5838</v>
       </c>
       <c r="C250" t="s">
@@ -33306,7 +33301,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="83"/>
-      <c r="B251" s="202" t="s">
+      <c r="B251" s="200" t="s">
         <v>5828</v>
       </c>
       <c r="C251" t="s">
@@ -33318,7 +33313,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="83"/>
-      <c r="B252" s="202" t="s">
+      <c r="B252" s="200" t="s">
         <v>4344</v>
       </c>
       <c r="C252" t="s">
@@ -33330,7 +33325,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="83"/>
-      <c r="B253" s="202" t="s">
+      <c r="B253" s="200" t="s">
         <v>4822</v>
       </c>
       <c r="C253" t="s">
@@ -33342,7 +33337,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="83"/>
-      <c r="B254" s="202" t="s">
+      <c r="B254" s="200" t="s">
         <v>5750</v>
       </c>
       <c r="C254" t="s">
@@ -33354,7 +33349,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="83"/>
-      <c r="B255" s="202">
+      <c r="B255" s="200">
         <v>78359</v>
       </c>
       <c r="C255" t="s">
@@ -33366,7 +33361,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="83"/>
-      <c r="B256" s="202">
+      <c r="B256" s="200">
         <v>28818</v>
       </c>
       <c r="C256" t="s">
@@ -33378,7 +33373,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="83"/>
-      <c r="B257" s="202" t="s">
+      <c r="B257" s="200" t="s">
         <v>501</v>
       </c>
       <c r="C257" t="s">
@@ -33392,7 +33387,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="83"/>
-      <c r="B258" s="202">
+      <c r="B258" s="200">
         <v>80756</v>
       </c>
       <c r="C258" t="s">
@@ -33404,7 +33399,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="83"/>
-      <c r="B259" s="202">
+      <c r="B259" s="200">
         <v>66144</v>
       </c>
       <c r="C259" t="s">
@@ -33416,7 +33411,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="83"/>
-      <c r="B260" s="202" t="s">
+      <c r="B260" s="200" t="s">
         <v>4407</v>
       </c>
       <c r="C260" t="s">
@@ -33428,7 +33423,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="83"/>
-      <c r="B261" s="202">
+      <c r="B261" s="200">
         <v>98376</v>
       </c>
       <c r="C261" t="s">
@@ -33440,7 +33435,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="83"/>
-      <c r="B262" s="202" t="s">
+      <c r="B262" s="200" t="s">
         <v>4804</v>
       </c>
       <c r="C262" t="s">
@@ -33452,7 +33447,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="83"/>
-      <c r="B263" s="202">
+      <c r="B263" s="200">
         <v>15939</v>
       </c>
       <c r="C263" t="s">
@@ -33464,7 +33459,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="83"/>
-      <c r="B264" s="202" t="s">
+      <c r="B264" s="200" t="s">
         <v>4639</v>
       </c>
       <c r="C264" t="s">
@@ -33476,7 +33471,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="83"/>
-      <c r="B265" s="202" t="s">
+      <c r="B265" s="200" t="s">
         <v>4302</v>
       </c>
       <c r="C265" t="s">
@@ -33490,7 +33485,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="83"/>
-      <c r="B266" s="202" t="s">
+      <c r="B266" s="200" t="s">
         <v>4821</v>
       </c>
       <c r="C266" t="s">
@@ -33502,7 +33497,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="83"/>
-      <c r="B267" s="202" t="s">
+      <c r="B267" s="200" t="s">
         <v>4305</v>
       </c>
       <c r="C267" t="s">
@@ -33516,7 +33511,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="83"/>
-      <c r="B268" s="202">
+      <c r="B268" s="200">
         <v>59529</v>
       </c>
       <c r="C268" t="s">
@@ -33528,7 +33523,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="83"/>
-      <c r="B269" s="202" t="s">
+      <c r="B269" s="200" t="s">
         <v>4392</v>
       </c>
       <c r="C269" t="s">
@@ -33540,7 +33535,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="83"/>
-      <c r="B270" s="202">
+      <c r="B270" s="200">
         <v>29019</v>
       </c>
       <c r="C270" t="s">
@@ -33552,7 +33547,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="83"/>
-      <c r="B271" s="202" t="s">
+      <c r="B271" s="200" t="s">
         <v>5857</v>
       </c>
       <c r="C271" t="s">
@@ -33564,7 +33559,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="83"/>
-      <c r="B272" s="202">
+      <c r="B272" s="200">
         <v>33476</v>
       </c>
       <c r="C272" t="s">
@@ -33576,7 +33571,7 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1">
       <c r="A273" s="83"/>
-      <c r="B273" s="202" t="s">
+      <c r="B273" s="200" t="s">
         <v>1204</v>
       </c>
       <c r="C273" t="s">
@@ -33588,7 +33583,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="83"/>
-      <c r="B274" s="202">
+      <c r="B274" s="200">
         <v>64023</v>
       </c>
       <c r="C274" t="s">
@@ -33602,7 +33597,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="83"/>
-      <c r="B275" s="202" t="s">
+      <c r="B275" s="200" t="s">
         <v>374</v>
       </c>
       <c r="C275" t="s">
@@ -33614,7 +33609,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="83"/>
-      <c r="B276" s="202">
+      <c r="B276" s="200">
         <v>64413</v>
       </c>
       <c r="C276" t="s">
@@ -33626,7 +33621,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="83"/>
-      <c r="B277" s="202" t="s">
+      <c r="B277" s="200" t="s">
         <v>376</v>
       </c>
       <c r="C277" t="s">
@@ -33638,7 +33633,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="83"/>
-      <c r="B278" s="202" t="s">
+      <c r="B278" s="200" t="s">
         <v>5851</v>
       </c>
       <c r="C278" t="s">
@@ -33652,7 +33647,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="83"/>
-      <c r="B279" s="202">
+      <c r="B279" s="200">
         <v>82689</v>
       </c>
       <c r="C279" t="s">
@@ -33664,7 +33659,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="83"/>
-      <c r="B280" s="202">
+      <c r="B280" s="200">
         <v>82402</v>
       </c>
       <c r="C280" t="s">
@@ -33676,7 +33671,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="83"/>
-      <c r="B281" s="202" t="s">
+      <c r="B281" s="200" t="s">
         <v>1140</v>
       </c>
       <c r="C281" t="s">
@@ -33688,7 +33683,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="83"/>
-      <c r="B282" s="202" t="s">
+      <c r="B282" s="200" t="s">
         <v>4451</v>
       </c>
       <c r="C282" t="s">
@@ -33700,7 +33695,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="83"/>
-      <c r="B283" s="202">
+      <c r="B283" s="200">
         <v>48104</v>
       </c>
       <c r="C283" t="s">
@@ -33712,7 +33707,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="83"/>
-      <c r="B284" s="202" t="s">
+      <c r="B284" s="200" t="s">
         <v>4441</v>
       </c>
       <c r="C284" t="s">
@@ -33726,7 +33721,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="83"/>
-      <c r="B285" s="202" t="s">
+      <c r="B285" s="200" t="s">
         <v>5853</v>
       </c>
       <c r="C285" t="s">
@@ -33738,7 +33733,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="83"/>
-      <c r="B286" s="202" t="s">
+      <c r="B286" s="200" t="s">
         <v>5439</v>
       </c>
       <c r="C286" t="s">
@@ -33750,7 +33745,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="83"/>
-      <c r="B287" s="202" t="s">
+      <c r="B287" s="200" t="s">
         <v>5743</v>
       </c>
       <c r="C287" t="s">
@@ -33762,7 +33757,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="83"/>
-      <c r="B288" s="202">
+      <c r="B288" s="200">
         <v>25714</v>
       </c>
       <c r="C288" t="s">
@@ -33774,7 +33769,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="83"/>
-      <c r="B289" s="202">
+      <c r="B289" s="200">
         <v>25714</v>
       </c>
       <c r="C289" t="s">
@@ -33786,7 +33781,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="83"/>
-      <c r="B290" s="202" t="s">
+      <c r="B290" s="200" t="s">
         <v>4307</v>
       </c>
       <c r="C290" t="s">
@@ -33800,7 +33795,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="83"/>
-      <c r="B291" s="202" t="s">
+      <c r="B291" s="200" t="s">
         <v>5856</v>
       </c>
       <c r="C291" t="s">
@@ -33812,7 +33807,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="83"/>
-      <c r="B292" s="202" t="s">
+      <c r="B292" s="200" t="s">
         <v>5426</v>
       </c>
       <c r="C292" t="s">
@@ -33824,7 +33819,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="83"/>
-      <c r="B293" s="202" t="s">
+      <c r="B293" s="200" t="s">
         <v>4410</v>
       </c>
       <c r="C293" t="s">
@@ -33836,7 +33831,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="83"/>
-      <c r="B294" s="202" t="s">
+      <c r="B294" s="200" t="s">
         <v>4309</v>
       </c>
       <c r="C294" t="s">
@@ -33848,7 +33843,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="83"/>
-      <c r="B295" s="202" t="s">
+      <c r="B295" s="200" t="s">
         <v>5854</v>
       </c>
       <c r="C295" t="s">
@@ -33862,7 +33857,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="83"/>
-      <c r="B296" s="202">
+      <c r="B296" s="200">
         <v>71670</v>
       </c>
       <c r="C296" t="s">
@@ -33874,7 +33869,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="83"/>
-      <c r="B297" s="202" t="s">
+      <c r="B297" s="200" t="s">
         <v>4811</v>
       </c>
       <c r="C297" t="s">
@@ -33886,7 +33881,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="83"/>
-      <c r="B298" s="202" t="s">
+      <c r="B298" s="200" t="s">
         <v>5865</v>
       </c>
       <c r="C298" t="s">
@@ -33898,7 +33893,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="83"/>
-      <c r="B299" s="202" t="s">
+      <c r="B299" s="200" t="s">
         <v>4387</v>
       </c>
       <c r="C299" t="s">
@@ -33910,7 +33905,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="83"/>
-      <c r="B300" s="202" t="s">
+      <c r="B300" s="200" t="s">
         <v>4806</v>
       </c>
       <c r="C300" t="s">
@@ -33922,7 +33917,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="83"/>
-      <c r="B301" s="202" t="s">
+      <c r="B301" s="200" t="s">
         <v>1216</v>
       </c>
       <c r="C301" t="s">
@@ -33934,7 +33929,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="83"/>
-      <c r="B302" s="202">
+      <c r="B302" s="200">
         <v>13675</v>
       </c>
       <c r="C302" t="s">
@@ -33948,7 +33943,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="83"/>
-      <c r="B303" s="202" t="s">
+      <c r="B303" s="200" t="s">
         <v>830</v>
       </c>
       <c r="C303" t="s">
@@ -33962,7 +33957,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="83"/>
-      <c r="B304" s="202">
+      <c r="B304" s="200">
         <v>98991</v>
       </c>
       <c r="C304" t="s">
@@ -34215,9 +34210,10 @@
     <hyperlink ref="D274" r:id="rId122" xr:uid="{1CB8F24B-B796-4CF1-811C-B93EFC023B79}"/>
     <hyperlink ref="D290" r:id="rId123" xr:uid="{EC6565C7-D170-4D9D-9D08-F4C489F93BBB}"/>
     <hyperlink ref="D295" r:id="rId124" xr:uid="{66F73DCC-AC4E-49E4-B66E-A1F6AA3EDE3D}"/>
+    <hyperlink ref="D26" r:id="rId125" xr:uid="{A9806DFA-0599-4BE2-AE6F-E091049A7AB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId125"/>
+  <pageSetup orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
 

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E59B6-24AD-49AB-B308-16EE377B57D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AD33F-D088-42F6-A03E-EB33C2B1BB7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
   <sheets>
     <sheet name="QuoteCal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9479" uniqueCount="5894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9481" uniqueCount="5893">
   <si>
     <t>TSE</t>
   </si>
@@ -19189,10 +19189,7 @@
     <t>samantha.gorney@vteworld.com</t>
   </si>
   <si>
-    <t>34914</t>
-  </si>
-  <si>
-    <t>pg</t>
+    <t>p g</t>
   </si>
   <si>
     <t>g</t>
@@ -19208,7 +19205,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19603,6 +19600,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -19611,7 +19624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19704,11 +19717,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -19930,21 +19949,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF3C4B78"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF3C4B78"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF3C4B78"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -19954,7 +19958,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -20190,11 +20194,17 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="58" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="60" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20212,12 +20222,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -30044,8 +30048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30059,8 +30063,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A1" s="199"/>
-      <c r="B1" s="200" t="s">
+      <c r="A1" s="201" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1" s="202" t="s">
         <v>4405</v>
       </c>
       <c r="C1" t="s">
@@ -30071,8 +30077,8 @@
       <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="199"/>
-      <c r="B2" s="200" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="202" t="s">
         <v>747</v>
       </c>
       <c r="C2" t="s">
@@ -30085,8 +30091,8 @@
       <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="199"/>
-      <c r="B3" s="200" t="s">
+      <c r="A3" s="201"/>
+      <c r="B3" s="202" t="s">
         <v>4239</v>
       </c>
       <c r="C3" t="s">
@@ -30099,8 +30105,8 @@
       <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="199"/>
-      <c r="B4" s="200" t="s">
+      <c r="A4" s="201"/>
+      <c r="B4" s="202" t="s">
         <v>5825</v>
       </c>
       <c r="C4" t="s">
@@ -30111,8 +30117,8 @@
       <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="199"/>
-      <c r="B5" s="200">
+      <c r="A5" s="201"/>
+      <c r="B5" s="202">
         <v>70508</v>
       </c>
       <c r="C5" t="s">
@@ -30125,8 +30131,8 @@
       <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="199"/>
-      <c r="B6" s="200" t="s">
+      <c r="A6" s="201"/>
+      <c r="B6" s="202" t="s">
         <v>4346</v>
       </c>
       <c r="C6" t="s">
@@ -30139,8 +30145,8 @@
       <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="199"/>
-      <c r="B7" s="202">
+      <c r="A7" s="201"/>
+      <c r="B7" s="204">
         <v>91663</v>
       </c>
       <c r="C7" t="s">
@@ -30151,14 +30157,16 @@
       <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200" t="s">
+      <c r="A8" s="201" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B8" s="202" t="s">
         <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="205" t="s">
+      <c r="D8" s="207" t="s">
         <v>4243</v>
       </c>
       <c r="E8" s="186" t="s">
@@ -30170,8 +30178,8 @@
       <c r="G8" s="186"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200" t="s">
+      <c r="A9" s="201"/>
+      <c r="B9" s="202" t="s">
         <v>1682</v>
       </c>
       <c r="C9" t="s">
@@ -30185,8 +30193,8 @@
       <c r="G9" s="131"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200" t="s">
+      <c r="A10" s="201"/>
+      <c r="B10" s="202" t="s">
         <v>4492</v>
       </c>
       <c r="C10" t="s">
@@ -30197,14 +30205,14 @@
       <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="199"/>
-      <c r="B11" s="200" t="s">
+      <c r="A11" s="201"/>
+      <c r="B11" s="202" t="s">
         <v>4722</v>
       </c>
       <c r="C11" t="s">
         <v>4246</v>
       </c>
-      <c r="D11" s="204" t="s">
+      <c r="D11" s="206" t="s">
         <v>5867</v>
       </c>
       <c r="E11" s="186" t="s">
@@ -30213,8 +30221,8 @@
       <c r="F11" s="186"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="199"/>
-      <c r="B12" s="200" t="s">
+      <c r="A12" s="201"/>
+      <c r="B12" s="202" t="s">
         <v>159</v>
       </c>
       <c r="C12" t="s">
@@ -30225,8 +30233,8 @@
       <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="199"/>
-      <c r="B13" s="200" t="s">
+      <c r="A13" s="201"/>
+      <c r="B13" s="202" t="s">
         <v>221</v>
       </c>
       <c r="C13" t="s">
@@ -30239,8 +30247,8 @@
       <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200" t="s">
+      <c r="A14" s="201"/>
+      <c r="B14" s="202" t="s">
         <v>379</v>
       </c>
       <c r="C14" t="s">
@@ -30253,8 +30261,8 @@
       <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="199"/>
-      <c r="B15" s="200" t="s">
+      <c r="A15" s="201"/>
+      <c r="B15" s="202" t="s">
         <v>150</v>
       </c>
       <c r="C15" t="s">
@@ -30267,8 +30275,8 @@
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="199"/>
-      <c r="B16" s="200" t="s">
+      <c r="A16" s="201"/>
+      <c r="B16" s="202" t="s">
         <v>4376</v>
       </c>
       <c r="C16" t="s">
@@ -30281,22 +30289,22 @@
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200">
+      <c r="A17" s="201"/>
+      <c r="B17" s="202">
         <v>76096</v>
       </c>
       <c r="C17" t="s">
         <v>4403</v>
       </c>
-      <c r="D17" s="204" t="s">
+      <c r="D17" s="206" t="s">
         <v>5868</v>
       </c>
-      <c r="E17" s="198"/>
+      <c r="E17" s="199"/>
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="199"/>
-      <c r="B18" s="202" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="204" t="s">
         <v>466</v>
       </c>
       <c r="C18" t="s">
@@ -30305,12 +30313,12 @@
       <c r="D18" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E18" s="198"/>
+      <c r="E18" s="199"/>
       <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="199"/>
-      <c r="B19" s="202">
+      <c r="A19" s="201"/>
+      <c r="B19" s="204">
         <v>51435</v>
       </c>
       <c r="C19" t="s">
@@ -30323,8 +30331,8 @@
       <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="199"/>
-      <c r="B20" s="200" t="s">
+      <c r="A20" s="201"/>
+      <c r="B20" s="202" t="s">
         <v>4332</v>
       </c>
       <c r="C20" t="s">
@@ -30337,8 +30345,8 @@
       <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="199"/>
-      <c r="B21" s="200" t="s">
+      <c r="A21" s="201"/>
+      <c r="B21" s="202" t="s">
         <v>91</v>
       </c>
       <c r="C21" t="s">
@@ -30349,8 +30357,8 @@
       <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="199"/>
-      <c r="B22" s="203" t="s">
+      <c r="A22" s="201"/>
+      <c r="B22" s="205" t="s">
         <v>1417</v>
       </c>
       <c r="C22" t="s">
@@ -30363,10 +30371,10 @@
       <c r="F22" s="83"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="199" t="s">
-        <v>5892</v>
-      </c>
-      <c r="B23" s="200" t="s">
+      <c r="A23" s="201" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B23" s="202" t="s">
         <v>110</v>
       </c>
       <c r="C23" t="s">
@@ -30379,8 +30387,8 @@
       <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="199"/>
-      <c r="B24" s="200" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="202" t="s">
         <v>394</v>
       </c>
       <c r="C24" t="s">
@@ -30393,8 +30401,8 @@
       <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="199"/>
-      <c r="B25" s="200" t="s">
+      <c r="A25" s="201"/>
+      <c r="B25" s="202" t="s">
         <v>517</v>
       </c>
       <c r="C25" t="s">
@@ -30409,9 +30417,9 @@
       <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="199"/>
-      <c r="B26" s="200" t="s">
-        <v>5891</v>
+      <c r="A26" s="201"/>
+      <c r="B26" s="202">
+        <v>34914</v>
       </c>
       <c r="C26" t="s">
         <v>4270</v>
@@ -30423,10 +30431,10 @@
       <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="199" t="s">
-        <v>5893</v>
-      </c>
-      <c r="B27" s="202" t="s">
+      <c r="A27" s="201" t="s">
+        <v>5892</v>
+      </c>
+      <c r="B27" s="204" t="s">
         <v>636</v>
       </c>
       <c r="C27" t="s">
@@ -30435,12 +30443,12 @@
       <c r="D27" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="E27" s="197"/>
+      <c r="E27" s="198"/>
       <c r="F27" s="83"/>
     </row>
     <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="199"/>
-      <c r="B28" s="200" t="s">
+      <c r="A28" s="201"/>
+      <c r="B28" s="202" t="s">
         <v>4323</v>
       </c>
       <c r="C28" t="s">
@@ -30453,8 +30461,8 @@
       <c r="F28" s="83"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="199"/>
-      <c r="B29" s="200"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="202"/>
       <c r="C29" t="s">
         <v>4480</v>
       </c>
@@ -30465,8 +30473,8 @@
       <c r="F29" s="83"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="199"/>
-      <c r="B30" s="200">
+      <c r="A30" s="201"/>
+      <c r="B30" s="202">
         <v>57715</v>
       </c>
       <c r="C30" t="s">
@@ -30479,8 +30487,8 @@
       <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="199"/>
-      <c r="B31" s="200" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="202" t="s">
         <v>4353</v>
       </c>
       <c r="C31" t="s">
@@ -30491,8 +30499,8 @@
       <c r="F31" s="83"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="199"/>
-      <c r="B32" s="201" t="s">
+      <c r="A32" s="201"/>
+      <c r="B32" s="203" t="s">
         <v>987</v>
       </c>
       <c r="C32" t="s">
@@ -30505,8 +30513,8 @@
       <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="199"/>
-      <c r="B33" s="200" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="202" t="s">
         <v>1673</v>
       </c>
       <c r="C33" t="s">
@@ -30519,8 +30527,8 @@
       <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="199"/>
-      <c r="B34" s="200" t="s">
+      <c r="A34" s="201"/>
+      <c r="B34" s="202" t="s">
         <v>4942</v>
       </c>
       <c r="C34" t="s">
@@ -30531,8 +30539,8 @@
       <c r="F34" s="83"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="199"/>
-      <c r="B35" s="200" t="s">
+      <c r="A35" s="201"/>
+      <c r="B35" s="202" t="s">
         <v>1863</v>
       </c>
       <c r="C35" t="s">
@@ -30543,8 +30551,8 @@
       <c r="F35" s="83"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="199"/>
-      <c r="B36" s="200">
+      <c r="A36" s="201"/>
+      <c r="B36" s="202">
         <v>43321</v>
       </c>
       <c r="C36" t="s">
@@ -30555,8 +30563,8 @@
       <c r="F36" s="83"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="199"/>
-      <c r="B37" s="202" t="s">
+      <c r="A37" s="201"/>
+      <c r="B37" s="204" t="s">
         <v>502</v>
       </c>
       <c r="C37" t="s">
@@ -30569,8 +30577,8 @@
       <c r="F37" s="83"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="199"/>
-      <c r="B38" s="202" t="s">
+      <c r="A38" s="201"/>
+      <c r="B38" s="204" t="s">
         <v>4474</v>
       </c>
       <c r="C38" t="s">
@@ -30581,8 +30589,8 @@
       <c r="F38" s="83"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="199"/>
-      <c r="B39" s="200" t="s">
+      <c r="A39" s="201"/>
+      <c r="B39" s="202" t="s">
         <v>1166</v>
       </c>
       <c r="C39" t="s">
@@ -30595,8 +30603,8 @@
       <c r="F39" s="83"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="199"/>
-      <c r="B40" s="200">
+      <c r="A40" s="201"/>
+      <c r="B40" s="202">
         <v>87009</v>
       </c>
       <c r="C40" t="s">
@@ -30609,8 +30617,8 @@
       <c r="F40" s="83"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="199"/>
-      <c r="B41" s="200" t="s">
+      <c r="A41" s="201"/>
+      <c r="B41" s="202" t="s">
         <v>4445</v>
       </c>
       <c r="C41" t="s">
@@ -30621,8 +30629,10 @@
       <c r="F41" s="83"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="A42" s="199"/>
-      <c r="B42" s="200" t="s">
+      <c r="A42" s="201" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B42" s="202" t="s">
         <v>446</v>
       </c>
       <c r="C42" t="s">
@@ -30635,20 +30645,20 @@
       <c r="F42" s="83"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="199"/>
-      <c r="B43" s="200" t="s">
+      <c r="A43" s="201"/>
+      <c r="B43" s="202" t="s">
         <v>449</v>
       </c>
       <c r="C43" t="s">
         <v>448</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
       <c r="F43" s="83"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="199"/>
-      <c r="B44" s="200" t="s">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202" t="s">
         <v>4278</v>
       </c>
       <c r="C44" t="s">
@@ -30661,8 +30671,8 @@
       <c r="F44" s="83"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="199"/>
-      <c r="B45" s="200" t="s">
+      <c r="A45" s="201"/>
+      <c r="B45" s="202" t="s">
         <v>225</v>
       </c>
       <c r="C45" t="s">
@@ -30675,8 +30685,8 @@
       <c r="F45" s="83"/>
     </row>
     <row r="46" spans="1:6" ht="16.899999999999999" customHeight="1">
-      <c r="A46" s="199"/>
-      <c r="B46" s="200">
+      <c r="A46" s="201"/>
+      <c r="B46" s="202">
         <v>32387</v>
       </c>
       <c r="C46" t="s">
@@ -30689,8 +30699,8 @@
       <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="199"/>
-      <c r="B47" s="200" t="s">
+      <c r="A47" s="201"/>
+      <c r="B47" s="202" t="s">
         <v>818</v>
       </c>
       <c r="C47" t="s">
@@ -30703,8 +30713,8 @@
       <c r="F47" s="83"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="199"/>
-      <c r="B48" s="200" t="s">
+      <c r="A48" s="201"/>
+      <c r="B48" s="202" t="s">
         <v>456</v>
       </c>
       <c r="C48" t="s">
@@ -30715,8 +30725,8 @@
       <c r="F48" s="83"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="199"/>
-      <c r="B49" s="200" t="s">
+      <c r="A49" s="201"/>
+      <c r="B49" s="202" t="s">
         <v>616</v>
       </c>
       <c r="C49" t="s">
@@ -30729,22 +30739,22 @@
       <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="199"/>
-      <c r="B50" s="200" t="s">
+      <c r="A50" s="201"/>
+      <c r="B50" s="202" t="s">
         <v>4314</v>
       </c>
       <c r="C50" t="s">
         <v>4315</v>
       </c>
-      <c r="D50" s="204" t="s">
+      <c r="D50" s="206" t="s">
         <v>5874</v>
       </c>
       <c r="E50" s="186"/>
       <c r="F50" s="83"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="199"/>
-      <c r="B51" s="200" t="s">
+      <c r="A51" s="201"/>
+      <c r="B51" s="202" t="s">
         <v>4422</v>
       </c>
       <c r="C51" t="s">
@@ -30757,8 +30767,8 @@
       <c r="F51" s="83"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="199"/>
-      <c r="B52" s="200" t="s">
+      <c r="A52" s="201"/>
+      <c r="B52" s="202" t="s">
         <v>157</v>
       </c>
       <c r="C52" t="s">
@@ -30773,8 +30783,8 @@
       <c r="F52" s="83"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="199"/>
-      <c r="B53" s="200" t="s">
+      <c r="A53" s="201"/>
+      <c r="B53" s="202" t="s">
         <v>4292</v>
       </c>
       <c r="C53" t="s">
@@ -30787,8 +30797,8 @@
       <c r="F53" s="83"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="199"/>
-      <c r="B54" s="200" t="s">
+      <c r="A54" s="201"/>
+      <c r="B54" s="202" t="s">
         <v>412</v>
       </c>
       <c r="C54" t="s">
@@ -30801,8 +30811,8 @@
       <c r="F54" s="83"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="199"/>
-      <c r="B55" s="200" t="s">
+      <c r="A55" s="201"/>
+      <c r="B55" s="202" t="s">
         <v>534</v>
       </c>
       <c r="C55" t="s">
@@ -30815,8 +30825,8 @@
       <c r="F55" s="83"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="199"/>
-      <c r="B56" s="200" t="s">
+      <c r="A56" s="201"/>
+      <c r="B56" s="202" t="s">
         <v>1329</v>
       </c>
       <c r="C56" t="s">
@@ -30825,12 +30835,12 @@
       <c r="D56" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="E56" s="198"/>
+      <c r="E56" s="199"/>
       <c r="F56" s="83"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="199"/>
-      <c r="B57" s="200" t="s">
+      <c r="A57" s="201"/>
+      <c r="B57" s="202" t="s">
         <v>437</v>
       </c>
       <c r="C57" t="s">
@@ -30843,8 +30853,8 @@
       <c r="F57" s="83"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="199"/>
-      <c r="B58" s="200">
+      <c r="A58" s="201"/>
+      <c r="B58" s="202">
         <v>82199</v>
       </c>
       <c r="C58" t="s">
@@ -30857,8 +30867,8 @@
       <c r="F58" s="83"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="199"/>
-      <c r="B59" s="200" t="s">
+      <c r="A59" s="201"/>
+      <c r="B59" s="202" t="s">
         <v>4758</v>
       </c>
       <c r="C59" t="s">
@@ -30871,8 +30881,8 @@
       <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="199"/>
-      <c r="B60" s="202" t="s">
+      <c r="A60" s="201"/>
+      <c r="B60" s="204" t="s">
         <v>4476</v>
       </c>
       <c r="C60" t="s">
@@ -30883,8 +30893,8 @@
       <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="199"/>
-      <c r="B61" s="200" t="s">
+      <c r="A61" s="201"/>
+      <c r="B61" s="202" t="s">
         <v>4881</v>
       </c>
       <c r="C61" t="s">
@@ -30895,8 +30905,8 @@
       <c r="F61" s="83"/>
     </row>
     <row r="62" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A62" s="199"/>
-      <c r="B62" s="200" t="s">
+      <c r="A62" s="201"/>
+      <c r="B62" s="202" t="s">
         <v>4280</v>
       </c>
       <c r="C62" t="s">
@@ -30907,20 +30917,20 @@
       <c r="F62" s="83"/>
     </row>
     <row r="63" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A63" s="199"/>
-      <c r="B63" s="202" t="s">
+      <c r="A63" s="201"/>
+      <c r="B63" s="204" t="s">
         <v>283</v>
       </c>
       <c r="C63" t="s">
         <v>520</v>
       </c>
       <c r="D63" s="186"/>
-      <c r="E63" s="207"/>
+      <c r="E63" s="200"/>
       <c r="F63" s="83"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="199"/>
-      <c r="B64" s="200" t="s">
+      <c r="A64" s="201"/>
+      <c r="B64" s="202" t="s">
         <v>540</v>
       </c>
       <c r="C64" t="s">
@@ -30930,11 +30940,11 @@
         <v>670</v>
       </c>
       <c r="E64" s="186"/>
-      <c r="F64" s="206"/>
+      <c r="F64" s="197"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="199"/>
-      <c r="B65" s="200">
+      <c r="A65" s="201"/>
+      <c r="B65" s="202">
         <v>66647</v>
       </c>
       <c r="C65" t="s">
@@ -30947,8 +30957,8 @@
       <c r="F65" s="83"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="199"/>
-      <c r="B66" s="200">
+      <c r="A66" s="201"/>
+      <c r="B66" s="202">
         <v>50541</v>
       </c>
       <c r="C66" t="s">
@@ -30961,8 +30971,8 @@
       <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="199"/>
-      <c r="B67" s="200">
+      <c r="A67" s="201"/>
+      <c r="B67" s="202">
         <v>24602</v>
       </c>
       <c r="C67" t="s">
@@ -30975,8 +30985,8 @@
       <c r="F67" s="83"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="199"/>
-      <c r="B68" s="200" t="s">
+      <c r="A68" s="201"/>
+      <c r="B68" s="202" t="s">
         <v>4337</v>
       </c>
       <c r="C68" t="s">
@@ -30989,8 +30999,8 @@
       <c r="F68" s="83"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="199"/>
-      <c r="B69" s="200" t="s">
+      <c r="A69" s="201"/>
+      <c r="B69" s="202" t="s">
         <v>4368</v>
       </c>
       <c r="C69" t="s">
@@ -31003,8 +31013,8 @@
       <c r="F69" s="83"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="199"/>
-      <c r="B70" s="200">
+      <c r="A70" s="201"/>
+      <c r="B70" s="202">
         <v>64411</v>
       </c>
       <c r="C70" t="s">
@@ -31013,14 +31023,14 @@
       <c r="D70" s="10" t="s">
         <v>5879</v>
       </c>
-      <c r="E70" s="197" t="s">
+      <c r="E70" s="198" t="s">
         <v>4370</v>
       </c>
       <c r="F70" s="83"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="199"/>
-      <c r="B71" s="200" t="s">
+      <c r="A71" s="201"/>
+      <c r="B71" s="202" t="s">
         <v>5852</v>
       </c>
       <c r="C71" t="s">
@@ -31031,8 +31041,8 @@
       <c r="F71" s="83"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="199"/>
-      <c r="B72" s="200" t="s">
+      <c r="A72" s="201"/>
+      <c r="B72" s="202" t="s">
         <v>4418</v>
       </c>
       <c r="C72" t="s">
@@ -31041,12 +31051,12 @@
       <c r="D72" s="10" t="s">
         <v>5880</v>
       </c>
-      <c r="E72" s="197"/>
+      <c r="E72" s="198"/>
       <c r="F72" s="83"/>
     </row>
     <row r="73" spans="1:6" ht="17.649999999999999" customHeight="1">
-      <c r="A73" s="199"/>
-      <c r="B73" s="200">
+      <c r="A73" s="201"/>
+      <c r="B73" s="202">
         <v>58860</v>
       </c>
       <c r="C73" t="s">
@@ -31055,14 +31065,14 @@
       <c r="D73" s="10" t="s">
         <v>4478</v>
       </c>
-      <c r="E73" s="198" t="s">
+      <c r="E73" s="199" t="s">
         <v>4420</v>
       </c>
       <c r="F73" s="83"/>
     </row>
     <row r="74" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A74" s="199"/>
-      <c r="B74" s="200" t="s">
+      <c r="A74" s="201"/>
+      <c r="B74" s="202" t="s">
         <v>1632</v>
       </c>
       <c r="C74" t="s">
@@ -31075,8 +31085,8 @@
       <c r="F74" s="83"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="199"/>
-      <c r="B75" s="200">
+      <c r="A75" s="201"/>
+      <c r="B75" s="202">
         <v>44256</v>
       </c>
       <c r="C75" t="s">
@@ -31089,8 +31099,8 @@
       <c r="F75" s="83"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="199"/>
-      <c r="B76" s="200" t="s">
+      <c r="A76" s="201"/>
+      <c r="B76" s="202" t="s">
         <v>1573</v>
       </c>
       <c r="C76" t="s">
@@ -31103,8 +31113,8 @@
       <c r="F76" s="83"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="199"/>
-      <c r="B77" s="200" t="s">
+      <c r="A77" s="201"/>
+      <c r="B77" s="202" t="s">
         <v>4372</v>
       </c>
       <c r="C77" t="s">
@@ -31117,8 +31127,8 @@
       <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="199"/>
-      <c r="B78" s="200" t="s">
+      <c r="A78" s="201"/>
+      <c r="B78" s="202" t="s">
         <v>4765</v>
       </c>
       <c r="C78" t="s">
@@ -31131,8 +31141,8 @@
       <c r="F78" s="83"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="199"/>
-      <c r="B79" s="200" t="s">
+      <c r="A79" s="201"/>
+      <c r="B79" s="202" t="s">
         <v>1168</v>
       </c>
       <c r="C79" t="s">
@@ -31146,7 +31156,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="83"/>
-      <c r="B80" s="200" t="s">
+      <c r="B80" s="202" t="s">
         <v>4472</v>
       </c>
       <c r="C80" t="s">
@@ -31158,7 +31168,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="83"/>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="202" t="s">
         <v>5855</v>
       </c>
       <c r="C81" t="s">
@@ -31170,7 +31180,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="83"/>
-      <c r="B82" s="200">
+      <c r="B82" s="202">
         <v>61141</v>
       </c>
       <c r="C82" t="s">
@@ -31182,7 +31192,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="83"/>
-      <c r="B83" s="200" t="s">
+      <c r="B83" s="202" t="s">
         <v>5223</v>
       </c>
       <c r="C83" t="s">
@@ -31194,7 +31204,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="83"/>
-      <c r="B84" s="200" t="s">
+      <c r="B84" s="202" t="s">
         <v>4459</v>
       </c>
       <c r="C84" t="s">
@@ -31206,7 +31216,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="83"/>
-      <c r="B85" s="200" t="s">
+      <c r="B85" s="202" t="s">
         <v>5688</v>
       </c>
       <c r="C85" t="s">
@@ -31218,7 +31228,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="83"/>
-      <c r="B86" s="200">
+      <c r="B86" s="202">
         <v>95368</v>
       </c>
       <c r="C86" t="s">
@@ -31232,7 +31242,7 @@
     </row>
     <row r="87" spans="1:6" ht="17.649999999999999" customHeight="1">
       <c r="A87" s="83"/>
-      <c r="B87" s="200" t="s">
+      <c r="B87" s="202" t="s">
         <v>4439</v>
       </c>
       <c r="C87" t="s">
@@ -31244,7 +31254,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="83"/>
-      <c r="B88" s="200" t="s">
+      <c r="B88" s="202" t="s">
         <v>168</v>
       </c>
       <c r="C88" t="s">
@@ -31256,7 +31266,7 @@
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1">
       <c r="A89" s="83"/>
-      <c r="B89" s="200" t="s">
+      <c r="B89" s="202" t="s">
         <v>995</v>
       </c>
       <c r="C89" t="s">
@@ -31272,7 +31282,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="83"/>
-      <c r="B90" s="200" t="s">
+      <c r="B90" s="202" t="s">
         <v>900</v>
       </c>
       <c r="C90" t="s">
@@ -31284,7 +31294,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="83"/>
-      <c r="B91" s="200" t="s">
+      <c r="B91" s="202" t="s">
         <v>177</v>
       </c>
       <c r="C91" t="s">
@@ -31298,7 +31308,7 @@
     </row>
     <row r="92" spans="1:6" ht="21.6" customHeight="1">
       <c r="A92" s="83"/>
-      <c r="B92" s="200" t="s">
+      <c r="B92" s="202" t="s">
         <v>4466</v>
       </c>
       <c r="C92" t="s">
@@ -31310,7 +31320,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="83"/>
-      <c r="B93" s="200">
+      <c r="B93" s="202">
         <v>70508</v>
       </c>
       <c r="C93" t="s">
@@ -31322,7 +31332,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="83"/>
-      <c r="B94" s="200" t="s">
+      <c r="B94" s="202" t="s">
         <v>4362</v>
       </c>
       <c r="C94" t="s">
@@ -31336,7 +31346,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="83"/>
-      <c r="B95" s="200" t="s">
+      <c r="B95" s="202" t="s">
         <v>4389</v>
       </c>
       <c r="C95" t="s">
@@ -31348,7 +31358,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="83"/>
-      <c r="B96" s="200">
+      <c r="B96" s="202">
         <v>32245</v>
       </c>
       <c r="C96" t="s">
@@ -31360,7 +31370,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="83"/>
-      <c r="B97" s="200" t="s">
+      <c r="B97" s="202" t="s">
         <v>922</v>
       </c>
       <c r="C97" t="s">
@@ -31374,7 +31384,7 @@
     </row>
     <row r="98" spans="1:6" ht="22.15" customHeight="1">
       <c r="A98" s="83"/>
-      <c r="B98" s="201" t="s">
+      <c r="B98" s="203" t="s">
         <v>4465</v>
       </c>
       <c r="C98" t="s">
@@ -31386,7 +31396,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="83"/>
-      <c r="B99" s="200" t="s">
+      <c r="B99" s="202" t="s">
         <v>655</v>
       </c>
       <c r="C99" t="s">
@@ -31400,7 +31410,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="83"/>
-      <c r="B100" s="200" t="s">
+      <c r="B100" s="202" t="s">
         <v>605</v>
       </c>
       <c r="C100" t="s">
@@ -31412,19 +31422,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="83"/>
-      <c r="B101" s="200" t="s">
+      <c r="B101" s="202" t="s">
         <v>4436</v>
       </c>
       <c r="C101" t="s">
         <v>4437</v>
       </c>
-      <c r="D101" s="197"/>
+      <c r="D101" s="198"/>
       <c r="E101" s="186"/>
       <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="83"/>
-      <c r="B102" s="200">
+      <c r="B102" s="202">
         <v>66618</v>
       </c>
       <c r="C102" t="s">
@@ -31438,7 +31448,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="83"/>
-      <c r="B103" s="200" t="s">
+      <c r="B103" s="202" t="s">
         <v>4282</v>
       </c>
       <c r="C103" t="s">
@@ -31452,7 +31462,7 @@
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1">
       <c r="A104" s="83"/>
-      <c r="B104" s="200" t="s">
+      <c r="B104" s="202" t="s">
         <v>5746</v>
       </c>
       <c r="C104" t="s">
@@ -31466,7 +31476,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="83"/>
-      <c r="B105" s="201" t="s">
+      <c r="B105" s="203" t="s">
         <v>5691</v>
       </c>
       <c r="C105" t="s">
@@ -31478,19 +31488,19 @@
     </row>
     <row r="106" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A106" s="83"/>
-      <c r="B106" s="200" t="s">
+      <c r="B106" s="202" t="s">
         <v>4452</v>
       </c>
       <c r="C106" t="s">
         <v>4453</v>
       </c>
       <c r="D106" s="186"/>
-      <c r="E106" s="197"/>
+      <c r="E106" s="198"/>
       <c r="F106" s="83"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="83"/>
-      <c r="B107" s="200" t="s">
+      <c r="B107" s="202" t="s">
         <v>4371</v>
       </c>
       <c r="C107" t="s">
@@ -31502,7 +31512,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="83"/>
-      <c r="B108" s="200" t="s">
+      <c r="B108" s="202" t="s">
         <v>5372</v>
       </c>
       <c r="C108" t="s">
@@ -31514,7 +31524,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="83"/>
-      <c r="B109" s="200" t="s">
+      <c r="B109" s="202" t="s">
         <v>4817</v>
       </c>
       <c r="C109" t="s">
@@ -31526,7 +31536,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="83"/>
-      <c r="B110" s="200" t="s">
+      <c r="B110" s="202" t="s">
         <v>442</v>
       </c>
       <c r="C110" t="s">
@@ -31535,12 +31545,12 @@
       <c r="D110" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="E110" s="197"/>
+      <c r="E110" s="198"/>
       <c r="F110" s="83"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="83"/>
-      <c r="B111" s="200">
+      <c r="B111" s="202">
         <v>86044</v>
       </c>
       <c r="C111" t="s">
@@ -31554,7 +31564,7 @@
     </row>
     <row r="112" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A112" s="83"/>
-      <c r="B112" s="200" t="s">
+      <c r="B112" s="202" t="s">
         <v>5845</v>
       </c>
       <c r="C112" t="s">
@@ -31568,7 +31578,7 @@
     </row>
     <row r="113" spans="1:6" ht="14.45" customHeight="1">
       <c r="A113" s="83"/>
-      <c r="B113" s="200" t="s">
+      <c r="B113" s="202" t="s">
         <v>403</v>
       </c>
       <c r="C113" t="s">
@@ -31580,7 +31590,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="83"/>
-      <c r="B114" s="200">
+      <c r="B114" s="202">
         <v>71304</v>
       </c>
       <c r="C114" t="s">
@@ -31592,7 +31602,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="83"/>
-      <c r="B115" s="200" t="s">
+      <c r="B115" s="202" t="s">
         <v>5428</v>
       </c>
       <c r="C115" t="s">
@@ -31604,7 +31614,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="83"/>
-      <c r="B116" s="200" t="s">
+      <c r="B116" s="202" t="s">
         <v>904</v>
       </c>
       <c r="C116" t="s">
@@ -31616,7 +31626,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="83"/>
-      <c r="B117" s="200">
+      <c r="B117" s="202">
         <v>65586</v>
       </c>
       <c r="C117" t="s">
@@ -31630,7 +31640,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="83"/>
-      <c r="B118" s="200" t="s">
+      <c r="B118" s="202" t="s">
         <v>5844</v>
       </c>
       <c r="C118" t="s">
@@ -31644,7 +31654,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="83"/>
-      <c r="B119" s="200" t="s">
+      <c r="B119" s="202" t="s">
         <v>1346</v>
       </c>
       <c r="C119" t="s">
@@ -31656,7 +31666,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="83"/>
-      <c r="B120" s="200">
+      <c r="B120" s="202">
         <v>54119</v>
       </c>
       <c r="C120" t="s">
@@ -31668,7 +31678,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="83"/>
-      <c r="B121" s="200">
+      <c r="B121" s="202">
         <v>10988</v>
       </c>
       <c r="C121" t="s">
@@ -31680,7 +31690,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="83"/>
-      <c r="B122" s="200">
+      <c r="B122" s="202">
         <v>81815</v>
       </c>
       <c r="C122" t="s">
@@ -31692,7 +31702,7 @@
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1">
       <c r="A123" s="83"/>
-      <c r="B123" s="200" t="s">
+      <c r="B123" s="202" t="s">
         <v>214</v>
       </c>
       <c r="C123" t="s">
@@ -31706,7 +31716,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="83"/>
-      <c r="B124" s="200" t="s">
+      <c r="B124" s="202" t="s">
         <v>4351</v>
       </c>
       <c r="C124" t="s">
@@ -31720,7 +31730,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="83"/>
-      <c r="B125" s="200" t="s">
+      <c r="B125" s="202" t="s">
         <v>4383</v>
       </c>
       <c r="C125" t="s">
@@ -31732,7 +31742,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="83"/>
-      <c r="B126" s="200">
+      <c r="B126" s="202">
         <v>15645</v>
       </c>
       <c r="C126" t="s">
@@ -31744,7 +31754,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="83"/>
-      <c r="B127" s="200">
+      <c r="B127" s="202">
         <v>76588</v>
       </c>
       <c r="C127" t="s">
@@ -31756,7 +31766,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="83"/>
-      <c r="B128" s="200" t="s">
+      <c r="B128" s="202" t="s">
         <v>1020</v>
       </c>
       <c r="C128" t="s">
@@ -31770,7 +31780,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="83"/>
-      <c r="B129" s="200">
+      <c r="B129" s="202">
         <v>11243</v>
       </c>
       <c r="C129" t="s">
@@ -31782,7 +31792,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="83"/>
-      <c r="B130" s="200" t="s">
+      <c r="B130" s="202" t="s">
         <v>631</v>
       </c>
       <c r="C130" t="s">
@@ -31796,7 +31806,7 @@
     </row>
     <row r="131" spans="1:6" ht="14.25" customHeight="1">
       <c r="A131" s="83"/>
-      <c r="B131" s="200" t="s">
+      <c r="B131" s="202" t="s">
         <v>1076</v>
       </c>
       <c r="C131" t="s">
@@ -31808,7 +31818,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="83"/>
-      <c r="B132" s="200">
+      <c r="B132" s="202">
         <v>66087</v>
       </c>
       <c r="C132" t="s">
@@ -31822,7 +31832,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="83"/>
-      <c r="B133" s="200" t="s">
+      <c r="B133" s="202" t="s">
         <v>532</v>
       </c>
       <c r="C133" t="s">
@@ -31836,7 +31846,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="83"/>
-      <c r="B134" s="200" t="s">
+      <c r="B134" s="202" t="s">
         <v>163</v>
       </c>
       <c r="C134" t="s">
@@ -31850,7 +31860,7 @@
     </row>
     <row r="135" spans="1:6" ht="19.5" customHeight="1">
       <c r="A135" s="83"/>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="202" t="s">
         <v>1311</v>
       </c>
       <c r="C135" t="s">
@@ -31862,7 +31872,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="83"/>
-      <c r="B136" s="200" t="s">
+      <c r="B136" s="202" t="s">
         <v>94</v>
       </c>
       <c r="C136" t="s">
@@ -31876,7 +31886,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="83"/>
-      <c r="B137" s="200">
+      <c r="B137" s="202">
         <v>71985</v>
       </c>
       <c r="C137" t="s">
@@ -31888,7 +31898,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="83"/>
-      <c r="B138" s="200" t="s">
+      <c r="B138" s="202" t="s">
         <v>4397</v>
       </c>
       <c r="C138" t="s">
@@ -31900,7 +31910,7 @@
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1">
       <c r="A139" s="83"/>
-      <c r="B139" s="200">
+      <c r="B139" s="202">
         <v>57771</v>
       </c>
       <c r="C139" t="s">
@@ -31912,7 +31922,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="83"/>
-      <c r="B140" s="200" t="s">
+      <c r="B140" s="202" t="s">
         <v>5370</v>
       </c>
       <c r="C140" t="s">
@@ -31924,7 +31934,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="83"/>
-      <c r="B141" s="200">
+      <c r="B141" s="202">
         <v>12190</v>
       </c>
       <c r="C141" t="s">
@@ -31936,7 +31946,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="83"/>
-      <c r="B142" s="200" t="s">
+      <c r="B142" s="202" t="s">
         <v>4486</v>
       </c>
       <c r="C142" t="s">
@@ -31948,7 +31958,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="83"/>
-      <c r="B143" s="200" t="s">
+      <c r="B143" s="202" t="s">
         <v>1181</v>
       </c>
       <c r="C143" t="s">
@@ -31962,7 +31972,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="83"/>
-      <c r="B144" s="200">
+      <c r="B144" s="202">
         <v>83533</v>
       </c>
       <c r="C144" t="s">
@@ -31976,7 +31986,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="83"/>
-      <c r="B145" s="200" t="s">
+      <c r="B145" s="202" t="s">
         <v>745</v>
       </c>
       <c r="C145" t="s">
@@ -31988,7 +31998,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="83"/>
-      <c r="B146" s="200" t="s">
+      <c r="B146" s="202" t="s">
         <v>5424</v>
       </c>
       <c r="C146" t="s">
@@ -32000,7 +32010,7 @@
     </row>
     <row r="147" spans="1:6" ht="19.5" customHeight="1">
       <c r="A147" s="83"/>
-      <c r="B147" s="200" t="s">
+      <c r="B147" s="202" t="s">
         <v>4249</v>
       </c>
       <c r="C147" t="s">
@@ -32012,7 +32022,7 @@
     </row>
     <row r="148" spans="1:6" ht="17.25" customHeight="1">
       <c r="A148" s="83"/>
-      <c r="B148" s="200" t="s">
+      <c r="B148" s="202" t="s">
         <v>4462</v>
       </c>
       <c r="C148" t="s">
@@ -32024,7 +32034,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="83"/>
-      <c r="B149" s="200" t="s">
+      <c r="B149" s="202" t="s">
         <v>4251</v>
       </c>
       <c r="C149" t="s">
@@ -32038,7 +32048,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="83"/>
-      <c r="B150" s="200" t="s">
+      <c r="B150" s="202" t="s">
         <v>507</v>
       </c>
       <c r="C150" t="s">
@@ -32050,7 +32060,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="83"/>
-      <c r="B151" s="200" t="s">
+      <c r="B151" s="202" t="s">
         <v>1522</v>
       </c>
       <c r="C151" t="s">
@@ -32064,7 +32074,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="83"/>
-      <c r="B152" s="200">
+      <c r="B152" s="202">
         <v>30169</v>
       </c>
       <c r="C152" t="s">
@@ -32076,7 +32086,7 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1">
       <c r="A153" s="83"/>
-      <c r="B153" s="200" t="s">
+      <c r="B153" s="202" t="s">
         <v>4399</v>
       </c>
       <c r="C153" t="s">
@@ -32088,7 +32098,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="83"/>
-      <c r="B154" s="200" t="s">
+      <c r="B154" s="202" t="s">
         <v>4813</v>
       </c>
       <c r="C154" t="s">
@@ -32100,7 +32110,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="83"/>
-      <c r="B155" s="200" t="s">
+      <c r="B155" s="202" t="s">
         <v>4254</v>
       </c>
       <c r="C155" t="s">
@@ -32114,7 +32124,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="83"/>
-      <c r="B156" s="200">
+      <c r="B156" s="202">
         <v>73680</v>
       </c>
       <c r="C156" t="s">
@@ -32126,7 +32136,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="83"/>
-      <c r="B157" s="200" t="s">
+      <c r="B157" s="202" t="s">
         <v>4405</v>
       </c>
       <c r="C157" t="s">
@@ -32138,7 +32148,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="83"/>
-      <c r="B158" s="200" t="s">
+      <c r="B158" s="202" t="s">
         <v>4356</v>
       </c>
       <c r="C158" t="s">
@@ -32150,7 +32160,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="83"/>
-      <c r="B159" s="200" t="s">
+      <c r="B159" s="202" t="s">
         <v>4257</v>
       </c>
       <c r="C159" t="s">
@@ -32164,7 +32174,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="83"/>
-      <c r="B160" s="200" t="s">
+      <c r="B160" s="202" t="s">
         <v>4260</v>
       </c>
       <c r="C160" t="s">
@@ -32178,7 +32188,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="83"/>
-      <c r="B161" s="200">
+      <c r="B161" s="202">
         <v>63282</v>
       </c>
       <c r="C161" t="s">
@@ -32190,7 +32200,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="83"/>
-      <c r="B162" s="200">
+      <c r="B162" s="202">
         <v>52213</v>
       </c>
       <c r="C162" t="s">
@@ -32202,7 +32212,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="83"/>
-      <c r="B163" s="200" t="s">
+      <c r="B163" s="202" t="s">
         <v>612</v>
       </c>
       <c r="C163" t="s">
@@ -32216,7 +32226,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="83"/>
-      <c r="B164" s="200" t="s">
+      <c r="B164" s="202" t="s">
         <v>4418</v>
       </c>
       <c r="C164" t="s">
@@ -32228,7 +32238,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="83"/>
-      <c r="B165" s="200" t="s">
+      <c r="B165" s="202" t="s">
         <v>5840</v>
       </c>
       <c r="C165" t="s">
@@ -32240,7 +32250,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="83"/>
-      <c r="B166" s="200" t="s">
+      <c r="B166" s="202" t="s">
         <v>4405</v>
       </c>
       <c r="C166" t="s">
@@ -32252,7 +32262,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="83"/>
-      <c r="B167" s="200">
+      <c r="B167" s="202">
         <v>53882</v>
       </c>
       <c r="C167" t="s">
@@ -32264,7 +32274,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="83"/>
-      <c r="B168" s="200" t="s">
+      <c r="B168" s="202" t="s">
         <v>5847</v>
       </c>
       <c r="C168" t="s">
@@ -32278,7 +32288,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="83"/>
-      <c r="B169" s="200">
+      <c r="B169" s="202">
         <v>64411</v>
       </c>
       <c r="C169" t="s">
@@ -32290,7 +32300,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="83"/>
-      <c r="B170" s="200">
+      <c r="B170" s="202">
         <v>34222</v>
       </c>
       <c r="C170" t="s">
@@ -32302,7 +32312,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="83"/>
-      <c r="B171" s="200" t="s">
+      <c r="B171" s="202" t="s">
         <v>5841</v>
       </c>
       <c r="C171" t="s">
@@ -32316,7 +32326,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="83"/>
-      <c r="B172" s="200" t="s">
+      <c r="B172" s="202" t="s">
         <v>1170</v>
       </c>
       <c r="C172" t="s">
@@ -32330,7 +32340,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="83"/>
-      <c r="B173" s="200" t="s">
+      <c r="B173" s="202" t="s">
         <v>5823</v>
       </c>
       <c r="C173" t="s">
@@ -32342,7 +32352,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="83"/>
-      <c r="B174" s="200" t="s">
+      <c r="B174" s="202" t="s">
         <v>408</v>
       </c>
       <c r="C174" t="s">
@@ -32356,7 +32366,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="83"/>
-      <c r="B175" s="200" t="s">
+      <c r="B175" s="202" t="s">
         <v>97</v>
       </c>
       <c r="C175" t="s">
@@ -32368,7 +32378,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="83"/>
-      <c r="B176" s="200" t="s">
+      <c r="B176" s="202" t="s">
         <v>4340</v>
       </c>
       <c r="C176" t="s">
@@ -32380,7 +32390,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="83"/>
-      <c r="B177" s="200">
+      <c r="B177" s="202">
         <v>11707</v>
       </c>
       <c r="C177" t="s">
@@ -32392,7 +32402,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="83"/>
-      <c r="B178" s="200" t="s">
+      <c r="B178" s="202" t="s">
         <v>5419</v>
       </c>
       <c r="C178" t="s">
@@ -32404,7 +32414,7 @@
     </row>
     <row r="179" spans="1:6" ht="18" customHeight="1">
       <c r="A179" s="83"/>
-      <c r="B179" s="200" t="s">
+      <c r="B179" s="202" t="s">
         <v>513</v>
       </c>
       <c r="C179" t="s">
@@ -32416,7 +32426,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="83"/>
-      <c r="B180" s="200" t="s">
+      <c r="B180" s="202" t="s">
         <v>5677</v>
       </c>
       <c r="C180" t="s">
@@ -32428,7 +32438,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="83"/>
-      <c r="B181" s="200" t="s">
+      <c r="B181" s="202" t="s">
         <v>5687</v>
       </c>
       <c r="C181" t="s">
@@ -32440,7 +32450,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="83"/>
-      <c r="B182" s="200" t="s">
+      <c r="B182" s="202" t="s">
         <v>4408</v>
       </c>
       <c r="C182" t="s">
@@ -32452,7 +32462,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="83"/>
-      <c r="B183" s="200" t="s">
+      <c r="B183" s="202" t="s">
         <v>228</v>
       </c>
       <c r="C183" t="s">
@@ -32466,7 +32476,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="83"/>
-      <c r="B184" s="201" t="s">
+      <c r="B184" s="203" t="s">
         <v>4467</v>
       </c>
       <c r="C184" t="s">
@@ -32478,7 +32488,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="83"/>
-      <c r="B185" s="200">
+      <c r="B185" s="202">
         <v>71670</v>
       </c>
       <c r="C185" t="s">
@@ -32490,7 +32500,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="83"/>
-      <c r="B186" s="200">
+      <c r="B186" s="202">
         <v>26136</v>
       </c>
       <c r="C186" t="s">
@@ -32502,7 +32512,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="83"/>
-      <c r="B187" s="200" t="s">
+      <c r="B187" s="202" t="s">
         <v>4432</v>
       </c>
       <c r="C187" t="s">
@@ -32514,7 +32524,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="83"/>
-      <c r="B188" s="200" t="s">
+      <c r="B188" s="202" t="s">
         <v>898</v>
       </c>
       <c r="C188" t="s">
@@ -32528,7 +32538,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="83"/>
-      <c r="B189" s="200" t="s">
+      <c r="B189" s="202" t="s">
         <v>4434</v>
       </c>
       <c r="C189" t="s">
@@ -32540,7 +32550,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="83"/>
-      <c r="B190" s="200">
+      <c r="B190" s="202">
         <v>85213</v>
       </c>
       <c r="C190" t="s">
@@ -32554,7 +32564,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="83"/>
-      <c r="B191" s="200">
+      <c r="B191" s="202">
         <v>95094</v>
       </c>
       <c r="C191" t="s">
@@ -32566,7 +32576,7 @@
     </row>
     <row r="192" spans="1:6" ht="13.5" customHeight="1">
       <c r="A192" s="83"/>
-      <c r="B192" s="200">
+      <c r="B192" s="202">
         <v>33152</v>
       </c>
       <c r="C192" t="s">
@@ -32578,7 +32588,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="83"/>
-      <c r="B193" s="200">
+      <c r="B193" s="202">
         <v>17798</v>
       </c>
       <c r="C193" t="s">
@@ -32590,7 +32600,7 @@
     </row>
     <row r="194" spans="1:6" ht="17.45" customHeight="1">
       <c r="A194" s="83"/>
-      <c r="B194" s="200" t="s">
+      <c r="B194" s="202" t="s">
         <v>582</v>
       </c>
       <c r="C194" t="s">
@@ -32604,7 +32614,7 @@
     </row>
     <row r="195" spans="1:6" ht="17.25" customHeight="1">
       <c r="A195" s="83"/>
-      <c r="B195" s="200" t="s">
+      <c r="B195" s="202" t="s">
         <v>282</v>
       </c>
       <c r="C195" t="s">
@@ -32616,7 +32626,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="83"/>
-      <c r="B196" s="200" t="s">
+      <c r="B196" s="202" t="s">
         <v>5835</v>
       </c>
       <c r="C196" t="s">
@@ -32628,7 +32638,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="83"/>
-      <c r="B197" s="200" t="s">
+      <c r="B197" s="202" t="s">
         <v>4355</v>
       </c>
       <c r="C197" t="s">
@@ -32640,7 +32650,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="83"/>
-      <c r="B198" s="200" t="s">
+      <c r="B198" s="202" t="s">
         <v>1865</v>
       </c>
       <c r="C198" t="s">
@@ -32654,7 +32664,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="83"/>
-      <c r="B199" s="200">
+      <c r="B199" s="202">
         <v>14561</v>
       </c>
       <c r="C199" t="s">
@@ -32666,7 +32676,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="83"/>
-      <c r="B200" s="200">
+      <c r="B200" s="202">
         <v>87009</v>
       </c>
       <c r="C200" t="s">
@@ -32678,7 +32688,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="83"/>
-      <c r="B201" s="200">
+      <c r="B201" s="202">
         <v>38664</v>
       </c>
       <c r="C201" t="s">
@@ -32690,7 +32700,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="83"/>
-      <c r="B202" s="200">
+      <c r="B202" s="202">
         <v>60955</v>
       </c>
       <c r="C202" t="s">
@@ -32704,7 +32714,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="83"/>
-      <c r="B203" s="200">
+      <c r="B203" s="202">
         <v>13047</v>
       </c>
       <c r="C203" t="s">
@@ -32718,7 +32728,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="83"/>
-      <c r="B204" s="200">
+      <c r="B204" s="202">
         <v>22978</v>
       </c>
       <c r="C204" t="s">
@@ -32732,7 +32742,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="83"/>
-      <c r="B205" s="200" t="s">
+      <c r="B205" s="202" t="s">
         <v>5236</v>
       </c>
       <c r="C205" t="s">
@@ -32744,7 +32754,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="83"/>
-      <c r="B206" s="200">
+      <c r="B206" s="202">
         <v>12021</v>
       </c>
       <c r="C206" t="s">
@@ -32756,7 +32766,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="83"/>
-      <c r="B207" s="200">
+      <c r="B207" s="202">
         <v>62727</v>
       </c>
       <c r="C207" t="s">
@@ -32770,7 +32780,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="83"/>
-      <c r="B208" s="200" t="s">
+      <c r="B208" s="202" t="s">
         <v>1689</v>
       </c>
       <c r="C208" t="s">
@@ -32784,7 +32794,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="83"/>
-      <c r="B209" s="200" t="s">
+      <c r="B209" s="202" t="s">
         <v>4275</v>
       </c>
       <c r="C209" t="s">
@@ -32798,7 +32808,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="83"/>
-      <c r="B210" s="200" t="s">
+      <c r="B210" s="202" t="s">
         <v>4455</v>
       </c>
       <c r="C210" t="s">
@@ -32810,7 +32820,7 @@
     </row>
     <row r="211" spans="1:6" ht="18.75" customHeight="1">
       <c r="A211" s="83"/>
-      <c r="B211" s="200">
+      <c r="B211" s="202">
         <v>38881</v>
       </c>
       <c r="C211" t="s">
@@ -32822,7 +32832,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="83"/>
-      <c r="B212" s="200">
+      <c r="B212" s="202">
         <v>41592</v>
       </c>
       <c r="C212" t="s">
@@ -32834,7 +32844,7 @@
     </row>
     <row r="213" spans="1:6" ht="18" customHeight="1">
       <c r="A213" s="83"/>
-      <c r="B213" s="200" t="s">
+      <c r="B213" s="202" t="s">
         <v>4470</v>
       </c>
       <c r="C213" t="s">
@@ -32846,7 +32856,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="83"/>
-      <c r="B214" s="200" t="s">
+      <c r="B214" s="202" t="s">
         <v>4489</v>
       </c>
       <c r="C214" t="s">
@@ -32858,7 +32868,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="83"/>
-      <c r="B215" s="200">
+      <c r="B215" s="202">
         <v>32387</v>
       </c>
       <c r="C215" t="s">
@@ -32872,7 +32882,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="83"/>
-      <c r="B216" s="200" t="s">
+      <c r="B216" s="202" t="s">
         <v>5837</v>
       </c>
       <c r="C216" t="s">
@@ -32884,7 +32894,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="83"/>
-      <c r="B217" s="200"/>
+      <c r="B217" s="202"/>
       <c r="C217" t="s">
         <v>1565</v>
       </c>
@@ -32894,7 +32904,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="83"/>
-      <c r="B218" s="200">
+      <c r="B218" s="202">
         <v>43990</v>
       </c>
       <c r="C218" t="s">
@@ -32906,7 +32916,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="83"/>
-      <c r="B219" s="200">
+      <c r="B219" s="202">
         <v>59165</v>
       </c>
       <c r="C219" t="s">
@@ -32920,7 +32930,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="83"/>
-      <c r="B220" s="200" t="s">
+      <c r="B220" s="202" t="s">
         <v>676</v>
       </c>
       <c r="C220" t="s">
@@ -32934,7 +32944,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="83"/>
-      <c r="B221" s="200" t="s">
+      <c r="B221" s="202" t="s">
         <v>4802</v>
       </c>
       <c r="C221" t="s">
@@ -32946,7 +32956,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="83"/>
-      <c r="B222" s="200" t="s">
+      <c r="B222" s="202" t="s">
         <v>4527</v>
       </c>
       <c r="C222" t="s">
@@ -32958,7 +32968,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="83"/>
-      <c r="B223" s="200" t="s">
+      <c r="B223" s="202" t="s">
         <v>5685</v>
       </c>
       <c r="C223" t="s">
@@ -32970,7 +32980,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="83"/>
-      <c r="B224" s="200">
+      <c r="B224" s="202">
         <v>25281</v>
       </c>
       <c r="C224" t="s">
@@ -32982,7 +32992,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="83"/>
-      <c r="B225" s="200">
+      <c r="B225" s="202">
         <v>12066</v>
       </c>
       <c r="C225" t="s">
@@ -32994,7 +33004,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="83"/>
-      <c r="B226" s="200" t="s">
+      <c r="B226" s="202" t="s">
         <v>5836</v>
       </c>
       <c r="C226" t="s">
@@ -33006,7 +33016,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="83"/>
-      <c r="B227" s="200">
+      <c r="B227" s="202">
         <v>44674</v>
       </c>
       <c r="C227" t="s">
@@ -33018,7 +33028,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="83"/>
-      <c r="B228" s="200">
+      <c r="B228" s="202">
         <v>34712</v>
       </c>
       <c r="C228" t="s">
@@ -33030,7 +33040,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="83"/>
-      <c r="B229" s="200">
+      <c r="B229" s="202">
         <v>15305</v>
       </c>
       <c r="C229" t="s">
@@ -33042,7 +33052,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="83"/>
-      <c r="B230" s="200">
+      <c r="B230" s="202">
         <v>63266</v>
       </c>
       <c r="C230" t="s">
@@ -33054,7 +33064,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="83"/>
-      <c r="B231" s="200" t="s">
+      <c r="B231" s="202" t="s">
         <v>5238</v>
       </c>
       <c r="C231" t="s">
@@ -33066,7 +33076,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="83"/>
-      <c r="B232" s="200" t="s">
+      <c r="B232" s="202" t="s">
         <v>487</v>
       </c>
       <c r="C232" t="s">
@@ -33080,7 +33090,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="83"/>
-      <c r="B233" s="200" t="s">
+      <c r="B233" s="202" t="s">
         <v>608</v>
       </c>
       <c r="C233" t="s">
@@ -33094,7 +33104,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="83"/>
-      <c r="B234" s="200" t="s">
+      <c r="B234" s="202" t="s">
         <v>5450</v>
       </c>
       <c r="C234" t="s">
@@ -33106,7 +33116,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="83"/>
-      <c r="B235" s="200">
+      <c r="B235" s="202">
         <v>66774</v>
       </c>
       <c r="C235" t="s">
@@ -33118,7 +33128,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="83"/>
-      <c r="B236" s="200" t="s">
+      <c r="B236" s="202" t="s">
         <v>5421</v>
       </c>
       <c r="C236" t="s">
@@ -33130,7 +33140,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="83"/>
-      <c r="B237" s="200" t="s">
+      <c r="B237" s="202" t="s">
         <v>4449</v>
       </c>
       <c r="C237" t="s">
@@ -33142,7 +33152,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="83"/>
-      <c r="B238" s="200" t="s">
+      <c r="B238" s="202" t="s">
         <v>4295</v>
       </c>
       <c r="C238" t="s">
@@ -33156,7 +33166,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="83"/>
-      <c r="B239" s="200">
+      <c r="B239" s="202">
         <v>63208</v>
       </c>
       <c r="C239" t="s">
@@ -33168,7 +33178,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="83"/>
-      <c r="B240" s="200">
+      <c r="B240" s="202">
         <v>90031</v>
       </c>
       <c r="C240" t="s">
@@ -33180,7 +33190,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="83"/>
-      <c r="B241" s="201" t="s">
+      <c r="B241" s="203" t="s">
         <v>5834</v>
       </c>
       <c r="C241" t="s">
@@ -33192,7 +33202,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="83"/>
-      <c r="B242" s="200">
+      <c r="B242" s="202">
         <v>54584</v>
       </c>
       <c r="C242" t="s">
@@ -33204,7 +33214,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="83"/>
-      <c r="B243" s="200" t="s">
+      <c r="B243" s="202" t="s">
         <v>4447</v>
       </c>
       <c r="C243" t="s">
@@ -33216,7 +33226,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="83"/>
-      <c r="B244" s="200">
+      <c r="B244" s="202">
         <v>52406</v>
       </c>
       <c r="C244" t="s">
@@ -33227,7 +33237,7 @@
       <c r="F244" s="83"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="B245" s="200">
+      <c r="B245" s="202">
         <v>86835</v>
       </c>
       <c r="C245" t="s">
@@ -33241,7 +33251,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="83"/>
-      <c r="B246" s="200" t="s">
+      <c r="B246" s="202" t="s">
         <v>5714</v>
       </c>
       <c r="C246" t="s">
@@ -33253,7 +33263,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="83"/>
-      <c r="B247" s="200">
+      <c r="B247" s="202">
         <v>86928</v>
       </c>
       <c r="C247" t="s">
@@ -33265,7 +33275,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="83"/>
-      <c r="B248" s="200">
+      <c r="B248" s="202">
         <v>9704</v>
       </c>
       <c r="C248" t="s">
@@ -33277,7 +33287,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="83"/>
-      <c r="B249" s="200">
+      <c r="B249" s="202">
         <v>91643</v>
       </c>
       <c r="C249" t="s">
@@ -33289,7 +33299,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="83"/>
-      <c r="B250" s="200" t="s">
+      <c r="B250" s="202" t="s">
         <v>5838</v>
       </c>
       <c r="C250" t="s">
@@ -33301,7 +33311,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="83"/>
-      <c r="B251" s="200" t="s">
+      <c r="B251" s="202" t="s">
         <v>5828</v>
       </c>
       <c r="C251" t="s">
@@ -33313,7 +33323,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="83"/>
-      <c r="B252" s="200" t="s">
+      <c r="B252" s="202" t="s">
         <v>4344</v>
       </c>
       <c r="C252" t="s">
@@ -33325,7 +33335,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="83"/>
-      <c r="B253" s="200" t="s">
+      <c r="B253" s="202" t="s">
         <v>4822</v>
       </c>
       <c r="C253" t="s">
@@ -33337,7 +33347,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="83"/>
-      <c r="B254" s="200" t="s">
+      <c r="B254" s="202" t="s">
         <v>5750</v>
       </c>
       <c r="C254" t="s">
@@ -33349,7 +33359,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="83"/>
-      <c r="B255" s="200">
+      <c r="B255" s="202">
         <v>78359</v>
       </c>
       <c r="C255" t="s">
@@ -33361,7 +33371,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="83"/>
-      <c r="B256" s="200">
+      <c r="B256" s="202">
         <v>28818</v>
       </c>
       <c r="C256" t="s">
@@ -33373,7 +33383,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="83"/>
-      <c r="B257" s="200" t="s">
+      <c r="B257" s="202" t="s">
         <v>501</v>
       </c>
       <c r="C257" t="s">
@@ -33387,7 +33397,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="83"/>
-      <c r="B258" s="200">
+      <c r="B258" s="202">
         <v>80756</v>
       </c>
       <c r="C258" t="s">
@@ -33399,7 +33409,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="83"/>
-      <c r="B259" s="200">
+      <c r="B259" s="202">
         <v>66144</v>
       </c>
       <c r="C259" t="s">
@@ -33411,7 +33421,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="83"/>
-      <c r="B260" s="200" t="s">
+      <c r="B260" s="202" t="s">
         <v>4407</v>
       </c>
       <c r="C260" t="s">
@@ -33423,7 +33433,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="83"/>
-      <c r="B261" s="200">
+      <c r="B261" s="202">
         <v>98376</v>
       </c>
       <c r="C261" t="s">
@@ -33435,7 +33445,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="83"/>
-      <c r="B262" s="200" t="s">
+      <c r="B262" s="202" t="s">
         <v>4804</v>
       </c>
       <c r="C262" t="s">
@@ -33447,7 +33457,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="83"/>
-      <c r="B263" s="200">
+      <c r="B263" s="202">
         <v>15939</v>
       </c>
       <c r="C263" t="s">
@@ -33459,7 +33469,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="83"/>
-      <c r="B264" s="200" t="s">
+      <c r="B264" s="202" t="s">
         <v>4639</v>
       </c>
       <c r="C264" t="s">
@@ -33471,7 +33481,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="83"/>
-      <c r="B265" s="200" t="s">
+      <c r="B265" s="202" t="s">
         <v>4302</v>
       </c>
       <c r="C265" t="s">
@@ -33485,7 +33495,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="83"/>
-      <c r="B266" s="200" t="s">
+      <c r="B266" s="202" t="s">
         <v>4821</v>
       </c>
       <c r="C266" t="s">
@@ -33497,7 +33507,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="83"/>
-      <c r="B267" s="200" t="s">
+      <c r="B267" s="202" t="s">
         <v>4305</v>
       </c>
       <c r="C267" t="s">
@@ -33511,7 +33521,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="83"/>
-      <c r="B268" s="200">
+      <c r="B268" s="202">
         <v>59529</v>
       </c>
       <c r="C268" t="s">
@@ -33523,7 +33533,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="83"/>
-      <c r="B269" s="200" t="s">
+      <c r="B269" s="202" t="s">
         <v>4392</v>
       </c>
       <c r="C269" t="s">
@@ -33535,7 +33545,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="83"/>
-      <c r="B270" s="200">
+      <c r="B270" s="202">
         <v>29019</v>
       </c>
       <c r="C270" t="s">
@@ -33547,7 +33557,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="83"/>
-      <c r="B271" s="200" t="s">
+      <c r="B271" s="202" t="s">
         <v>5857</v>
       </c>
       <c r="C271" t="s">
@@ -33559,7 +33569,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="83"/>
-      <c r="B272" s="200">
+      <c r="B272" s="202">
         <v>33476</v>
       </c>
       <c r="C272" t="s">
@@ -33571,7 +33581,7 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1">
       <c r="A273" s="83"/>
-      <c r="B273" s="200" t="s">
+      <c r="B273" s="202" t="s">
         <v>1204</v>
       </c>
       <c r="C273" t="s">
@@ -33583,7 +33593,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="83"/>
-      <c r="B274" s="200">
+      <c r="B274" s="202">
         <v>64023</v>
       </c>
       <c r="C274" t="s">
@@ -33597,7 +33607,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="83"/>
-      <c r="B275" s="200" t="s">
+      <c r="B275" s="202" t="s">
         <v>374</v>
       </c>
       <c r="C275" t="s">
@@ -33609,7 +33619,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="83"/>
-      <c r="B276" s="200">
+      <c r="B276" s="202">
         <v>64413</v>
       </c>
       <c r="C276" t="s">
@@ -33621,7 +33631,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="83"/>
-      <c r="B277" s="200" t="s">
+      <c r="B277" s="202" t="s">
         <v>376</v>
       </c>
       <c r="C277" t="s">
@@ -33633,7 +33643,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="83"/>
-      <c r="B278" s="200" t="s">
+      <c r="B278" s="202" t="s">
         <v>5851</v>
       </c>
       <c r="C278" t="s">
@@ -33647,7 +33657,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="83"/>
-      <c r="B279" s="200">
+      <c r="B279" s="202">
         <v>82689</v>
       </c>
       <c r="C279" t="s">
@@ -33659,7 +33669,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="83"/>
-      <c r="B280" s="200">
+      <c r="B280" s="202">
         <v>82402</v>
       </c>
       <c r="C280" t="s">
@@ -33671,7 +33681,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="83"/>
-      <c r="B281" s="200" t="s">
+      <c r="B281" s="202" t="s">
         <v>1140</v>
       </c>
       <c r="C281" t="s">
@@ -33683,7 +33693,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="83"/>
-      <c r="B282" s="200" t="s">
+      <c r="B282" s="202" t="s">
         <v>4451</v>
       </c>
       <c r="C282" t="s">
@@ -33695,7 +33705,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="83"/>
-      <c r="B283" s="200">
+      <c r="B283" s="202">
         <v>48104</v>
       </c>
       <c r="C283" t="s">
@@ -33707,7 +33717,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="83"/>
-      <c r="B284" s="200" t="s">
+      <c r="B284" s="202" t="s">
         <v>4441</v>
       </c>
       <c r="C284" t="s">
@@ -33721,7 +33731,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="83"/>
-      <c r="B285" s="200" t="s">
+      <c r="B285" s="202" t="s">
         <v>5853</v>
       </c>
       <c r="C285" t="s">
@@ -33733,7 +33743,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="83"/>
-      <c r="B286" s="200" t="s">
+      <c r="B286" s="202" t="s">
         <v>5439</v>
       </c>
       <c r="C286" t="s">
@@ -33745,7 +33755,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="83"/>
-      <c r="B287" s="200" t="s">
+      <c r="B287" s="202" t="s">
         <v>5743</v>
       </c>
       <c r="C287" t="s">
@@ -33757,7 +33767,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="83"/>
-      <c r="B288" s="200">
+      <c r="B288" s="202">
         <v>25714</v>
       </c>
       <c r="C288" t="s">
@@ -33769,7 +33779,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="83"/>
-      <c r="B289" s="200">
+      <c r="B289" s="202">
         <v>25714</v>
       </c>
       <c r="C289" t="s">
@@ -33781,7 +33791,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="83"/>
-      <c r="B290" s="200" t="s">
+      <c r="B290" s="202" t="s">
         <v>4307</v>
       </c>
       <c r="C290" t="s">
@@ -33795,7 +33805,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="83"/>
-      <c r="B291" s="200" t="s">
+      <c r="B291" s="202" t="s">
         <v>5856</v>
       </c>
       <c r="C291" t="s">
@@ -33807,7 +33817,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="83"/>
-      <c r="B292" s="200" t="s">
+      <c r="B292" s="202" t="s">
         <v>5426</v>
       </c>
       <c r="C292" t="s">
@@ -33819,7 +33829,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="83"/>
-      <c r="B293" s="200" t="s">
+      <c r="B293" s="202" t="s">
         <v>4410</v>
       </c>
       <c r="C293" t="s">
@@ -33831,7 +33841,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="83"/>
-      <c r="B294" s="200" t="s">
+      <c r="B294" s="202" t="s">
         <v>4309</v>
       </c>
       <c r="C294" t="s">
@@ -33843,7 +33853,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="83"/>
-      <c r="B295" s="200" t="s">
+      <c r="B295" s="202" t="s">
         <v>5854</v>
       </c>
       <c r="C295" t="s">
@@ -33857,7 +33867,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="83"/>
-      <c r="B296" s="200">
+      <c r="B296" s="202">
         <v>71670</v>
       </c>
       <c r="C296" t="s">
@@ -33869,7 +33879,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="83"/>
-      <c r="B297" s="200" t="s">
+      <c r="B297" s="202" t="s">
         <v>4811</v>
       </c>
       <c r="C297" t="s">
@@ -33881,7 +33891,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="83"/>
-      <c r="B298" s="200" t="s">
+      <c r="B298" s="202" t="s">
         <v>5865</v>
       </c>
       <c r="C298" t="s">
@@ -33893,7 +33903,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="83"/>
-      <c r="B299" s="200" t="s">
+      <c r="B299" s="202" t="s">
         <v>4387</v>
       </c>
       <c r="C299" t="s">
@@ -33905,7 +33915,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="83"/>
-      <c r="B300" s="200" t="s">
+      <c r="B300" s="202" t="s">
         <v>4806</v>
       </c>
       <c r="C300" t="s">
@@ -33917,7 +33927,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="83"/>
-      <c r="B301" s="200" t="s">
+      <c r="B301" s="202" t="s">
         <v>1216</v>
       </c>
       <c r="C301" t="s">
@@ -33929,7 +33939,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="83"/>
-      <c r="B302" s="200">
+      <c r="B302" s="202">
         <v>13675</v>
       </c>
       <c r="C302" t="s">
@@ -33943,7 +33953,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="83"/>
-      <c r="B303" s="200" t="s">
+      <c r="B303" s="202" t="s">
         <v>830</v>
       </c>
       <c r="C303" t="s">
@@ -33957,7 +33967,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="83"/>
-      <c r="B304" s="200">
+      <c r="B304" s="202">
         <v>98991</v>
       </c>
       <c r="C304" t="s">
@@ -34210,7 +34220,7 @@
     <hyperlink ref="D274" r:id="rId122" xr:uid="{1CB8F24B-B796-4CF1-811C-B93EFC023B79}"/>
     <hyperlink ref="D290" r:id="rId123" xr:uid="{EC6565C7-D170-4D9D-9D08-F4C489F93BBB}"/>
     <hyperlink ref="D295" r:id="rId124" xr:uid="{66F73DCC-AC4E-49E4-B66E-A1F6AA3EDE3D}"/>
-    <hyperlink ref="D26" r:id="rId125" xr:uid="{A9806DFA-0599-4BE2-AE6F-E091049A7AB5}"/>
+    <hyperlink ref="D26" r:id="rId125" xr:uid="{A66E0BEE-2AF9-4A99-9466-415564EA9FC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId126"/>

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6644C-AE72-4538-8D10-92A7BA7BCAB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0FE10-15D8-4C60-A585-FA756F411D41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
   <sheets>
     <sheet name="QuoteCal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9489" uniqueCount="5900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9564" uniqueCount="5968">
   <si>
     <t>TSE</t>
   </si>
@@ -17890,9 +17890,6 @@
     <t>2F120374D523630000000279</t>
   </si>
   <si>
-    <t>818-392-2196</t>
-  </si>
-  <si>
     <t>WJAI1945</t>
   </si>
   <si>
@@ -19063,9 +19060,6 @@
     <t>OHN W HOCK COMPANY DBA HOCK, JOHN</t>
   </si>
   <si>
-    <t>AEROFIT, LLC 30974</t>
-  </si>
-  <si>
     <t>KMPARTS.COM INC</t>
   </si>
   <si>
@@ -19214,6 +19208,216 @@
   </si>
   <si>
     <t>actuators@morpac.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEROFIT, LLC </t>
+  </si>
+  <si>
+    <t>CC#</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Primary Email</t>
+  </si>
+  <si>
+    <t>Secondary Email</t>
+  </si>
+  <si>
+    <t>PO Vendor Name</t>
+  </si>
+  <si>
+    <t>PO Address Line 1</t>
+  </si>
+  <si>
+    <t>PO Address Line 2</t>
+  </si>
+  <si>
+    <t>PO Phone #</t>
+  </si>
+  <si>
+    <t>PO Attn</t>
+  </si>
+  <si>
+    <t>1425 S. Acacia Avenue</t>
+  </si>
+  <si>
+    <t>Fullerton, CA 92831</t>
+  </si>
+  <si>
+    <t>Attention: Sales</t>
+  </si>
+  <si>
+    <t>11500 Sherman Way</t>
+  </si>
+  <si>
+    <t>Phone: 818-392-2155</t>
+  </si>
+  <si>
+    <t>Attention: Crystal Bryant</t>
+  </si>
+  <si>
+    <t>Cole Instrument Corp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2650 South Croddy Way </t>
+  </si>
+  <si>
+    <t>Phone: 714-556-3100</t>
+  </si>
+  <si>
+    <t>Attention: Tim Schrum</t>
+  </si>
+  <si>
+    <t>280 Ridgedale Ave.</t>
+  </si>
+  <si>
+    <t>E. Hanover, NJ 07936</t>
+  </si>
+  <si>
+    <t>Attention: Nancy Price</t>
+  </si>
+  <si>
+    <t>Data Delay Devices, Inc.</t>
+  </si>
+  <si>
+    <t>Avibank Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>3 Mt. Prospect Avenue</t>
+  </si>
+  <si>
+    <t>Clifton, NJ 07013</t>
+  </si>
+  <si>
+    <t>Attention: Paul Kuper</t>
+  </si>
+  <si>
+    <t>Druck, LLC</t>
+  </si>
+  <si>
+    <t>1100 Technology Park Drive</t>
+  </si>
+  <si>
+    <t>Billerica, MA 01821</t>
+  </si>
+  <si>
+    <t>Phone: 800-833-9438</t>
+  </si>
+  <si>
+    <t>East/West Industries, Inc.</t>
+  </si>
+  <si>
+    <t>2002 Orville Dr North</t>
+  </si>
+  <si>
+    <t>Ronkonkoma, NY 117779</t>
+  </si>
+  <si>
+    <t>Attention: Stephanie Butler</t>
+  </si>
+  <si>
+    <t>Ultra Electronics</t>
+  </si>
+  <si>
+    <t>95 Horseblock Road, Unit 2</t>
+  </si>
+  <si>
+    <t>Yaphank, New York 11980</t>
+  </si>
+  <si>
+    <t>Phone: 631-345-6200</t>
+  </si>
+  <si>
+    <t>Attention: Kathryn Joines</t>
+  </si>
+  <si>
+    <t>Elma Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>44350 Grimmer Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremont, CA 94538 </t>
+  </si>
+  <si>
+    <t>Empower RF Systems</t>
+  </si>
+  <si>
+    <t>316 W. Florence Ave.</t>
+  </si>
+  <si>
+    <t>Inglewood, CA 90301</t>
+  </si>
+  <si>
+    <t>Phone: 757-549-6534</t>
+  </si>
+  <si>
+    <t>Attention: Russ Hanson</t>
+  </si>
+  <si>
+    <t>FCX Systems, Inc.</t>
+  </si>
+  <si>
+    <t>400 FCX Lane</t>
+  </si>
+  <si>
+    <t>Morgantown, WV 26501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone: 304-983-0400 </t>
+  </si>
+  <si>
+    <t>Attention: Warren Youger</t>
+  </si>
+  <si>
+    <t>908 Ventures Way</t>
+  </si>
+  <si>
+    <t>Chesapeake, VA 23320</t>
+  </si>
+  <si>
+    <t>Attention: Alphonso Brooks</t>
+  </si>
+  <si>
+    <t>3100 Norge Road</t>
+  </si>
+  <si>
+    <t>Chickasha, OK 73018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Ana, CA 92704 </t>
+  </si>
+  <si>
+    <t>North Hollywood, CA 91605</t>
+  </si>
+  <si>
+    <t>Attention: Adrian Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1211 Air Way </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glendale, CA 91201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention: Irma Carrillo </t>
+  </si>
+  <si>
+    <t>CLA-VAL</t>
+  </si>
+  <si>
+    <t>1701 Placentia Ave.</t>
+  </si>
+  <si>
+    <t>Costa Mesa, CA 92627</t>
+  </si>
+  <si>
+    <t>Phone: 800-924-6326</t>
+  </si>
+  <si>
+    <t>Attention: Tony Davis</t>
   </si>
 </sst>
 </file>
@@ -19226,7 +19430,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19644,6 +19848,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -19981,7 +20195,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -20215,15 +20429,9 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="58" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="17" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -20244,6 +20452,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -29000,7 +29224,7 @@
         <v>4435.38</v>
       </c>
       <c r="J239" t="s">
-        <v>5497</v>
+        <v>5496</v>
       </c>
       <c r="K239" s="1">
         <v>10056.42</v>
@@ -29027,7 +29251,7 @@
         <v>926.48</v>
       </c>
       <c r="J240" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="K240" s="1">
         <v>1274.49</v>
@@ -29054,7 +29278,7 @@
         <v>483.77</v>
       </c>
       <c r="J241" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="K241" s="1">
         <v>1074.26</v>
@@ -29079,7 +29303,7 @@
         <v>3587.25</v>
       </c>
       <c r="J242" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="K242" s="1">
         <v>4894.83</v>
@@ -29099,7 +29323,7 @@
         <v>2971.36</v>
       </c>
       <c r="J243" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="K243" s="1">
         <v>4966.5</v>
@@ -29160,7 +29384,7 @@
         <v>27769.56</v>
       </c>
       <c r="J245" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="K245" s="1">
         <v>4598.88</v>
@@ -29186,7 +29410,7 @@
         <v>1513.89</v>
       </c>
       <c r="J246" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="K246" s="1">
         <v>97</v>
@@ -29218,7 +29442,7 @@
         <v>8179.08</v>
       </c>
       <c r="J247" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="K247" s="1">
         <v>1473.71</v>
@@ -29335,7 +29559,7 @@
         <v>294</v>
       </c>
       <c r="J251" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="K251" s="170">
         <v>997.38</v>
@@ -29365,7 +29589,7 @@
         <v>3777.51</v>
       </c>
       <c r="J252" t="s">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="K252" s="170">
         <v>4556</v>
@@ -29387,7 +29611,7 @@
         <v>6538.4</v>
       </c>
       <c r="J253" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="K253" s="1">
         <v>2598.96</v>
@@ -29419,7 +29643,7 @@
         <v>43521</v>
       </c>
       <c r="J255" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="K255" s="170">
         <v>4556</v>
@@ -29427,25 +29651,25 @@
     </row>
     <row r="256" spans="2:12">
       <c r="B256" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="C256" s="1">
         <v>1325.58</v>
       </c>
       <c r="D256" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="E256" s="1">
         <v>6853</v>
       </c>
       <c r="F256" t="s">
-        <v>5567</v>
+        <v>5566</v>
       </c>
       <c r="G256" s="1">
         <v>7343.5</v>
       </c>
       <c r="H256" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="I256">
         <v>6862.89</v>
@@ -29459,25 +29683,25 @@
     </row>
     <row r="257" spans="2:11">
       <c r="B257" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="C257" s="1">
         <v>9482.4</v>
       </c>
       <c r="D257" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="E257" s="1">
         <v>11244.94</v>
       </c>
       <c r="F257" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="G257" s="1">
         <v>2546.1</v>
       </c>
       <c r="H257" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="I257" s="170">
         <v>192.96</v>
@@ -29491,25 +29715,25 @@
     </row>
     <row r="258" spans="2:11">
       <c r="B258" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="C258" s="1">
         <v>9417.1299999999992</v>
       </c>
       <c r="D258" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="E258" s="1">
         <v>33825.279999999999</v>
       </c>
       <c r="F258" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="G258" s="1">
         <v>902</v>
       </c>
       <c r="H258" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="I258" s="1">
         <v>11545.65</v>
@@ -29523,25 +29747,25 @@
     </row>
     <row r="259" spans="2:11">
       <c r="B259" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="C259" s="1">
         <v>9790.83</v>
       </c>
       <c r="D259" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="E259" s="1">
         <v>1108.5999999999999</v>
       </c>
       <c r="F259" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="G259" s="1">
         <v>2826.92</v>
       </c>
       <c r="H259" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="I259" s="1">
         <v>456.64</v>
@@ -29555,25 +29779,25 @@
     </row>
     <row r="260" spans="2:11">
       <c r="B260" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="C260" s="1">
         <v>4446.68</v>
       </c>
       <c r="D260" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="E260" s="1">
         <v>5519.82</v>
       </c>
       <c r="F260" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="G260" s="1">
         <v>3963</v>
       </c>
       <c r="H260" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="I260" s="1">
         <v>3127.96</v>
@@ -29625,7 +29849,7 @@
         <v>5299.65</v>
       </c>
       <c r="J262" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="K262" s="170">
         <v>98.72</v>
@@ -29637,7 +29861,7 @@
         <v>32785.4</v>
       </c>
       <c r="J263" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="K263" s="170">
         <v>4666.74</v>
@@ -29645,13 +29869,13 @@
     </row>
     <row r="264" spans="2:11">
       <c r="B264" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="C264" s="1">
         <v>2546</v>
       </c>
       <c r="J264" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
       <c r="K264" s="1">
         <v>5735.45</v>
@@ -29659,13 +29883,13 @@
     </row>
     <row r="265" spans="2:11">
       <c r="B265" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="C265" s="1">
         <v>2989.56</v>
       </c>
       <c r="J265" t="s">
-        <v>5486</v>
+        <v>5485</v>
       </c>
       <c r="K265" s="170">
         <v>672.12</v>
@@ -29674,7 +29898,7 @@
     <row r="266" spans="2:11">
       <c r="C266" s="1"/>
       <c r="J266" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="K266" s="170">
         <v>879.84</v>
@@ -29682,7 +29906,7 @@
     </row>
     <row r="267" spans="2:11">
       <c r="B267" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="C267" s="1">
         <v>7565.11</v>
@@ -29700,7 +29924,7 @@
         <v>13100.669999999998</v>
       </c>
       <c r="J268" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="K268" s="1">
         <v>9168.06</v>
@@ -29708,7 +29932,7 @@
     </row>
     <row r="269" spans="2:11">
       <c r="J269" t="s">
-        <v>5464</v>
+        <v>5463</v>
       </c>
       <c r="K269" s="170">
         <v>4666.74</v>
@@ -30067,10 +30291,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30079,1111 +30303,1313 @@
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A1" s="201" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="199"/>
+      <c r="B1" t="s">
+        <v>5899</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5902</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5903</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5904</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5905</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5906</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A2" s="199" t="s">
         <v>1913</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B2" s="200" t="s">
         <v>4402</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>4403</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="83"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="199"/>
+      <c r="B3" s="200" t="s">
         <v>747</v>
       </c>
-      <c r="C2" t="s">
-        <v>5849</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5853</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="201"/>
-      <c r="B3" s="202" t="s">
-        <v>4239</v>
-      </c>
       <c r="C3" t="s">
-        <v>4240</v>
+        <v>5898</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>4241</v>
-      </c>
-      <c r="E3" s="186"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202" t="s">
-        <v>5815</v>
+        <v>5851</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G3" s="206" t="s">
+        <v>5908</v>
+      </c>
+      <c r="H3" s="206" t="s">
+        <v>5909</v>
+      </c>
+      <c r="J3" s="207" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="199"/>
+      <c r="B4" s="200" t="s">
+        <v>918</v>
       </c>
       <c r="C4" t="s">
-        <v>4391</v>
-      </c>
-      <c r="D4" s="186"/>
+        <v>4413</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4414</v>
+      </c>
       <c r="E4" s="186"/>
       <c r="F4" s="83"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202" t="s">
-        <v>918</v>
+    <row r="5" spans="1:10">
+      <c r="A5" s="199"/>
+      <c r="B5" s="200" t="s">
+        <v>4343</v>
       </c>
       <c r="C5" t="s">
-        <v>4413</v>
+        <v>4344</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>4414</v>
+        <v>4345</v>
       </c>
       <c r="E5" s="186"/>
       <c r="F5" s="83"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202" t="s">
-        <v>4343</v>
+    <row r="6" spans="1:10">
+      <c r="A6" s="199" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B6" s="200" t="s">
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>4344</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>4345</v>
-      </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="201"/>
-      <c r="B7" s="204" t="s">
-        <v>922</v>
+        <v>172</v>
+      </c>
+      <c r="D6" s="205" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E6" s="186" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>5922</v>
+      </c>
+      <c r="G6" s="206" t="s">
+        <v>5911</v>
+      </c>
+      <c r="H6" s="206" t="s">
+        <v>5958</v>
+      </c>
+      <c r="I6" s="206" t="s">
+        <v>5912</v>
+      </c>
+      <c r="J6" s="207" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="199"/>
+      <c r="B7" s="200" t="s">
+        <v>1682</v>
       </c>
       <c r="C7" t="s">
-        <v>5512</v>
-      </c>
-      <c r="D7" s="186"/>
+        <v>1681</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1683</v>
+      </c>
       <c r="E7" s="186"/>
       <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="201" t="s">
-        <v>5878</v>
-      </c>
-      <c r="B8" s="202" t="s">
-        <v>253</v>
+      <c r="G7" s="131"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200" t="s">
+        <v>4717</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="207" t="s">
-        <v>4243</v>
+        <v>4246</v>
+      </c>
+      <c r="D8" s="204" t="s">
+        <v>5852</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>4242</v>
+        <v>4247</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>5458</v>
-      </c>
-      <c r="G8" s="186"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202" t="s">
-        <v>1682</v>
+        <v>5914</v>
+      </c>
+      <c r="G8" s="212" t="s">
+        <v>5915</v>
+      </c>
+      <c r="H8" s="207" t="s">
+        <v>5957</v>
+      </c>
+      <c r="I8" s="207" t="s">
+        <v>5916</v>
+      </c>
+      <c r="J8" s="207" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="199"/>
+      <c r="B9" s="200" t="s">
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1683</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D9" s="186"/>
       <c r="E9" s="186"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="131"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202" t="s">
-        <v>4487</v>
+      <c r="F9" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5918</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5919</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="199"/>
+      <c r="B10" s="200" t="s">
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>4488</v>
-      </c>
-      <c r="D10" s="186"/>
+        <v>419</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>601</v>
+      </c>
       <c r="E10" s="186"/>
-      <c r="F10" s="83"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="201"/>
-      <c r="B11" s="202" t="s">
-        <v>4717</v>
+      <c r="F10" s="83" t="s">
+        <v>5921</v>
+      </c>
+      <c r="G10" s="213" t="s">
+        <v>5923</v>
+      </c>
+      <c r="H10" s="213" t="s">
+        <v>5924</v>
+      </c>
+      <c r="J10" s="207" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="199"/>
+      <c r="B11" s="200" t="s">
+        <v>379</v>
       </c>
       <c r="C11" t="s">
-        <v>4246</v>
-      </c>
-      <c r="D11" s="206" t="s">
-        <v>5854</v>
-      </c>
-      <c r="E11" s="186" t="s">
-        <v>4247</v>
-      </c>
-      <c r="F11" s="186"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="201"/>
-      <c r="B12" s="202" t="s">
-        <v>159</v>
+        <v>390</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="186"/>
+      <c r="F11" s="83" t="s">
+        <v>5926</v>
+      </c>
+      <c r="G11" s="206" t="s">
+        <v>5927</v>
+      </c>
+      <c r="H11" s="206" t="s">
+        <v>5928</v>
+      </c>
+      <c r="I11" s="206" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="199"/>
+      <c r="B12" s="200" t="s">
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="186"/>
+        <v>5831</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="E12" s="186"/>
-      <c r="F12" s="83"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="201"/>
-      <c r="B13" s="202" t="s">
-        <v>221</v>
+      <c r="F12" s="83" t="s">
+        <v>5930</v>
+      </c>
+      <c r="G12" s="206" t="s">
+        <v>5931</v>
+      </c>
+      <c r="H12" s="206" t="s">
+        <v>5932</v>
+      </c>
+      <c r="J12" s="207" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="199"/>
+      <c r="B13" s="200" t="s">
+        <v>4373</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>4374</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>601</v>
+        <v>4375</v>
       </c>
       <c r="E13" s="186"/>
       <c r="F13" s="83"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202" t="s">
-        <v>379</v>
+    <row r="14" spans="1:10">
+      <c r="A14" s="199"/>
+      <c r="B14" s="200" t="s">
+        <v>5878</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="201"/>
+        <v>4400</v>
+      </c>
+      <c r="D14" s="204" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E14" s="198"/>
+      <c r="F14" s="83" t="s">
+        <v>5939</v>
+      </c>
+      <c r="G14" s="212" t="s">
+        <v>5940</v>
+      </c>
+      <c r="H14" s="207" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A15" s="199"/>
       <c r="B15" s="202" t="s">
-        <v>150</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="186"/>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="201"/>
+        <v>467</v>
+      </c>
+      <c r="E15" s="198"/>
+      <c r="F15" s="83" t="s">
+        <v>5942</v>
+      </c>
+      <c r="G15" s="206" t="s">
+        <v>5943</v>
+      </c>
+      <c r="H15" s="206" t="s">
+        <v>5944</v>
+      </c>
+      <c r="I15" s="206" t="s">
+        <v>5945</v>
+      </c>
+      <c r="J15" s="207" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="199"/>
       <c r="B16" s="202" t="s">
-        <v>4373</v>
+        <v>578</v>
       </c>
       <c r="C16" t="s">
-        <v>4374</v>
+        <v>4248</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>4375</v>
+        <v>5854</v>
       </c>
       <c r="E16" s="186"/>
-      <c r="F16" s="83"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202" t="s">
-        <v>5880</v>
+      <c r="F16" s="83" t="s">
+        <v>5934</v>
+      </c>
+      <c r="G16" s="206" t="s">
+        <v>5935</v>
+      </c>
+      <c r="H16" s="206" t="s">
+        <v>5936</v>
+      </c>
+      <c r="I16" s="206" t="s">
+        <v>5937</v>
+      </c>
+      <c r="J16" s="207" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="199"/>
+      <c r="B17" s="200" t="s">
+        <v>4329</v>
       </c>
       <c r="C17" t="s">
-        <v>4400</v>
-      </c>
-      <c r="D17" s="206" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E17" s="186"/>
+      <c r="F17" s="83" t="s">
+        <v>5947</v>
+      </c>
+      <c r="G17" s="206" t="s">
+        <v>5948</v>
+      </c>
+      <c r="H17" s="206" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I17" s="206" t="s">
+        <v>5950</v>
+      </c>
+      <c r="J17" s="207" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A18" s="199"/>
+      <c r="B18" s="200" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="83" t="s">
+        <v>4861</v>
+      </c>
+      <c r="G18" s="206" t="s">
+        <v>5952</v>
+      </c>
+      <c r="H18" s="206" t="s">
+        <v>5953</v>
+      </c>
+      <c r="I18" s="206" t="s">
+        <v>5945</v>
+      </c>
+      <c r="J18" s="207" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="199"/>
+      <c r="B19" s="203" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>5855</v>
       </c>
-      <c r="E17" s="199"/>
-      <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="201"/>
-      <c r="B18" s="204" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5834</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="83"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="201"/>
-      <c r="B19" s="204" t="s">
-        <v>578</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4248</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="186"/>
+      <c r="F19" s="83" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G19" s="206" t="s">
+        <v>5955</v>
+      </c>
+      <c r="H19" s="206" t="s">
+        <v>5956</v>
+      </c>
+      <c r="I19" s="206" t="s">
+        <v>5945</v>
+      </c>
+      <c r="J19" s="207" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="199" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B20" s="200" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E20" s="186"/>
+      <c r="F20" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="212" t="s">
+        <v>5960</v>
+      </c>
+      <c r="H20" s="207" t="s">
+        <v>5961</v>
+      </c>
+      <c r="J20" s="207" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="199"/>
+      <c r="B21" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>5856</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="83"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202" t="s">
-        <v>4329</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4330</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>4331</v>
-      </c>
-      <c r="E20" s="186"/>
-      <c r="F20" s="83"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="201"/>
-      <c r="B21" s="202" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="186"/>
       <c r="E21" s="186"/>
-      <c r="F21" s="83"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="201"/>
-      <c r="B22" s="205" t="s">
-        <v>1417</v>
+      <c r="F21" s="83" t="s">
+        <v>5963</v>
+      </c>
+      <c r="G21" s="206" t="s">
+        <v>5964</v>
+      </c>
+      <c r="H21" s="206" t="s">
+        <v>5965</v>
+      </c>
+      <c r="I21" s="206" t="s">
+        <v>5966</v>
+      </c>
+      <c r="J21" s="207" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="199"/>
+      <c r="B22" s="200" t="s">
+        <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>1416</v>
+        <v>4266</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>5857</v>
-      </c>
-      <c r="E22" s="186"/>
+        <v>4267</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>4268</v>
+      </c>
       <c r="F22" s="83"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="201" t="s">
-        <v>5878</v>
-      </c>
-      <c r="B23" s="202" t="s">
-        <v>110</v>
+    <row r="23" spans="1:10">
+      <c r="A23" s="199"/>
+      <c r="B23" s="200" t="s">
+        <v>5879</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>4269</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>4262</v>
+        <v>4267</v>
       </c>
       <c r="E23" s="186"/>
       <c r="F23" s="83"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="201"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="199" t="s">
+        <v>5877</v>
+      </c>
       <c r="B24" s="202" t="s">
-        <v>394</v>
+        <v>636</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>5834</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>5858</v>
-      </c>
-      <c r="E24" s="186"/>
+        <v>678</v>
+      </c>
+      <c r="E24" s="197"/>
       <c r="F24" s="83"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="201"/>
-      <c r="B25" s="202" t="s">
-        <v>517</v>
+    <row r="25" spans="1:10">
+      <c r="A25" s="199"/>
+      <c r="B25" s="200" t="s">
+        <v>4320</v>
       </c>
       <c r="C25" t="s">
-        <v>4266</v>
+        <v>4321</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>4267</v>
-      </c>
-      <c r="E25" s="186" t="s">
-        <v>4268</v>
-      </c>
+        <v>4322</v>
+      </c>
+      <c r="E25" s="186"/>
       <c r="F25" s="83"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="201"/>
-      <c r="B26" s="202" t="s">
-        <v>5881</v>
-      </c>
+    <row r="26" spans="1:10">
+      <c r="A26" s="199"/>
+      <c r="B26" s="200"/>
       <c r="C26" t="s">
-        <v>4269</v>
+        <v>4475</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>4267</v>
+        <v>4476</v>
       </c>
       <c r="E26" s="186"/>
       <c r="F26" s="83"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="201" t="s">
-        <v>5879</v>
-      </c>
-      <c r="B27" s="204" t="s">
-        <v>636</v>
+    <row r="27" spans="1:10">
+      <c r="A27" s="199"/>
+      <c r="B27" s="200" t="s">
+        <v>5880</v>
       </c>
       <c r="C27" t="s">
-        <v>5835</v>
+        <v>5848</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="E27" s="198"/>
+        <v>4423</v>
+      </c>
+      <c r="E27" s="186"/>
       <c r="F27" s="83"/>
     </row>
-    <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="201"/>
-      <c r="B28" s="202" t="s">
-        <v>4320</v>
+    <row r="28" spans="1:10">
+      <c r="A28" s="199"/>
+      <c r="B28" s="200" t="s">
+        <v>4350</v>
       </c>
       <c r="C28" t="s">
-        <v>4321</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>4322</v>
-      </c>
+        <v>4351</v>
+      </c>
+      <c r="D28" s="186"/>
       <c r="E28" s="186"/>
       <c r="F28" s="83"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="201"/>
-      <c r="B29" s="202"/>
+    <row r="29" spans="1:10" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="199"/>
+      <c r="B29" s="201" t="s">
+        <v>987</v>
+      </c>
       <c r="C29" t="s">
-        <v>4475</v>
+        <v>4310</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>4476</v>
+        <v>5857</v>
       </c>
       <c r="E29" s="186"/>
       <c r="F29" s="83"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="201"/>
-      <c r="B30" s="202" t="s">
-        <v>5882</v>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A30" s="199"/>
+      <c r="B30" s="200" t="s">
+        <v>1673</v>
       </c>
       <c r="C30" t="s">
-        <v>5850</v>
+        <v>1672</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>4423</v>
+        <v>1674</v>
       </c>
       <c r="E30" s="186"/>
       <c r="F30" s="83"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="201"/>
-      <c r="B31" s="202" t="s">
-        <v>4350</v>
+    <row r="31" spans="1:10" ht="15" customHeight="1">
+      <c r="A31" s="199"/>
+      <c r="B31" s="200" t="s">
+        <v>4935</v>
       </c>
       <c r="C31" t="s">
-        <v>4351</v>
+        <v>4934</v>
       </c>
       <c r="D31" s="186"/>
       <c r="E31" s="186"/>
       <c r="F31" s="83"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="201"/>
-      <c r="B32" s="203" t="s">
-        <v>987</v>
+    <row r="32" spans="1:10">
+      <c r="A32" s="199"/>
+      <c r="B32" s="200" t="s">
+        <v>1863</v>
       </c>
       <c r="C32" t="s">
-        <v>4310</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>5859</v>
-      </c>
+        <v>1862</v>
+      </c>
+      <c r="D32" s="186"/>
       <c r="E32" s="186"/>
       <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="201"/>
-      <c r="B33" s="202" t="s">
-        <v>1673</v>
+      <c r="A33" s="199"/>
+      <c r="B33" s="200" t="s">
+        <v>5881</v>
       </c>
       <c r="C33" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>1674</v>
-      </c>
+        <v>4285</v>
+      </c>
+      <c r="D33" s="186"/>
       <c r="E33" s="186"/>
       <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="201"/>
+      <c r="A34" s="199"/>
       <c r="B34" s="202" t="s">
-        <v>4935</v>
+        <v>502</v>
       </c>
       <c r="C34" t="s">
-        <v>4934</v>
-      </c>
-      <c r="D34" s="186"/>
+        <v>640</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>641</v>
+      </c>
       <c r="E34" s="186"/>
       <c r="F34" s="83"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="201"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="202" t="s">
-        <v>1863</v>
+        <v>4469</v>
       </c>
       <c r="C35" t="s">
-        <v>1862</v>
+        <v>4470</v>
       </c>
       <c r="D35" s="186"/>
       <c r="E35" s="186"/>
       <c r="F35" s="83"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202" t="s">
-        <v>5883</v>
+      <c r="A36" s="199"/>
+      <c r="B36" s="200" t="s">
+        <v>1166</v>
       </c>
       <c r="C36" t="s">
-        <v>4285</v>
-      </c>
-      <c r="D36" s="186"/>
+        <v>2605</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>4286</v>
+      </c>
       <c r="E36" s="186"/>
       <c r="F36" s="83"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="201"/>
-      <c r="B37" s="204" t="s">
-        <v>502</v>
+      <c r="A37" s="199"/>
+      <c r="B37" s="200">
+        <v>87009</v>
       </c>
       <c r="C37" t="s">
-        <v>640</v>
+        <v>4355</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>641</v>
+        <v>4356</v>
       </c>
       <c r="E37" s="186"/>
       <c r="F37" s="83"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="201"/>
-      <c r="B38" s="204" t="s">
-        <v>4469</v>
+      <c r="A38" s="199"/>
+      <c r="B38" s="200" t="s">
+        <v>4441</v>
       </c>
       <c r="C38" t="s">
-        <v>4470</v>
+        <v>4442</v>
       </c>
       <c r="D38" s="186"/>
       <c r="E38" s="186"/>
       <c r="F38" s="83"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="201"/>
-      <c r="B39" s="202" t="s">
-        <v>1166</v>
+      <c r="A39" s="199" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B39" s="200" t="s">
+        <v>446</v>
       </c>
       <c r="C39" t="s">
-        <v>2605</v>
+        <v>447</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>4286</v>
+        <v>490</v>
       </c>
       <c r="E39" s="186"/>
       <c r="F39" s="83"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="201"/>
-      <c r="B40" s="202">
-        <v>87009</v>
+      <c r="A40" s="199"/>
+      <c r="B40" s="200" t="s">
+        <v>449</v>
       </c>
       <c r="C40" t="s">
-        <v>4355</v>
+        <v>448</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>4356</v>
-      </c>
-      <c r="E40" s="186"/>
+        <v>5897</v>
+      </c>
+      <c r="E40" s="197"/>
       <c r="F40" s="83"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="201"/>
-      <c r="B41" s="202" t="s">
-        <v>4441</v>
+      <c r="A41" s="199"/>
+      <c r="B41" s="200" t="s">
+        <v>985</v>
       </c>
       <c r="C41" t="s">
-        <v>4442</v>
-      </c>
-      <c r="D41" s="186"/>
+        <v>984</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>4277</v>
+      </c>
       <c r="E41" s="186"/>
       <c r="F41" s="83"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="A42" s="201" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B42" s="202" t="s">
-        <v>446</v>
+    <row r="42" spans="1:6">
+      <c r="A42" s="199"/>
+      <c r="B42" s="200" t="s">
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>1265</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="E42" s="186"/>
       <c r="F42" s="83"/>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202" t="s">
-        <v>449</v>
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="199"/>
+      <c r="B43" s="200">
+        <v>32387</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
+        <v>5835</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>5899</v>
-      </c>
-      <c r="E43" s="198"/>
+        <v>5858</v>
+      </c>
+      <c r="E43" s="186"/>
       <c r="F43" s="83"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202" t="s">
-        <v>985</v>
+      <c r="A44" s="199"/>
+      <c r="B44" s="200" t="s">
+        <v>818</v>
       </c>
       <c r="C44" t="s">
-        <v>984</v>
+        <v>817</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>4277</v>
+        <v>1023</v>
       </c>
       <c r="E44" s="186"/>
       <c r="F44" s="83"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="201"/>
-      <c r="B45" s="202" t="s">
-        <v>225</v>
+      <c r="A45" s="199"/>
+      <c r="B45" s="200" t="s">
+        <v>456</v>
       </c>
       <c r="C45" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>438</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D45" s="186"/>
       <c r="E45" s="186"/>
       <c r="F45" s="83"/>
     </row>
-    <row r="46" spans="1:6" ht="16.899999999999999" customHeight="1">
-      <c r="A46" s="201"/>
-      <c r="B46" s="202">
-        <v>32387</v>
+    <row r="46" spans="1:6">
+      <c r="A46" s="199"/>
+      <c r="B46" s="200" t="s">
+        <v>616</v>
       </c>
       <c r="C46" t="s">
-        <v>5836</v>
+        <v>617</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>5860</v>
+        <v>4287</v>
       </c>
       <c r="E46" s="186"/>
       <c r="F46" s="83"/>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="201"/>
-      <c r="B47" s="202" t="s">
-        <v>818</v>
+    <row r="47" spans="1:6" ht="16.899999999999999" customHeight="1">
+      <c r="A47" s="199"/>
+      <c r="B47" s="200" t="s">
+        <v>4311</v>
       </c>
       <c r="C47" t="s">
-        <v>817</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>1023</v>
+        <v>4312</v>
+      </c>
+      <c r="D47" s="204" t="s">
+        <v>5859</v>
       </c>
       <c r="E47" s="186"/>
       <c r="F47" s="83"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="201"/>
-      <c r="B48" s="202" t="s">
-        <v>456</v>
+      <c r="A48" s="199"/>
+      <c r="B48" s="200" t="s">
+        <v>4419</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
-      </c>
-      <c r="D48" s="186"/>
+        <v>4420</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>5860</v>
+      </c>
       <c r="E48" s="186"/>
       <c r="F48" s="83"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="201"/>
-      <c r="B49" s="202" t="s">
-        <v>616</v>
+      <c r="A49" s="199"/>
+      <c r="B49" s="200" t="s">
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>617</v>
+        <v>156</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>4287</v>
-      </c>
-      <c r="E49" s="186"/>
+        <v>155</v>
+      </c>
+      <c r="E49" s="186" t="s">
+        <v>4421</v>
+      </c>
       <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="201"/>
-      <c r="B50" s="202" t="s">
-        <v>4311</v>
+      <c r="A50" s="199"/>
+      <c r="B50" s="200" t="s">
+        <v>4290</v>
       </c>
       <c r="C50" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D50" s="206" t="s">
-        <v>5861</v>
+        <v>4291</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>4292</v>
       </c>
       <c r="E50" s="186"/>
       <c r="F50" s="83"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="201"/>
-      <c r="B51" s="202" t="s">
-        <v>4419</v>
+      <c r="A51" s="199"/>
+      <c r="B51" s="200" t="s">
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>4420</v>
+        <v>413</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>5862</v>
+        <v>414</v>
       </c>
       <c r="E51" s="186"/>
       <c r="F51" s="83"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="201"/>
-      <c r="B52" s="202" t="s">
-        <v>157</v>
+      <c r="A52" s="199"/>
+      <c r="B52" s="200" t="s">
+        <v>534</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>533</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="186" t="s">
-        <v>4421</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="E52" s="186"/>
       <c r="F52" s="83"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="201"/>
-      <c r="B53" s="202" t="s">
-        <v>4290</v>
+    <row r="53" spans="1:6">
+      <c r="A53" s="199"/>
+      <c r="B53" s="200" t="s">
+        <v>5882</v>
       </c>
       <c r="C53" t="s">
-        <v>4291</v>
+        <v>1330</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>4292</v>
-      </c>
-      <c r="E53" s="186"/>
+        <v>1331</v>
+      </c>
+      <c r="E53" s="198"/>
       <c r="F53" s="83"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="201"/>
-      <c r="B54" s="202" t="s">
-        <v>412</v>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A54" s="199"/>
+      <c r="B54" s="200" t="s">
+        <v>437</v>
       </c>
       <c r="C54" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="E54" s="186"/>
       <c r="F54" s="83"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="201"/>
-      <c r="B55" s="202" t="s">
-        <v>534</v>
+      <c r="A55" s="199"/>
+      <c r="B55" s="200">
+        <v>82199</v>
       </c>
       <c r="C55" t="s">
-        <v>533</v>
+        <v>1026</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>664</v>
+        <v>1073</v>
       </c>
       <c r="E55" s="186"/>
       <c r="F55" s="83"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="201"/>
-      <c r="B56" s="202" t="s">
-        <v>5884</v>
+      <c r="A56" s="199"/>
+      <c r="B56" s="200" t="s">
+        <v>4753</v>
       </c>
       <c r="C56" t="s">
-        <v>1330</v>
+        <v>4295</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E56" s="199"/>
+        <v>5861</v>
+      </c>
+      <c r="E56" s="186"/>
       <c r="F56" s="83"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="201"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="202" t="s">
-        <v>437</v>
+        <v>4471</v>
       </c>
       <c r="C57" t="s">
-        <v>435</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>436</v>
-      </c>
+        <v>4472</v>
+      </c>
+      <c r="D57" s="186"/>
       <c r="E57" s="186"/>
       <c r="F57" s="83"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="201"/>
-      <c r="B58" s="202">
-        <v>82199</v>
+      <c r="A58" s="199"/>
+      <c r="B58" s="200" t="s">
+        <v>4874</v>
       </c>
       <c r="C58" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1073</v>
-      </c>
+        <v>4875</v>
+      </c>
+      <c r="D58" s="186"/>
       <c r="E58" s="186"/>
       <c r="F58" s="83"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202" t="s">
-        <v>4753</v>
+      <c r="A59" s="199"/>
+      <c r="B59" s="200" t="s">
+        <v>4278</v>
       </c>
       <c r="C59" t="s">
-        <v>4295</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>5863</v>
-      </c>
+        <v>4794</v>
+      </c>
+      <c r="D59" s="186"/>
       <c r="E59" s="186"/>
       <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="201"/>
-      <c r="B60" s="204" t="s">
-        <v>4471</v>
+      <c r="A60" s="199"/>
+      <c r="B60" s="202" t="s">
+        <v>283</v>
       </c>
       <c r="C60" t="s">
-        <v>4472</v>
+        <v>520</v>
       </c>
       <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
+      <c r="E60" s="208"/>
       <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="201"/>
-      <c r="B61" s="202" t="s">
-        <v>4874</v>
+      <c r="A61" s="199"/>
+      <c r="B61" s="200" t="s">
+        <v>540</v>
       </c>
       <c r="C61" t="s">
-        <v>4875</v>
-      </c>
-      <c r="D61" s="186"/>
+        <v>539</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>670</v>
+      </c>
       <c r="E61" s="186"/>
-      <c r="F61" s="83"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A62" s="201"/>
-      <c r="B62" s="202" t="s">
-        <v>4278</v>
+      <c r="F61" s="210"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="199"/>
+      <c r="B62" s="200">
+        <v>66647</v>
       </c>
       <c r="C62" t="s">
-        <v>4794</v>
-      </c>
-      <c r="D62" s="186"/>
+        <v>4362</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>4363</v>
+      </c>
       <c r="E62" s="186"/>
       <c r="F62" s="83"/>
     </row>
     <row r="63" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A63" s="201"/>
-      <c r="B63" s="204" t="s">
-        <v>283</v>
+      <c r="A63" s="199"/>
+      <c r="B63" s="200">
+        <v>50541</v>
       </c>
       <c r="C63" t="s">
-        <v>520</v>
-      </c>
-      <c r="D63" s="186"/>
-      <c r="E63" s="200"/>
+        <v>5602</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E63" s="186"/>
       <c r="F63" s="83"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="201"/>
-      <c r="B64" s="202" t="s">
-        <v>540</v>
+    <row r="64" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A64" s="199"/>
+      <c r="B64" s="200">
+        <v>24602</v>
       </c>
       <c r="C64" t="s">
-        <v>539</v>
+        <v>4296</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="E64" s="186"/>
-      <c r="F64" s="197"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="201"/>
-      <c r="B65" s="202">
-        <v>66647</v>
+        <v>4297</v>
+      </c>
+      <c r="E64" s="209"/>
+      <c r="F64" s="83"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A65" s="199"/>
+      <c r="B65" s="200" t="s">
+        <v>4334</v>
       </c>
       <c r="C65" t="s">
-        <v>4362</v>
+        <v>4335</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>4363</v>
+        <v>5862</v>
       </c>
       <c r="E65" s="186"/>
-      <c r="F65" s="83"/>
+      <c r="F65" s="211"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="201"/>
-      <c r="B66" s="202">
-        <v>50541</v>
+      <c r="A66" s="199"/>
+      <c r="B66" s="200" t="s">
+        <v>4365</v>
       </c>
       <c r="C66" t="s">
-        <v>5603</v>
+        <v>4366</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>5823</v>
+        <v>5863</v>
       </c>
       <c r="E66" s="186"/>
       <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="201"/>
-      <c r="B67" s="202">
-        <v>24602</v>
+      <c r="A67" s="199"/>
+      <c r="B67" s="200">
+        <v>64411</v>
       </c>
       <c r="C67" t="s">
-        <v>4296</v>
+        <v>4418</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>4297</v>
-      </c>
-      <c r="E67" s="186"/>
+        <v>5864</v>
+      </c>
+      <c r="E67" s="197" t="s">
+        <v>4367</v>
+      </c>
       <c r="F67" s="83"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="201"/>
-      <c r="B68" s="202" t="s">
-        <v>4334</v>
+      <c r="A68" s="199"/>
+      <c r="B68" s="200" t="s">
+        <v>5838</v>
       </c>
       <c r="C68" t="s">
-        <v>4335</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>5864</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D68" s="186"/>
       <c r="E68" s="186"/>
       <c r="F68" s="83"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="201"/>
-      <c r="B69" s="202" t="s">
-        <v>4365</v>
+      <c r="A69" s="199"/>
+      <c r="B69" s="200" t="s">
+        <v>4415</v>
       </c>
       <c r="C69" t="s">
-        <v>4366</v>
+        <v>4416</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>5865</v>
       </c>
-      <c r="E69" s="186"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="83"/>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="201"/>
-      <c r="B70" s="202">
-        <v>64411</v>
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70" s="199"/>
+      <c r="B70" s="200">
+        <v>58860</v>
       </c>
       <c r="C70" t="s">
-        <v>4418</v>
+        <v>4804</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>5866</v>
+        <v>4473</v>
       </c>
       <c r="E70" s="198" t="s">
-        <v>4367</v>
+        <v>4417</v>
       </c>
       <c r="F70" s="83"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="201"/>
-      <c r="B71" s="202" t="s">
-        <v>5839</v>
+    <row r="71" spans="1:6">
+      <c r="A71" s="199"/>
+      <c r="B71" s="200" t="s">
+        <v>1632</v>
       </c>
       <c r="C71" t="s">
-        <v>508</v>
-      </c>
-      <c r="D71" s="186"/>
+        <v>1631</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>5816</v>
+      </c>
       <c r="E71" s="186"/>
       <c r="F71" s="83"/>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="201"/>
-      <c r="B72" s="202" t="s">
-        <v>4415</v>
+    <row r="72" spans="1:6" ht="15" customHeight="1">
+      <c r="A72" s="199"/>
+      <c r="B72" s="200">
+        <v>44256</v>
       </c>
       <c r="C72" t="s">
-        <v>4416</v>
+        <v>4357</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>5867</v>
-      </c>
-      <c r="E72" s="198"/>
+        <v>5849</v>
+      </c>
+      <c r="E72" s="186"/>
       <c r="F72" s="83"/>
     </row>
-    <row r="73" spans="1:6" ht="17.649999999999999" customHeight="1">
-      <c r="A73" s="201"/>
-      <c r="B73" s="202">
-        <v>58860</v>
+    <row r="73" spans="1:6">
+      <c r="A73" s="199"/>
+      <c r="B73" s="200" t="s">
+        <v>1573</v>
       </c>
       <c r="C73" t="s">
-        <v>4804</v>
+        <v>4372</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>4473</v>
-      </c>
-      <c r="E73" s="199" t="s">
-        <v>4417</v>
-      </c>
+        <v>1571</v>
+      </c>
+      <c r="E73" s="186"/>
       <c r="F73" s="83"/>
     </row>
-    <row r="74" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A74" s="201"/>
-      <c r="B74" s="202" t="s">
-        <v>1632</v>
+    <row r="74" spans="1:6" ht="17.649999999999999" customHeight="1">
+      <c r="A74" s="199"/>
+      <c r="B74" s="200" t="s">
+        <v>4369</v>
       </c>
       <c r="C74" t="s">
-        <v>1631</v>
+        <v>4370</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>5817</v>
+        <v>4371</v>
       </c>
       <c r="E74" s="186"/>
       <c r="F74" s="83"/>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="201"/>
-      <c r="B75" s="202">
-        <v>44256</v>
+    <row r="75" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A75" s="199"/>
+      <c r="B75" s="200" t="s">
+        <v>4760</v>
       </c>
       <c r="C75" t="s">
-        <v>4357</v>
+        <v>4327</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>5851</v>
+        <v>4328</v>
       </c>
       <c r="E75" s="186"/>
       <c r="F75" s="83"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="201"/>
-      <c r="B76" s="202" t="s">
-        <v>1573</v>
+      <c r="A76" s="199"/>
+      <c r="B76" s="200" t="s">
+        <v>1168</v>
       </c>
       <c r="C76" t="s">
-        <v>4372</v>
+        <v>1167</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>1571</v>
+        <v>4309</v>
       </c>
       <c r="E76" s="186"/>
       <c r="F76" s="83"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="201"/>
-      <c r="B77" s="202" t="s">
-        <v>4369</v>
+      <c r="A77" s="83"/>
+      <c r="B77" s="200" t="s">
+        <v>4467</v>
       </c>
       <c r="C77" t="s">
-        <v>4370</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>4371</v>
-      </c>
+        <v>4468</v>
+      </c>
+      <c r="D77" s="186"/>
       <c r="E77" s="186"/>
       <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="201"/>
-      <c r="B78" s="202" t="s">
-        <v>4760</v>
+      <c r="A78" s="83"/>
+      <c r="B78" s="200" t="s">
+        <v>5841</v>
       </c>
       <c r="C78" t="s">
-        <v>4327</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>4328</v>
-      </c>
+        <v>4323</v>
+      </c>
+      <c r="D78" s="186"/>
       <c r="E78" s="186"/>
       <c r="F78" s="83"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="201"/>
-      <c r="B79" s="202" t="s">
-        <v>1168</v>
+      <c r="A79" s="83"/>
+      <c r="B79" s="200">
+        <v>61141</v>
       </c>
       <c r="C79" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>4309</v>
-      </c>
+        <v>4409</v>
+      </c>
+      <c r="D79" s="186"/>
       <c r="E79" s="186"/>
       <c r="F79" s="83"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="83"/>
-      <c r="B80" s="202" t="s">
-        <v>4467</v>
+      <c r="B80" s="200" t="s">
+        <v>5216</v>
       </c>
       <c r="C80" t="s">
-        <v>4468</v>
+        <v>5215</v>
       </c>
       <c r="D80" s="186"/>
       <c r="E80" s="186"/>
@@ -31191,11 +31617,11 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="83"/>
-      <c r="B81" s="202" t="s">
-        <v>5842</v>
+      <c r="B81" s="200" t="s">
+        <v>4455</v>
       </c>
       <c r="C81" t="s">
-        <v>4323</v>
+        <v>4456</v>
       </c>
       <c r="D81" s="186"/>
       <c r="E81" s="186"/>
@@ -31203,35 +31629,37 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="83"/>
-      <c r="B82" s="202">
-        <v>61141</v>
+      <c r="B82" s="200" t="s">
+        <v>5678</v>
       </c>
       <c r="C82" t="s">
-        <v>4409</v>
+        <v>5360</v>
       </c>
       <c r="D82" s="186"/>
       <c r="E82" s="186"/>
       <c r="F82" s="83"/>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="83"/>
-      <c r="B83" s="202" t="s">
-        <v>5216</v>
+      <c r="B83" s="200">
+        <v>95368</v>
       </c>
       <c r="C83" t="s">
-        <v>5215</v>
-      </c>
-      <c r="D83" s="186"/>
+        <v>4377</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>4378</v>
+      </c>
       <c r="E83" s="186"/>
       <c r="F83" s="83"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="83"/>
-      <c r="B84" s="202" t="s">
-        <v>4455</v>
+      <c r="B84" s="200" t="s">
+        <v>4436</v>
       </c>
       <c r="C84" t="s">
-        <v>4456</v>
+        <v>4437</v>
       </c>
       <c r="D84" s="186"/>
       <c r="E84" s="186"/>
@@ -31239,11 +31667,11 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="83"/>
-      <c r="B85" s="202" t="s">
-        <v>5679</v>
+      <c r="B85" s="200" t="s">
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>5360</v>
+        <v>21</v>
       </c>
       <c r="D85" s="186"/>
       <c r="E85" s="186"/>
@@ -31251,141 +31679,138 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="83"/>
-      <c r="B86" s="202">
-        <v>95368</v>
+      <c r="B86" s="200" t="s">
+        <v>995</v>
       </c>
       <c r="C86" t="s">
-        <v>4377</v>
+        <v>934</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>4378</v>
-      </c>
-      <c r="E86" s="186"/>
+        <v>1296</v>
+      </c>
+      <c r="E86" s="186" t="s">
+        <v>4401</v>
+      </c>
       <c r="F86" s="83"/>
     </row>
-    <row r="87" spans="1:6" ht="17.649999999999999" customHeight="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="83"/>
-      <c r="B87" s="202" t="s">
-        <v>4436</v>
+      <c r="B87" s="200" t="s">
+        <v>900</v>
       </c>
       <c r="C87" t="s">
-        <v>4437</v>
+        <v>5827</v>
       </c>
       <c r="D87" s="186"/>
       <c r="E87" s="186"/>
       <c r="F87" s="83"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="17.649999999999999" customHeight="1">
       <c r="A88" s="83"/>
-      <c r="B88" s="202" t="s">
-        <v>168</v>
+      <c r="B88" s="200" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="186"/>
+        <v>176</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="E88" s="186"/>
       <c r="F88" s="83"/>
     </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="83"/>
-      <c r="B89" s="202" t="s">
-        <v>995</v>
+      <c r="B89" s="200" t="s">
+        <v>4462</v>
       </c>
       <c r="C89" t="s">
-        <v>934</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E89" s="186" t="s">
-        <v>4401</v>
-      </c>
+        <v>4810</v>
+      </c>
+      <c r="D89" s="186"/>
+      <c r="E89" s="186"/>
       <c r="F89" s="83"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="83"/>
-      <c r="B90" s="202" t="s">
-        <v>900</v>
+    <row r="90" spans="1:6" ht="18" customHeight="1">
+      <c r="B90" s="200" t="s">
+        <v>4239</v>
       </c>
       <c r="C90" t="s">
-        <v>5828</v>
-      </c>
-      <c r="D90" s="186"/>
+        <v>4240</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>4241</v>
+      </c>
       <c r="E90" s="186"/>
       <c r="F90" s="83"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="83"/>
-      <c r="B91" s="202" t="s">
-        <v>177</v>
+      <c r="B91" s="200" t="s">
+        <v>5814</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>278</v>
-      </c>
+        <v>4391</v>
+      </c>
+      <c r="D91" s="186"/>
       <c r="E91" s="186"/>
       <c r="F91" s="83"/>
     </row>
-    <row r="92" spans="1:6" ht="21.6" customHeight="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="83"/>
-      <c r="B92" s="202" t="s">
-        <v>4462</v>
+      <c r="B92" s="200">
+        <v>70508</v>
       </c>
       <c r="C92" t="s">
-        <v>4810</v>
+        <v>917</v>
       </c>
       <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
+      <c r="E92" s="83"/>
       <c r="F92" s="83"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="21.6" customHeight="1">
       <c r="A93" s="83"/>
-      <c r="B93" s="202">
-        <v>70508</v>
+      <c r="B93" s="200" t="s">
+        <v>4359</v>
       </c>
       <c r="C93" t="s">
-        <v>917</v>
-      </c>
-      <c r="D93" s="186"/>
-      <c r="E93" s="83"/>
+        <v>4360</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E93" s="186"/>
       <c r="F93" s="83"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="83"/>
-      <c r="B94" s="202" t="s">
-        <v>4359</v>
+      <c r="B94" s="200" t="s">
+        <v>4386</v>
       </c>
       <c r="C94" t="s">
-        <v>4360</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>4361</v>
-      </c>
+        <v>4387</v>
+      </c>
+      <c r="D94" s="186"/>
       <c r="E94" s="186"/>
       <c r="F94" s="83"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="83"/>
-      <c r="B95" s="202" t="s">
-        <v>4386</v>
+      <c r="B95" s="200">
+        <v>32245</v>
       </c>
       <c r="C95" t="s">
-        <v>4387</v>
+        <v>4279</v>
       </c>
       <c r="D95" s="186"/>
       <c r="E95" s="186"/>
       <c r="F95" s="83"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="83"/>
-      <c r="B96" s="202">
-        <v>32245</v>
+      <c r="B96" s="202" t="s">
+        <v>922</v>
       </c>
       <c r="C96" t="s">
-        <v>4279</v>
+        <v>5511</v>
       </c>
       <c r="D96" s="186"/>
       <c r="E96" s="186"/>
@@ -31393,7 +31818,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="83"/>
-      <c r="B97" s="202" t="s">
+      <c r="B97" s="200" t="s">
         <v>922</v>
       </c>
       <c r="C97" t="s">
@@ -31405,21 +31830,21 @@
       <c r="E97" s="186"/>
       <c r="F97" s="83"/>
     </row>
-    <row r="98" spans="1:6" ht="22.15" customHeight="1">
+    <row r="98" spans="1:6">
       <c r="A98" s="83"/>
-      <c r="B98" s="203" t="s">
+      <c r="B98" s="201" t="s">
         <v>4461</v>
       </c>
       <c r="C98" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="D98" s="186"/>
       <c r="E98" s="186"/>
       <c r="F98" s="83"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="22.15" customHeight="1">
       <c r="A99" s="83"/>
-      <c r="B99" s="202" t="s">
+      <c r="B99" s="200" t="s">
         <v>655</v>
       </c>
       <c r="C99" t="s">
@@ -31433,7 +31858,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="83"/>
-      <c r="B100" s="202" t="s">
+      <c r="B100" s="200" t="s">
         <v>605</v>
       </c>
       <c r="C100" t="s">
@@ -31445,19 +31870,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="83"/>
-      <c r="B101" s="202" t="s">
+      <c r="B101" s="200" t="s">
         <v>4433</v>
       </c>
       <c r="C101" t="s">
         <v>4434</v>
       </c>
-      <c r="D101" s="198"/>
+      <c r="D101" s="197"/>
       <c r="E101" s="186"/>
       <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="83"/>
-      <c r="B102" s="202">
+      <c r="B102" s="200">
         <v>66618</v>
       </c>
       <c r="C102" t="s">
@@ -31471,7 +31896,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="83"/>
-      <c r="B103" s="202" t="s">
+      <c r="B103" s="200" t="s">
         <v>4280</v>
       </c>
       <c r="C103" t="s">
@@ -31483,13 +31908,13 @@
       <c r="E103" s="186"/>
       <c r="F103" s="83"/>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1">
+    <row r="104" spans="1:6">
       <c r="A104" s="83"/>
-      <c r="B104" s="202" t="s">
-        <v>5736</v>
+      <c r="B104" s="200" t="s">
+        <v>5735</v>
       </c>
       <c r="C104" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4428</v>
@@ -31497,37 +31922,37 @@
       <c r="E104" s="186"/>
       <c r="F104" s="83"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="18" customHeight="1">
       <c r="A105" s="83"/>
-      <c r="B105" s="203" t="s">
-        <v>5682</v>
+      <c r="B105" s="201" t="s">
+        <v>5681</v>
       </c>
       <c r="C105" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="D105" s="186"/>
       <c r="E105" s="186"/>
       <c r="F105" s="83"/>
     </row>
-    <row r="106" spans="1:6" ht="16.149999999999999" customHeight="1">
+    <row r="106" spans="1:6">
       <c r="A106" s="83"/>
-      <c r="B106" s="202" t="s">
+      <c r="B106" s="200" t="s">
         <v>4448</v>
       </c>
       <c r="C106" t="s">
         <v>4449</v>
       </c>
       <c r="D106" s="186"/>
-      <c r="E106" s="198"/>
+      <c r="E106" s="197"/>
       <c r="F106" s="83"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A107" s="83"/>
-      <c r="B107" s="202" t="s">
+      <c r="B107" s="200" t="s">
         <v>4368</v>
       </c>
       <c r="C107" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="D107" s="186"/>
       <c r="E107" s="186"/>
@@ -31535,7 +31960,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="83"/>
-      <c r="B108" s="202" t="s">
+      <c r="B108" s="200" t="s">
         <v>5364</v>
       </c>
       <c r="C108" t="s">
@@ -31547,8 +31972,8 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="83"/>
-      <c r="B109" s="202" t="s">
-        <v>5885</v>
+      <c r="B109" s="200" t="s">
+        <v>5883</v>
       </c>
       <c r="C109" t="s">
         <v>4811</v>
@@ -31559,7 +31984,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="83"/>
-      <c r="B110" s="202" t="s">
+      <c r="B110" s="200" t="s">
         <v>442</v>
       </c>
       <c r="C110" t="s">
@@ -31568,27 +31993,27 @@
       <c r="D110" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="E110" s="198"/>
+      <c r="E110" s="197"/>
       <c r="F110" s="83"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="83"/>
-      <c r="B111" s="202">
+      <c r="B111" s="200">
         <v>86044</v>
       </c>
       <c r="C111" t="s">
         <v>4635</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="E111" s="186"/>
       <c r="F111" s="83"/>
     </row>
-    <row r="112" spans="1:6" ht="16.149999999999999" customHeight="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="83"/>
-      <c r="B112" s="202" t="s">
-        <v>5833</v>
+      <c r="B112" s="200" t="s">
+        <v>5832</v>
       </c>
       <c r="C112" t="s">
         <v>638</v>
@@ -31599,9 +32024,9 @@
       <c r="E112" s="186"/>
       <c r="F112" s="83"/>
     </row>
-    <row r="113" spans="1:6" ht="14.45" customHeight="1">
+    <row r="113" spans="1:6" ht="16.149999999999999" customHeight="1">
       <c r="A113" s="83"/>
-      <c r="B113" s="202" t="s">
+      <c r="B113" s="200" t="s">
         <v>403</v>
       </c>
       <c r="C113" t="s">
@@ -31611,9 +32036,9 @@
       <c r="E113" s="186"/>
       <c r="F113" s="83"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="14.45" customHeight="1">
       <c r="A114" s="83"/>
-      <c r="B114" s="202">
+      <c r="B114" s="200">
         <v>71304</v>
       </c>
       <c r="C114" t="s">
@@ -31625,7 +32050,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="83"/>
-      <c r="B115" s="202" t="s">
+      <c r="B115" s="200" t="s">
         <v>5419</v>
       </c>
       <c r="C115" t="s">
@@ -31637,7 +32062,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="83"/>
-      <c r="B116" s="202" t="s">
+      <c r="B116" s="200" t="s">
         <v>904</v>
       </c>
       <c r="C116" t="s">
@@ -31648,52 +32073,51 @@
       <c r="F116" s="83"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="83"/>
-      <c r="B117" s="202">
-        <v>65586</v>
+      <c r="B117" s="200" t="s">
+        <v>4487</v>
       </c>
       <c r="C117" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>4245</v>
-      </c>
+        <v>4488</v>
+      </c>
+      <c r="D117" s="186"/>
       <c r="E117" s="186"/>
       <c r="F117" s="83"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="83"/>
-      <c r="B118" s="202" t="s">
-        <v>5886</v>
+      <c r="B118" s="200">
+        <v>65586</v>
       </c>
       <c r="C118" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>1294</v>
+        <v>4245</v>
       </c>
       <c r="E118" s="186"/>
       <c r="F118" s="83"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="83"/>
-      <c r="B119" s="202" t="s">
-        <v>1346</v>
+      <c r="B119" s="200" t="s">
+        <v>5884</v>
       </c>
       <c r="C119" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D119" s="186"/>
+        <v>1283</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>1294</v>
+      </c>
       <c r="E119" s="186"/>
       <c r="F119" s="83"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="83"/>
-      <c r="B120" s="202">
-        <v>54119</v>
+      <c r="B120" s="200" t="s">
+        <v>1346</v>
       </c>
       <c r="C120" t="s">
-        <v>5359</v>
+        <v>1345</v>
       </c>
       <c r="D120" s="186"/>
       <c r="E120" s="186"/>
@@ -31701,11 +32125,11 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="83"/>
-      <c r="B121" s="202">
-        <v>10988</v>
+      <c r="B121" s="200">
+        <v>54119</v>
       </c>
       <c r="C121" t="s">
-        <v>4454</v>
+        <v>5359</v>
       </c>
       <c r="D121" s="186"/>
       <c r="E121" s="186"/>
@@ -31713,63 +32137,63 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="83"/>
-      <c r="B122" s="202">
-        <v>81815</v>
+      <c r="B122" s="200">
+        <v>10988</v>
       </c>
       <c r="C122" t="s">
-        <v>4379</v>
+        <v>4454</v>
       </c>
       <c r="D122" s="186"/>
       <c r="E122" s="186"/>
       <c r="F122" s="83"/>
     </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1">
+    <row r="123" spans="1:6">
       <c r="A123" s="83"/>
-      <c r="B123" s="202" t="s">
-        <v>214</v>
+      <c r="B123" s="200">
+        <v>81815</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>1502</v>
-      </c>
+        <v>4379</v>
+      </c>
+      <c r="D123" s="186"/>
       <c r="E123" s="186"/>
       <c r="F123" s="83"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="18" customHeight="1">
       <c r="A124" s="83"/>
-      <c r="B124" s="202" t="s">
-        <v>4348</v>
+      <c r="B124" s="200" t="s">
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>4349</v>
+        <v>249</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>5869</v>
+        <v>1502</v>
       </c>
       <c r="E124" s="186"/>
       <c r="F124" s="83"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="83"/>
-      <c r="B125" s="202" t="s">
-        <v>4380</v>
+      <c r="B125" s="200" t="s">
+        <v>4348</v>
       </c>
       <c r="C125" t="s">
-        <v>4381</v>
-      </c>
-      <c r="D125" s="186"/>
+        <v>4349</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>5867</v>
+      </c>
       <c r="E125" s="186"/>
       <c r="F125" s="83"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="83"/>
-      <c r="B126" s="202">
-        <v>15645</v>
+      <c r="B126" s="200" t="s">
+        <v>4380</v>
       </c>
       <c r="C126" t="s">
-        <v>5673</v>
+        <v>4381</v>
       </c>
       <c r="D126" s="186"/>
       <c r="E126" s="186"/>
@@ -31777,11 +32201,11 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="83"/>
-      <c r="B127" s="202">
-        <v>76588</v>
+      <c r="B127" s="200">
+        <v>15645</v>
       </c>
       <c r="C127" t="s">
-        <v>4364</v>
+        <v>5672</v>
       </c>
       <c r="D127" s="186"/>
       <c r="E127" s="186"/>
@@ -31789,167 +32213,167 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="83"/>
-      <c r="B128" s="202" t="s">
-        <v>1020</v>
+      <c r="B128" s="200">
+        <v>76588</v>
       </c>
       <c r="C128" t="s">
-        <v>4592</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>5870</v>
-      </c>
+        <v>4364</v>
+      </c>
+      <c r="D128" s="186"/>
       <c r="E128" s="186"/>
       <c r="F128" s="83"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="83"/>
-      <c r="B129" s="202">
-        <v>11243</v>
+      <c r="B129" s="200" t="s">
+        <v>1020</v>
       </c>
       <c r="C129" t="s">
-        <v>4399</v>
-      </c>
-      <c r="D129" s="186"/>
+        <v>4592</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>5868</v>
+      </c>
       <c r="E129" s="186"/>
       <c r="F129" s="83"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="83"/>
-      <c r="B130" s="202" t="s">
-        <v>631</v>
+      <c r="B130" s="200">
+        <v>11243</v>
       </c>
       <c r="C130" t="s">
-        <v>630</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>663</v>
-      </c>
+        <v>4399</v>
+      </c>
+      <c r="D130" s="186"/>
       <c r="E130" s="186"/>
       <c r="F130" s="83"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25" customHeight="1">
+    <row r="131" spans="1:6">
       <c r="A131" s="83"/>
-      <c r="B131" s="202" t="s">
-        <v>1076</v>
+      <c r="B131" s="200" t="s">
+        <v>631</v>
       </c>
       <c r="C131" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D131" s="186"/>
+        <v>630</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>663</v>
+      </c>
       <c r="E131" s="186"/>
       <c r="F131" s="83"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="14.25" customHeight="1">
       <c r="A132" s="83"/>
-      <c r="B132" s="202">
-        <v>66087</v>
+      <c r="B132" s="200" t="s">
+        <v>1076</v>
       </c>
       <c r="C132" t="s">
-        <v>4283</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>4284</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="D132" s="186"/>
       <c r="E132" s="186"/>
       <c r="F132" s="83"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="83"/>
-      <c r="B133" s="202" t="s">
-        <v>532</v>
+      <c r="B133" s="200">
+        <v>66087</v>
       </c>
       <c r="C133" t="s">
-        <v>531</v>
+        <v>4283</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>912</v>
+        <v>4284</v>
       </c>
       <c r="E133" s="186"/>
       <c r="F133" s="83"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="83"/>
-      <c r="B134" s="202" t="s">
-        <v>163</v>
+      <c r="B134" s="200" t="s">
+        <v>532</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>316</v>
+        <v>912</v>
       </c>
       <c r="E134" s="186"/>
       <c r="F134" s="83"/>
     </row>
-    <row r="135" spans="1:6" ht="19.5" customHeight="1">
+    <row r="135" spans="1:6">
       <c r="A135" s="83"/>
-      <c r="B135" s="202" t="s">
-        <v>5887</v>
+      <c r="B135" s="200" t="s">
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D135" s="186"/>
+        <v>162</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="E135" s="186"/>
       <c r="F135" s="83"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="19.5" customHeight="1">
       <c r="A136" s="83"/>
-      <c r="B136" s="202" t="s">
-        <v>94</v>
+      <c r="B136" s="200" t="s">
+        <v>5885</v>
       </c>
       <c r="C136" t="s">
-        <v>92</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>662</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="D136" s="186"/>
       <c r="E136" s="186"/>
       <c r="F136" s="83"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="83"/>
-      <c r="B137" s="202">
-        <v>71985</v>
+      <c r="B137" s="200" t="s">
+        <v>94</v>
       </c>
       <c r="C137" t="s">
-        <v>5674</v>
-      </c>
-      <c r="D137" s="186"/>
+        <v>92</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>662</v>
+      </c>
       <c r="E137" s="186"/>
       <c r="F137" s="83"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="83"/>
-      <c r="B138" s="202" t="s">
-        <v>4394</v>
+      <c r="B138" s="200">
+        <v>71985</v>
       </c>
       <c r="C138" t="s">
-        <v>4395</v>
+        <v>5673</v>
       </c>
       <c r="D138" s="186"/>
       <c r="E138" s="186"/>
       <c r="F138" s="83"/>
     </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1">
+    <row r="139" spans="1:6">
       <c r="A139" s="83"/>
-      <c r="B139" s="202">
-        <v>57771</v>
+      <c r="B139" s="200" t="s">
+        <v>4394</v>
       </c>
       <c r="C139" t="s">
-        <v>4383</v>
+        <v>4395</v>
       </c>
       <c r="D139" s="186"/>
       <c r="E139" s="186"/>
       <c r="F139" s="83"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="18" customHeight="1">
       <c r="A140" s="83"/>
-      <c r="B140" s="202" t="s">
-        <v>5888</v>
+      <c r="B140" s="200">
+        <v>57771</v>
       </c>
       <c r="C140" t="s">
-        <v>5362</v>
+        <v>4383</v>
       </c>
       <c r="D140" s="186"/>
       <c r="E140" s="186"/>
@@ -31957,11 +32381,11 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="83"/>
-      <c r="B141" s="202">
-        <v>12190</v>
+      <c r="B141" s="200" t="s">
+        <v>5886</v>
       </c>
       <c r="C141" t="s">
-        <v>5611</v>
+        <v>5362</v>
       </c>
       <c r="D141" s="186"/>
       <c r="E141" s="186"/>
@@ -31969,11 +32393,11 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="83"/>
-      <c r="B142" s="202" t="s">
-        <v>4481</v>
+      <c r="B142" s="200">
+        <v>12190</v>
       </c>
       <c r="C142" t="s">
-        <v>4482</v>
+        <v>5610</v>
       </c>
       <c r="D142" s="186"/>
       <c r="E142" s="186"/>
@@ -31981,151 +32405,151 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="83"/>
-      <c r="B143" s="202" t="s">
-        <v>1181</v>
+      <c r="B143" s="200" t="s">
+        <v>4481</v>
       </c>
       <c r="C143" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>1182</v>
-      </c>
+        <v>4482</v>
+      </c>
+      <c r="D143" s="186"/>
       <c r="E143" s="186"/>
       <c r="F143" s="83"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="83"/>
-      <c r="B144" s="202">
-        <v>83533</v>
+      <c r="B144" s="200" t="s">
+        <v>1181</v>
       </c>
       <c r="C144" t="s">
-        <v>1309</v>
+        <v>1180</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>1308</v>
+        <v>1182</v>
       </c>
       <c r="E144" s="186"/>
       <c r="F144" s="83"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="83"/>
-      <c r="B145" s="202" t="s">
-        <v>745</v>
+      <c r="B145" s="200">
+        <v>83533</v>
       </c>
       <c r="C145" t="s">
-        <v>5846</v>
-      </c>
-      <c r="D145" s="186"/>
+        <v>1309</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>1308</v>
+      </c>
       <c r="E145" s="186"/>
       <c r="F145" s="83"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="83"/>
-      <c r="B146" s="202" t="s">
-        <v>5415</v>
+      <c r="B146" s="200" t="s">
+        <v>745</v>
       </c>
       <c r="C146" t="s">
-        <v>5414</v>
+        <v>5845</v>
       </c>
       <c r="D146" s="186"/>
       <c r="E146" s="186"/>
       <c r="F146" s="83"/>
     </row>
-    <row r="147" spans="1:6" ht="19.5" customHeight="1">
+    <row r="147" spans="1:6">
       <c r="A147" s="83"/>
-      <c r="B147" s="202" t="s">
-        <v>4249</v>
+      <c r="B147" s="200" t="s">
+        <v>5415</v>
       </c>
       <c r="C147" t="s">
-        <v>4250</v>
+        <v>5414</v>
       </c>
       <c r="D147" s="186"/>
       <c r="E147" s="186"/>
       <c r="F147" s="83"/>
     </row>
-    <row r="148" spans="1:6" ht="17.25" customHeight="1">
+    <row r="148" spans="1:6" ht="19.5" customHeight="1">
       <c r="A148" s="83"/>
-      <c r="B148" s="202" t="s">
-        <v>4458</v>
+      <c r="B148" s="200" t="s">
+        <v>4249</v>
       </c>
       <c r="C148" t="s">
-        <v>4459</v>
+        <v>4250</v>
       </c>
       <c r="D148" s="186"/>
       <c r="E148" s="186"/>
       <c r="F148" s="83"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="17.25" customHeight="1">
       <c r="A149" s="83"/>
-      <c r="B149" s="202" t="s">
-        <v>5889</v>
+      <c r="B149" s="200" t="s">
+        <v>4458</v>
       </c>
       <c r="C149" t="s">
-        <v>4251</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>4252</v>
-      </c>
+        <v>4459</v>
+      </c>
+      <c r="D149" s="186"/>
       <c r="E149" s="186"/>
       <c r="F149" s="83"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="83"/>
-      <c r="B150" s="202" t="s">
-        <v>507</v>
+      <c r="B150" s="200" t="s">
+        <v>5887</v>
       </c>
       <c r="C150" t="s">
-        <v>506</v>
-      </c>
-      <c r="D150" s="186"/>
+        <v>4251</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>4252</v>
+      </c>
       <c r="E150" s="186"/>
       <c r="F150" s="83"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="83"/>
-      <c r="B151" s="202" t="s">
-        <v>1522</v>
+      <c r="B151" s="200" t="s">
+        <v>507</v>
       </c>
       <c r="C151" t="s">
-        <v>813</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>961</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D151" s="186"/>
       <c r="E151" s="186"/>
       <c r="F151" s="83"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="83"/>
-      <c r="B152" s="202">
-        <v>30169</v>
+      <c r="B152" s="200" t="s">
+        <v>1522</v>
       </c>
       <c r="C152" t="s">
-        <v>4424</v>
-      </c>
-      <c r="D152" s="186"/>
+        <v>813</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>961</v>
+      </c>
       <c r="E152" s="186"/>
       <c r="F152" s="83"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6">
       <c r="A153" s="83"/>
-      <c r="B153" s="202" t="s">
-        <v>4396</v>
+      <c r="B153" s="200">
+        <v>30169</v>
       </c>
       <c r="C153" t="s">
-        <v>4397</v>
+        <v>4424</v>
       </c>
       <c r="D153" s="186"/>
       <c r="E153" s="186"/>
       <c r="F153" s="83"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="15.75" customHeight="1">
       <c r="A154" s="83"/>
-      <c r="B154" s="202" t="s">
-        <v>4808</v>
+      <c r="B154" s="200" t="s">
+        <v>4396</v>
       </c>
       <c r="C154" t="s">
-        <v>4807</v>
+        <v>4397</v>
       </c>
       <c r="D154" s="186"/>
       <c r="E154" s="186"/>
@@ -32133,37 +32557,37 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="83"/>
-      <c r="B155" s="202" t="s">
-        <v>4253</v>
+      <c r="B155" s="200" t="s">
+        <v>4808</v>
       </c>
       <c r="C155" t="s">
-        <v>4254</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>4255</v>
-      </c>
+        <v>4807</v>
+      </c>
+      <c r="D155" s="186"/>
       <c r="E155" s="186"/>
       <c r="F155" s="83"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="83"/>
-      <c r="B156" s="202">
-        <v>73680</v>
+      <c r="B156" s="200" t="s">
+        <v>4253</v>
       </c>
       <c r="C156" t="s">
-        <v>4425</v>
-      </c>
-      <c r="D156" s="186"/>
+        <v>4254</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>4255</v>
+      </c>
       <c r="E156" s="186"/>
       <c r="F156" s="83"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="83"/>
-      <c r="B157" s="202" t="s">
-        <v>4402</v>
+      <c r="B157" s="200">
+        <v>73680</v>
       </c>
       <c r="C157" t="s">
-        <v>4422</v>
+        <v>4425</v>
       </c>
       <c r="D157" s="186"/>
       <c r="E157" s="186"/>
@@ -32171,11 +32595,11 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="83"/>
-      <c r="B158" s="202" t="s">
-        <v>4353</v>
+      <c r="B158" s="200" t="s">
+        <v>4402</v>
       </c>
       <c r="C158" t="s">
-        <v>4354</v>
+        <v>4422</v>
       </c>
       <c r="D158" s="186"/>
       <c r="E158" s="186"/>
@@ -32183,51 +32607,51 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="83"/>
-      <c r="B159" s="202" t="s">
-        <v>4256</v>
+      <c r="B159" s="200" t="s">
+        <v>4353</v>
       </c>
       <c r="C159" t="s">
-        <v>4257</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>4258</v>
-      </c>
+        <v>4354</v>
+      </c>
+      <c r="D159" s="186"/>
       <c r="E159" s="186"/>
       <c r="F159" s="83"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="83"/>
-      <c r="B160" s="202" t="s">
-        <v>4259</v>
+      <c r="B160" s="200" t="s">
+        <v>4256</v>
       </c>
       <c r="C160" t="s">
-        <v>4260</v>
+        <v>4257</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>4261</v>
+        <v>4258</v>
       </c>
       <c r="E160" s="186"/>
       <c r="F160" s="83"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="83"/>
-      <c r="B161" s="202">
-        <v>63282</v>
+      <c r="B161" s="200" t="s">
+        <v>4259</v>
       </c>
       <c r="C161" t="s">
-        <v>5365</v>
-      </c>
-      <c r="D161" s="186"/>
+        <v>4260</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>4261</v>
+      </c>
       <c r="E161" s="186"/>
       <c r="F161" s="83"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="83"/>
-      <c r="B162" s="202">
-        <v>52213</v>
+      <c r="B162" s="200">
+        <v>63282</v>
       </c>
       <c r="C162" t="s">
-        <v>4632</v>
+        <v>5365</v>
       </c>
       <c r="D162" s="186"/>
       <c r="E162" s="186"/>
@@ -32235,37 +32659,37 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="83"/>
-      <c r="B163" s="202" t="s">
-        <v>612</v>
+      <c r="B163" s="200">
+        <v>52213</v>
       </c>
       <c r="C163" t="s">
-        <v>611</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>4263</v>
-      </c>
+        <v>4632</v>
+      </c>
+      <c r="D163" s="186"/>
       <c r="E163" s="186"/>
       <c r="F163" s="83"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="83"/>
-      <c r="B164" s="202" t="s">
-        <v>4415</v>
+      <c r="B164" s="200" t="s">
+        <v>612</v>
       </c>
       <c r="C164" t="s">
-        <v>4477</v>
-      </c>
-      <c r="D164" s="186"/>
+        <v>611</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>4263</v>
+      </c>
       <c r="E164" s="186"/>
       <c r="F164" s="83"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="83"/>
-      <c r="B165" s="202" t="s">
-        <v>5829</v>
+      <c r="B165" s="200" t="s">
+        <v>4415</v>
       </c>
       <c r="C165" t="s">
-        <v>4336</v>
+        <v>4477</v>
       </c>
       <c r="D165" s="186"/>
       <c r="E165" s="186"/>
@@ -32273,11 +32697,11 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="83"/>
-      <c r="B166" s="202" t="s">
-        <v>4402</v>
+      <c r="B166" s="200" t="s">
+        <v>5828</v>
       </c>
       <c r="C166" t="s">
-        <v>4478</v>
+        <v>4336</v>
       </c>
       <c r="D166" s="186"/>
       <c r="E166" s="186"/>
@@ -32285,11 +32709,11 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="83"/>
-      <c r="B167" s="202">
-        <v>53882</v>
+      <c r="B167" s="200" t="s">
+        <v>4402</v>
       </c>
       <c r="C167" t="s">
-        <v>4316</v>
+        <v>4478</v>
       </c>
       <c r="D167" s="186"/>
       <c r="E167" s="186"/>
@@ -32297,37 +32721,37 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="83"/>
-      <c r="B168" s="202" t="s">
-        <v>5890</v>
+      <c r="B168" s="200">
+        <v>53882</v>
       </c>
       <c r="C168" t="s">
-        <v>4264</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>4265</v>
-      </c>
+        <v>4316</v>
+      </c>
+      <c r="D168" s="186"/>
       <c r="E168" s="186"/>
       <c r="F168" s="83"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="83"/>
-      <c r="B169" s="202">
-        <v>64411</v>
+      <c r="B169" s="200" t="s">
+        <v>5888</v>
       </c>
       <c r="C169" t="s">
-        <v>4479</v>
-      </c>
-      <c r="D169" s="186"/>
+        <v>4264</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>4265</v>
+      </c>
       <c r="E169" s="186"/>
       <c r="F169" s="83"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="83"/>
-      <c r="B170" s="202">
-        <v>34222</v>
+      <c r="B170" s="200">
+        <v>64411</v>
       </c>
       <c r="C170" t="s">
-        <v>5820</v>
+        <v>4479</v>
       </c>
       <c r="D170" s="186"/>
       <c r="E170" s="186"/>
@@ -32335,77 +32759,77 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="83"/>
-      <c r="B171" s="202" t="s">
-        <v>5830</v>
+      <c r="B171" s="200">
+        <v>34222</v>
       </c>
       <c r="C171" t="s">
-        <v>4332</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>4333</v>
-      </c>
+        <v>5819</v>
+      </c>
+      <c r="D171" s="186"/>
       <c r="E171" s="186"/>
       <c r="F171" s="83"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="83"/>
-      <c r="B172" s="202" t="s">
-        <v>1170</v>
+      <c r="B172" s="200" t="s">
+        <v>5829</v>
       </c>
       <c r="C172" t="s">
-        <v>1169</v>
+        <v>4332</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>5871</v>
+        <v>4333</v>
       </c>
       <c r="E172" s="186"/>
       <c r="F172" s="83"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="83"/>
-      <c r="B173" s="202" t="s">
-        <v>5813</v>
+      <c r="B173" s="200" t="s">
+        <v>1170</v>
       </c>
       <c r="C173" t="s">
-        <v>5814</v>
-      </c>
-      <c r="D173" s="186"/>
+        <v>1169</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>5869</v>
+      </c>
       <c r="E173" s="186"/>
       <c r="F173" s="83"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="83"/>
-      <c r="B174" s="202" t="s">
-        <v>408</v>
+      <c r="B174" s="200" t="s">
+        <v>5812</v>
       </c>
       <c r="C174" t="s">
-        <v>406</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>407</v>
-      </c>
+        <v>5813</v>
+      </c>
+      <c r="D174" s="186"/>
       <c r="E174" s="186"/>
       <c r="F174" s="83"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="83"/>
-      <c r="B175" s="202" t="s">
-        <v>97</v>
+      <c r="B175" s="200" t="s">
+        <v>408</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
-      </c>
-      <c r="D175" s="186"/>
+        <v>406</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>407</v>
+      </c>
       <c r="E175" s="186"/>
       <c r="F175" s="83"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="83"/>
-      <c r="B176" s="202" t="s">
-        <v>4337</v>
+      <c r="B176" s="200" t="s">
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>4338</v>
+        <v>238</v>
       </c>
       <c r="D176" s="186"/>
       <c r="E176" s="186"/>
@@ -32413,11 +32837,11 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="83"/>
-      <c r="B177" s="202">
-        <v>11707</v>
+      <c r="B177" s="200" t="s">
+        <v>4337</v>
       </c>
       <c r="C177" t="s">
-        <v>4435</v>
+        <v>4338</v>
       </c>
       <c r="D177" s="186"/>
       <c r="E177" s="186"/>
@@ -32425,35 +32849,35 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="83"/>
-      <c r="B178" s="202" t="s">
-        <v>5411</v>
+      <c r="B178" s="200">
+        <v>11707</v>
       </c>
       <c r="C178" t="s">
-        <v>5410</v>
+        <v>4435</v>
       </c>
       <c r="D178" s="186"/>
       <c r="E178" s="186"/>
       <c r="F178" s="83"/>
     </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1">
+    <row r="179" spans="1:6">
       <c r="A179" s="83"/>
-      <c r="B179" s="202" t="s">
-        <v>513</v>
+      <c r="B179" s="200" t="s">
+        <v>5411</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>5410</v>
       </c>
       <c r="D179" s="186"/>
       <c r="E179" s="186"/>
       <c r="F179" s="83"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="18" customHeight="1">
       <c r="A180" s="83"/>
-      <c r="B180" s="202" t="s">
-        <v>5668</v>
+      <c r="B180" s="200" t="s">
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>5667</v>
+        <v>512</v>
       </c>
       <c r="D180" s="186"/>
       <c r="E180" s="186"/>
@@ -32461,11 +32885,11 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="83"/>
-      <c r="B181" s="202" t="s">
-        <v>5678</v>
+      <c r="B181" s="200" t="s">
+        <v>5667</v>
       </c>
       <c r="C181" t="s">
-        <v>5677</v>
+        <v>5666</v>
       </c>
       <c r="D181" s="186"/>
       <c r="E181" s="186"/>
@@ -32473,11 +32897,11 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="83"/>
-      <c r="B182" s="202" t="s">
-        <v>4405</v>
+      <c r="B182" s="200" t="s">
+        <v>5677</v>
       </c>
       <c r="C182" t="s">
-        <v>4406</v>
+        <v>5676</v>
       </c>
       <c r="D182" s="186"/>
       <c r="E182" s="186"/>
@@ -32485,37 +32909,37 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="83"/>
-      <c r="B183" s="202" t="s">
-        <v>228</v>
+      <c r="B183" s="200" t="s">
+        <v>4405</v>
       </c>
       <c r="C183" t="s">
-        <v>229</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>4270</v>
-      </c>
+        <v>4406</v>
+      </c>
+      <c r="D183" s="186"/>
       <c r="E183" s="186"/>
       <c r="F183" s="83"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="83"/>
-      <c r="B184" s="203" t="s">
-        <v>5891</v>
+      <c r="B184" s="200" t="s">
+        <v>228</v>
       </c>
       <c r="C184" t="s">
-        <v>4463</v>
-      </c>
-      <c r="D184" s="186"/>
+        <v>229</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>4270</v>
+      </c>
       <c r="E184" s="186"/>
       <c r="F184" s="83"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="83"/>
-      <c r="B185" s="202">
-        <v>71670</v>
+      <c r="B185" s="201" t="s">
+        <v>5889</v>
       </c>
       <c r="C185" t="s">
-        <v>5214</v>
+        <v>4463</v>
       </c>
       <c r="D185" s="186"/>
       <c r="E185" s="186"/>
@@ -32523,11 +32947,11 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="83"/>
-      <c r="B186" s="202">
-        <v>26136</v>
+      <c r="B186" s="200">
+        <v>71670</v>
       </c>
       <c r="C186" t="s">
-        <v>5369</v>
+        <v>5214</v>
       </c>
       <c r="D186" s="186"/>
       <c r="E186" s="186"/>
@@ -32535,11 +32959,11 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="83"/>
-      <c r="B187" s="202" t="s">
-        <v>4429</v>
+      <c r="B187" s="200">
+        <v>26136</v>
       </c>
       <c r="C187" t="s">
-        <v>4430</v>
+        <v>5369</v>
       </c>
       <c r="D187" s="186"/>
       <c r="E187" s="186"/>
@@ -32547,113 +32971,113 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="83"/>
-      <c r="B188" s="202" t="s">
-        <v>898</v>
+      <c r="B188" s="200" t="s">
+        <v>4429</v>
       </c>
       <c r="C188" t="s">
-        <v>897</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>990</v>
-      </c>
+        <v>4430</v>
+      </c>
+      <c r="D188" s="186"/>
       <c r="E188" s="186"/>
       <c r="F188" s="83"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="83"/>
-      <c r="B189" s="202" t="s">
-        <v>4431</v>
+      <c r="B189" s="200" t="s">
+        <v>898</v>
       </c>
       <c r="C189" t="s">
-        <v>4432</v>
-      </c>
-      <c r="D189" s="186"/>
+        <v>897</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>990</v>
+      </c>
       <c r="E189" s="186"/>
       <c r="F189" s="83"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="83"/>
-      <c r="B190" s="202">
-        <v>85213</v>
+      <c r="B190" s="200" t="s">
+        <v>4431</v>
       </c>
       <c r="C190" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>5872</v>
-      </c>
+        <v>4432</v>
+      </c>
+      <c r="D190" s="186"/>
       <c r="E190" s="186"/>
       <c r="F190" s="83"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="83"/>
-      <c r="B191" s="202">
-        <v>95094</v>
+      <c r="B191" s="200">
+        <v>85213</v>
       </c>
       <c r="C191" t="s">
-        <v>5413</v>
-      </c>
-      <c r="D191" s="186"/>
+        <v>1145</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>5870</v>
+      </c>
       <c r="E191" s="186"/>
       <c r="F191" s="83"/>
     </row>
-    <row r="192" spans="1:6" ht="13.5" customHeight="1">
+    <row r="192" spans="1:6">
       <c r="A192" s="83"/>
-      <c r="B192" s="202">
-        <v>33152</v>
+      <c r="B192" s="200">
+        <v>95094</v>
       </c>
       <c r="C192" t="s">
-        <v>4382</v>
+        <v>5413</v>
       </c>
       <c r="D192" s="186"/>
       <c r="E192" s="186"/>
       <c r="F192" s="83"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="13.5" customHeight="1">
       <c r="A193" s="83"/>
-      <c r="B193" s="202">
-        <v>17798</v>
+      <c r="B193" s="200">
+        <v>33152</v>
       </c>
       <c r="C193" t="s">
-        <v>4412</v>
+        <v>4382</v>
       </c>
       <c r="D193" s="186"/>
       <c r="E193" s="186"/>
       <c r="F193" s="83"/>
     </row>
-    <row r="194" spans="1:6" ht="17.45" customHeight="1">
+    <row r="194" spans="1:6">
       <c r="A194" s="83"/>
-      <c r="B194" s="202" t="s">
-        <v>582</v>
+      <c r="B194" s="200">
+        <v>17798</v>
       </c>
       <c r="C194" t="s">
-        <v>581</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>702</v>
-      </c>
+        <v>4412</v>
+      </c>
+      <c r="D194" s="186"/>
       <c r="E194" s="186"/>
       <c r="F194" s="83"/>
     </row>
-    <row r="195" spans="1:6" ht="17.25" customHeight="1">
+    <row r="195" spans="1:6" ht="17.45" customHeight="1">
       <c r="A195" s="83"/>
-      <c r="B195" s="202" t="s">
-        <v>282</v>
+      <c r="B195" s="200" t="s">
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>169</v>
-      </c>
-      <c r="D195" s="186"/>
+        <v>581</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>702</v>
+      </c>
       <c r="E195" s="186"/>
       <c r="F195" s="83"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="17.25" customHeight="1">
       <c r="A196" s="83"/>
-      <c r="B196" s="202" t="s">
-        <v>5825</v>
+      <c r="B196" s="200" t="s">
+        <v>282</v>
       </c>
       <c r="C196" t="s">
-        <v>5737</v>
+        <v>169</v>
       </c>
       <c r="D196" s="186"/>
       <c r="E196" s="186"/>
@@ -32661,11 +33085,11 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="83"/>
-      <c r="B197" s="202" t="s">
-        <v>4352</v>
+      <c r="B197" s="200" t="s">
+        <v>5824</v>
       </c>
       <c r="C197" t="s">
-        <v>4776</v>
+        <v>5736</v>
       </c>
       <c r="D197" s="186"/>
       <c r="E197" s="186"/>
@@ -32673,37 +33097,37 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="83"/>
-      <c r="B198" s="202" t="s">
-        <v>1865</v>
+      <c r="B198" s="200" t="s">
+        <v>4352</v>
       </c>
       <c r="C198" t="s">
-        <v>4313</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>4314</v>
-      </c>
+        <v>4776</v>
+      </c>
+      <c r="D198" s="186"/>
       <c r="E198" s="186"/>
       <c r="F198" s="83"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="83"/>
-      <c r="B199" s="202">
-        <v>14561</v>
+      <c r="B199" s="200" t="s">
+        <v>1865</v>
       </c>
       <c r="C199" t="s">
-        <v>4318</v>
-      </c>
-      <c r="D199" s="186"/>
+        <v>4313</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>4314</v>
+      </c>
       <c r="E199" s="186"/>
       <c r="F199" s="83"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="83"/>
-      <c r="B200" s="202">
-        <v>87009</v>
+      <c r="B200" s="200">
+        <v>14561</v>
       </c>
       <c r="C200" t="s">
-        <v>4480</v>
+        <v>4318</v>
       </c>
       <c r="D200" s="186"/>
       <c r="E200" s="186"/>
@@ -32711,11 +33135,11 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="83"/>
-      <c r="B201" s="202">
-        <v>38664</v>
+      <c r="B201" s="200">
+        <v>87009</v>
       </c>
       <c r="C201" t="s">
-        <v>4474</v>
+        <v>4480</v>
       </c>
       <c r="D201" s="186"/>
       <c r="E201" s="186"/>
@@ -32723,65 +33147,65 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="83"/>
-      <c r="B202" s="202">
-        <v>60955</v>
+      <c r="B202" s="200">
+        <v>38664</v>
       </c>
       <c r="C202" t="s">
-        <v>4271</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>4272</v>
-      </c>
+        <v>4474</v>
+      </c>
+      <c r="D202" s="186"/>
       <c r="E202" s="186"/>
       <c r="F202" s="83"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="83"/>
-      <c r="B203" s="202">
-        <v>13047</v>
+      <c r="B203" s="200">
+        <v>60955</v>
       </c>
       <c r="C203" t="s">
-        <v>4339</v>
+        <v>4271</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>4340</v>
+        <v>4272</v>
       </c>
       <c r="E203" s="186"/>
       <c r="F203" s="83"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="83"/>
-      <c r="B204" s="202">
-        <v>22978</v>
+      <c r="B204" s="200">
+        <v>13047</v>
       </c>
       <c r="C204" t="s">
-        <v>4325</v>
+        <v>4339</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>4326</v>
+        <v>4340</v>
       </c>
       <c r="E204" s="186"/>
       <c r="F204" s="83"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="83"/>
-      <c r="B205" s="202" t="s">
-        <v>5229</v>
+      <c r="B205" s="200">
+        <v>22978</v>
       </c>
       <c r="C205" t="s">
-        <v>5228</v>
-      </c>
-      <c r="D205" s="186"/>
+        <v>4325</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>4326</v>
+      </c>
       <c r="E205" s="186"/>
       <c r="F205" s="83"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="83"/>
-      <c r="B206" s="202">
-        <v>12021</v>
+      <c r="B206" s="200" t="s">
+        <v>5229</v>
       </c>
       <c r="C206" t="s">
-        <v>4411</v>
+        <v>5228</v>
       </c>
       <c r="D206" s="186"/>
       <c r="E206" s="186"/>
@@ -32789,101 +33213,101 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="83"/>
-      <c r="B207" s="202">
-        <v>62727</v>
+      <c r="B207" s="200">
+        <v>12021</v>
       </c>
       <c r="C207" t="s">
-        <v>4358</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>5873</v>
-      </c>
+        <v>4411</v>
+      </c>
+      <c r="D207" s="186"/>
       <c r="E207" s="186"/>
       <c r="F207" s="83"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="83"/>
-      <c r="B208" s="202" t="s">
-        <v>1689</v>
+      <c r="B208" s="200">
+        <v>62727</v>
       </c>
       <c r="C208" t="s">
-        <v>4273</v>
+        <v>4358</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>1690</v>
+        <v>5871</v>
       </c>
       <c r="E208" s="186"/>
       <c r="F208" s="83"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="83"/>
-      <c r="B209" s="202" t="s">
-        <v>4274</v>
+      <c r="B209" s="200" t="s">
+        <v>1689</v>
       </c>
       <c r="C209" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>4276</v>
+        <v>1690</v>
       </c>
       <c r="E209" s="186"/>
       <c r="F209" s="83"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="83"/>
-      <c r="B210" s="202" t="s">
-        <v>4451</v>
+      <c r="B210" s="200" t="s">
+        <v>4274</v>
       </c>
       <c r="C210" t="s">
-        <v>4452</v>
-      </c>
-      <c r="D210" s="186"/>
+        <v>4275</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>4276</v>
+      </c>
       <c r="E210" s="186"/>
       <c r="F210" s="83"/>
     </row>
-    <row r="211" spans="1:6" ht="18.75" customHeight="1">
+    <row r="211" spans="1:6">
       <c r="A211" s="83"/>
-      <c r="B211" s="202">
-        <v>38881</v>
+      <c r="B211" s="200" t="s">
+        <v>4451</v>
       </c>
       <c r="C211" t="s">
-        <v>4809</v>
+        <v>4452</v>
       </c>
       <c r="D211" s="186"/>
       <c r="E211" s="186"/>
       <c r="F211" s="83"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="18.75" customHeight="1">
       <c r="A212" s="83"/>
-      <c r="B212" s="202">
-        <v>41592</v>
+      <c r="B212" s="200">
+        <v>38881</v>
       </c>
       <c r="C212" t="s">
-        <v>4453</v>
+        <v>4809</v>
       </c>
       <c r="D212" s="186"/>
       <c r="E212" s="186"/>
       <c r="F212" s="83"/>
     </row>
-    <row r="213" spans="1:6" ht="18" customHeight="1">
+    <row r="213" spans="1:6">
       <c r="A213" s="83"/>
-      <c r="B213" s="202" t="s">
-        <v>4465</v>
+      <c r="B213" s="200">
+        <v>41592</v>
       </c>
       <c r="C213" t="s">
-        <v>4466</v>
+        <v>4453</v>
       </c>
       <c r="D213" s="186"/>
       <c r="E213" s="186"/>
       <c r="F213" s="83"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="18" customHeight="1">
       <c r="A214" s="83"/>
-      <c r="B214" s="202" t="s">
-        <v>4484</v>
+      <c r="B214" s="200" t="s">
+        <v>4465</v>
       </c>
       <c r="C214" t="s">
-        <v>4485</v>
+        <v>4466</v>
       </c>
       <c r="D214" s="186"/>
       <c r="E214" s="186"/>
@@ -32891,35 +33315,37 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="83"/>
-      <c r="B215" s="202">
-        <v>32387</v>
+      <c r="B215" s="200" t="s">
+        <v>4484</v>
       </c>
       <c r="C215" t="s">
-        <v>5837</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>5860</v>
-      </c>
+        <v>4485</v>
+      </c>
+      <c r="D215" s="186"/>
       <c r="E215" s="186"/>
       <c r="F215" s="83"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="83"/>
-      <c r="B216" s="202" t="s">
-        <v>5826</v>
+      <c r="B216" s="200">
+        <v>32387</v>
       </c>
       <c r="C216" t="s">
-        <v>5213</v>
-      </c>
-      <c r="D216" s="186"/>
+        <v>5836</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>5858</v>
+      </c>
       <c r="E216" s="186"/>
       <c r="F216" s="83"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="83"/>
-      <c r="B217" s="202"/>
+      <c r="B217" s="200" t="s">
+        <v>5825</v>
+      </c>
       <c r="C217" t="s">
-        <v>1565</v>
+        <v>5213</v>
       </c>
       <c r="D217" s="186"/>
       <c r="E217" s="186"/>
@@ -32927,11 +33353,9 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="83"/>
-      <c r="B218" s="202">
-        <v>43990</v>
-      </c>
+      <c r="B218" s="200"/>
       <c r="C218" t="s">
-        <v>4317</v>
+        <v>1565</v>
       </c>
       <c r="D218" s="186"/>
       <c r="E218" s="186"/>
@@ -32939,51 +33363,51 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="83"/>
-      <c r="B219" s="202">
-        <v>59165</v>
+      <c r="B219" s="200">
+        <v>43990</v>
       </c>
       <c r="C219" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>1324</v>
-      </c>
+        <v>4317</v>
+      </c>
+      <c r="D219" s="186"/>
       <c r="E219" s="186"/>
       <c r="F219" s="83"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="83"/>
-      <c r="B220" s="202" t="s">
-        <v>676</v>
+      <c r="B220" s="200">
+        <v>59165</v>
       </c>
       <c r="C220" t="s">
-        <v>677</v>
+        <v>1325</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>675</v>
+        <v>1324</v>
       </c>
       <c r="E220" s="186"/>
       <c r="F220" s="83"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="83"/>
-      <c r="B221" s="202" t="s">
-        <v>4797</v>
+      <c r="B221" s="200" t="s">
+        <v>676</v>
       </c>
       <c r="C221" t="s">
-        <v>4796</v>
-      </c>
-      <c r="D221" s="186"/>
+        <v>677</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>675</v>
+      </c>
       <c r="E221" s="186"/>
       <c r="F221" s="83"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="83"/>
-      <c r="B222" s="202" t="s">
-        <v>4522</v>
+      <c r="B222" s="200" t="s">
+        <v>4797</v>
       </c>
       <c r="C222" t="s">
-        <v>4521</v>
+        <v>4796</v>
       </c>
       <c r="D222" s="186"/>
       <c r="E222" s="186"/>
@@ -32991,11 +33415,11 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="83"/>
-      <c r="B223" s="202" t="s">
-        <v>5676</v>
+      <c r="B223" s="200" t="s">
+        <v>4522</v>
       </c>
       <c r="C223" t="s">
-        <v>5675</v>
+        <v>4521</v>
       </c>
       <c r="D223" s="186"/>
       <c r="E223" s="186"/>
@@ -33003,11 +33427,11 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="83"/>
-      <c r="B224" s="202">
-        <v>25281</v>
+      <c r="B224" s="200" t="s">
+        <v>5675</v>
       </c>
       <c r="C224" t="s">
-        <v>4982</v>
+        <v>5674</v>
       </c>
       <c r="D224" s="186"/>
       <c r="E224" s="186"/>
@@ -33015,11 +33439,11 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="83"/>
-      <c r="B225" s="202">
-        <v>12066</v>
+      <c r="B225" s="200">
+        <v>25281</v>
       </c>
       <c r="C225" t="s">
-        <v>4440</v>
+        <v>4982</v>
       </c>
       <c r="D225" s="186"/>
       <c r="E225" s="186"/>
@@ -33027,11 +33451,11 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="83"/>
-      <c r="B226" s="202" t="s">
-        <v>5892</v>
+      <c r="B226" s="200">
+        <v>12066</v>
       </c>
       <c r="C226" t="s">
-        <v>5848</v>
+        <v>4440</v>
       </c>
       <c r="D226" s="186"/>
       <c r="E226" s="186"/>
@@ -33039,11 +33463,11 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="83"/>
-      <c r="B227" s="202">
-        <v>44674</v>
+      <c r="B227" s="200" t="s">
+        <v>5890</v>
       </c>
       <c r="C227" t="s">
-        <v>4315</v>
+        <v>5847</v>
       </c>
       <c r="D227" s="186"/>
       <c r="E227" s="186"/>
@@ -33051,11 +33475,11 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="83"/>
-      <c r="B228" s="202">
-        <v>34712</v>
+      <c r="B228" s="200">
+        <v>44674</v>
       </c>
       <c r="C228" t="s">
-        <v>4288</v>
+        <v>4315</v>
       </c>
       <c r="D228" s="186"/>
       <c r="E228" s="186"/>
@@ -33063,11 +33487,11 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="83"/>
-      <c r="B229" s="202">
-        <v>15305</v>
+      <c r="B229" s="200">
+        <v>34712</v>
       </c>
       <c r="C229" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D229" s="186"/>
       <c r="E229" s="186"/>
@@ -33075,11 +33499,11 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="83"/>
-      <c r="B230" s="202">
-        <v>63266</v>
+      <c r="B230" s="200">
+        <v>15305</v>
       </c>
       <c r="C230" t="s">
-        <v>4812</v>
+        <v>4289</v>
       </c>
       <c r="D230" s="186"/>
       <c r="E230" s="186"/>
@@ -33087,11 +33511,11 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="83"/>
-      <c r="B231" s="202" t="s">
-        <v>5231</v>
+      <c r="B231" s="200">
+        <v>63266</v>
       </c>
       <c r="C231" t="s">
-        <v>5230</v>
+        <v>4812</v>
       </c>
       <c r="D231" s="186"/>
       <c r="E231" s="186"/>
@@ -33099,51 +33523,51 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="83"/>
-      <c r="B232" s="202" t="s">
-        <v>487</v>
+      <c r="B232" s="200" t="s">
+        <v>5231</v>
       </c>
       <c r="C232" t="s">
-        <v>488</v>
+        <v>5230</v>
       </c>
       <c r="D232" s="186"/>
-      <c r="E232" s="186" t="s">
-        <v>489</v>
-      </c>
+      <c r="E232" s="186"/>
       <c r="F232" s="83"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="83"/>
-      <c r="B233" s="202" t="s">
-        <v>608</v>
+      <c r="B233" s="200" t="s">
+        <v>487</v>
       </c>
       <c r="C233" t="s">
-        <v>615</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="E233" s="186"/>
+        <v>488</v>
+      </c>
+      <c r="D233" s="186"/>
+      <c r="E233" s="186" t="s">
+        <v>489</v>
+      </c>
       <c r="F233" s="83"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="83"/>
-      <c r="B234" s="202" t="s">
-        <v>5441</v>
+      <c r="B234" s="200" t="s">
+        <v>608</v>
       </c>
       <c r="C234" t="s">
-        <v>5440</v>
-      </c>
-      <c r="D234" s="186"/>
+        <v>615</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>685</v>
+      </c>
       <c r="E234" s="186"/>
       <c r="F234" s="83"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="83"/>
-      <c r="B235" s="202">
-        <v>66774</v>
+      <c r="B235" s="200" t="s">
+        <v>5441</v>
       </c>
       <c r="C235" t="s">
-        <v>4803</v>
+        <v>5440</v>
       </c>
       <c r="D235" s="186"/>
       <c r="E235" s="186"/>
@@ -33151,11 +33575,11 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="83"/>
-      <c r="B236" s="202" t="s">
-        <v>5893</v>
+      <c r="B236" s="200">
+        <v>66774</v>
       </c>
       <c r="C236" t="s">
-        <v>5412</v>
+        <v>4803</v>
       </c>
       <c r="D236" s="186"/>
       <c r="E236" s="186"/>
@@ -33163,11 +33587,11 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="83"/>
-      <c r="B237" s="202" t="s">
-        <v>4445</v>
+      <c r="B237" s="200" t="s">
+        <v>5891</v>
       </c>
       <c r="C237" t="s">
-        <v>4446</v>
+        <v>5412</v>
       </c>
       <c r="D237" s="186"/>
       <c r="E237" s="186"/>
@@ -33175,37 +33599,37 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="83"/>
-      <c r="B238" s="202" t="s">
-        <v>5895</v>
+      <c r="B238" s="200" t="s">
+        <v>4445</v>
       </c>
       <c r="C238" t="s">
-        <v>4293</v>
-      </c>
-      <c r="D238" s="10" t="s">
-        <v>4294</v>
-      </c>
+        <v>4446</v>
+      </c>
+      <c r="D238" s="186"/>
       <c r="E238" s="186"/>
       <c r="F238" s="83"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="83"/>
-      <c r="B239" s="202">
-        <v>63208</v>
+      <c r="B239" s="200" t="s">
+        <v>5893</v>
       </c>
       <c r="C239" t="s">
-        <v>5738</v>
-      </c>
-      <c r="D239" s="186"/>
+        <v>4293</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>4294</v>
+      </c>
       <c r="E239" s="186"/>
       <c r="F239" s="83"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="83"/>
-      <c r="B240" s="202">
-        <v>90031</v>
+      <c r="B240" s="200">
+        <v>63208</v>
       </c>
       <c r="C240" t="s">
-        <v>4393</v>
+        <v>5737</v>
       </c>
       <c r="D240" s="186"/>
       <c r="E240" s="186"/>
@@ -33213,11 +33637,11 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="83"/>
-      <c r="B241" s="203" t="s">
-        <v>5824</v>
+      <c r="B241" s="200">
+        <v>90031</v>
       </c>
       <c r="C241" t="s">
-        <v>5681</v>
+        <v>4393</v>
       </c>
       <c r="D241" s="186"/>
       <c r="E241" s="186"/>
@@ -33225,11 +33649,11 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="83"/>
-      <c r="B242" s="202">
-        <v>54584</v>
+      <c r="B242" s="201" t="s">
+        <v>5823</v>
       </c>
       <c r="C242" t="s">
-        <v>5703</v>
+        <v>5680</v>
       </c>
       <c r="D242" s="186"/>
       <c r="E242" s="186"/>
@@ -33237,11 +33661,11 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="83"/>
-      <c r="B243" s="202" t="s">
-        <v>4443</v>
+      <c r="B243" s="200">
+        <v>54584</v>
       </c>
       <c r="C243" t="s">
-        <v>4444</v>
+        <v>5702</v>
       </c>
       <c r="D243" s="186"/>
       <c r="E243" s="186"/>
@@ -33249,48 +33673,48 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="83"/>
-      <c r="B244" s="202">
-        <v>52406</v>
+      <c r="B244" s="200" t="s">
+        <v>4443</v>
       </c>
       <c r="C244" t="s">
-        <v>1337</v>
+        <v>4444</v>
       </c>
       <c r="D244" s="186"/>
       <c r="E244" s="186"/>
       <c r="F244" s="83"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="B245" s="202">
-        <v>86835</v>
+      <c r="A245" s="83"/>
+      <c r="B245" s="200">
+        <v>52406</v>
       </c>
       <c r="C245" t="s">
-        <v>5821</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>5874</v>
-      </c>
+        <v>1337</v>
+      </c>
+      <c r="D245" s="186"/>
       <c r="E245" s="186"/>
       <c r="F245" s="83"/>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="83"/>
-      <c r="B246" s="202" t="s">
-        <v>5894</v>
+      <c r="B246" s="200">
+        <v>86835</v>
       </c>
       <c r="C246" t="s">
-        <v>5704</v>
-      </c>
-      <c r="D246" s="186"/>
+        <v>5820</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>5872</v>
+      </c>
       <c r="E246" s="186"/>
       <c r="F246" s="83"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="83"/>
-      <c r="B247" s="202">
-        <v>86928</v>
+      <c r="B247" s="200" t="s">
+        <v>5892</v>
       </c>
       <c r="C247" t="s">
-        <v>5847</v>
+        <v>5703</v>
       </c>
       <c r="D247" s="186"/>
       <c r="E247" s="186"/>
@@ -33298,11 +33722,11 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="83"/>
-      <c r="B248" s="202">
-        <v>9704</v>
+      <c r="B248" s="200">
+        <v>86928</v>
       </c>
       <c r="C248" t="s">
-        <v>4319</v>
+        <v>5846</v>
       </c>
       <c r="D248" s="186"/>
       <c r="E248" s="186"/>
@@ -33310,11 +33734,11 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="83"/>
-      <c r="B249" s="202">
-        <v>91643</v>
+      <c r="B249" s="200">
+        <v>9704</v>
       </c>
       <c r="C249" t="s">
-        <v>5421</v>
+        <v>4319</v>
       </c>
       <c r="D249" s="186"/>
       <c r="E249" s="186"/>
@@ -33322,11 +33746,11 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="83"/>
-      <c r="B250" s="202" t="s">
-        <v>5827</v>
+      <c r="B250" s="200">
+        <v>91643</v>
       </c>
       <c r="C250" t="s">
-        <v>4790</v>
+        <v>5421</v>
       </c>
       <c r="D250" s="186"/>
       <c r="E250" s="186"/>
@@ -33334,11 +33758,11 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="83"/>
-      <c r="B251" s="202" t="s">
-        <v>5818</v>
+      <c r="B251" s="200" t="s">
+        <v>5826</v>
       </c>
       <c r="C251" t="s">
-        <v>5819</v>
+        <v>4790</v>
       </c>
       <c r="D251" s="186"/>
       <c r="E251" s="186"/>
@@ -33346,11 +33770,11 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="83"/>
-      <c r="B252" s="202" t="s">
-        <v>4341</v>
+      <c r="B252" s="200" t="s">
+        <v>5817</v>
       </c>
       <c r="C252" t="s">
-        <v>4342</v>
+        <v>5818</v>
       </c>
       <c r="D252" s="186"/>
       <c r="E252" s="186"/>
@@ -33358,11 +33782,11 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="83"/>
-      <c r="B253" s="202" t="s">
-        <v>5896</v>
+      <c r="B253" s="200" t="s">
+        <v>4341</v>
       </c>
       <c r="C253" t="s">
-        <v>4813</v>
+        <v>4342</v>
       </c>
       <c r="D253" s="186"/>
       <c r="E253" s="186"/>
@@ -33370,11 +33794,11 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="83"/>
-      <c r="B254" s="202" t="s">
-        <v>5740</v>
+      <c r="B254" s="200" t="s">
+        <v>5894</v>
       </c>
       <c r="C254" t="s">
-        <v>5739</v>
+        <v>4813</v>
       </c>
       <c r="D254" s="186"/>
       <c r="E254" s="186"/>
@@ -33382,11 +33806,11 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="83"/>
-      <c r="B255" s="202">
-        <v>78359</v>
+      <c r="B255" s="200" t="s">
+        <v>5739</v>
       </c>
       <c r="C255" t="s">
-        <v>4775</v>
+        <v>5738</v>
       </c>
       <c r="D255" s="186"/>
       <c r="E255" s="186"/>
@@ -33394,11 +33818,11 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="83"/>
-      <c r="B256" s="202">
-        <v>28818</v>
+      <c r="B256" s="200">
+        <v>78359</v>
       </c>
       <c r="C256" t="s">
-        <v>5734</v>
+        <v>4775</v>
       </c>
       <c r="D256" s="186"/>
       <c r="E256" s="186"/>
@@ -33406,37 +33830,37 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="83"/>
-      <c r="B257" s="202" t="s">
-        <v>501</v>
+      <c r="B257" s="200">
+        <v>28818</v>
       </c>
       <c r="C257" t="s">
-        <v>500</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>4298</v>
-      </c>
+        <v>5733</v>
+      </c>
+      <c r="D257" s="186"/>
       <c r="E257" s="186"/>
       <c r="F257" s="83"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="83"/>
-      <c r="B258" s="202">
-        <v>80756</v>
+      <c r="B258" s="200" t="s">
+        <v>501</v>
       </c>
       <c r="C258" t="s">
-        <v>5361</v>
-      </c>
-      <c r="D258" s="186"/>
+        <v>500</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>4298</v>
+      </c>
       <c r="E258" s="186"/>
       <c r="F258" s="83"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="83"/>
-      <c r="B259" s="202">
-        <v>66144</v>
+      <c r="B259" s="200">
+        <v>80756</v>
       </c>
       <c r="C259" t="s">
-        <v>4483</v>
+        <v>5361</v>
       </c>
       <c r="D259" s="186"/>
       <c r="E259" s="186"/>
@@ -33444,11 +33868,11 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="83"/>
-      <c r="B260" s="202" t="s">
-        <v>4404</v>
+      <c r="B260" s="200">
+        <v>66144</v>
       </c>
       <c r="C260" t="s">
-        <v>5845</v>
+        <v>4483</v>
       </c>
       <c r="D260" s="186"/>
       <c r="E260" s="186"/>
@@ -33456,11 +33880,11 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="83"/>
-      <c r="B261" s="202">
-        <v>98376</v>
+      <c r="B261" s="200" t="s">
+        <v>4404</v>
       </c>
       <c r="C261" t="s">
-        <v>4376</v>
+        <v>5844</v>
       </c>
       <c r="D261" s="186"/>
       <c r="E261" s="186"/>
@@ -33468,11 +33892,11 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="83"/>
-      <c r="B262" s="202" t="s">
-        <v>4799</v>
+      <c r="B262" s="200">
+        <v>98376</v>
       </c>
       <c r="C262" t="s">
-        <v>4798</v>
+        <v>4376</v>
       </c>
       <c r="D262" s="186"/>
       <c r="E262" s="186"/>
@@ -33480,11 +33904,11 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="83"/>
-      <c r="B263" s="202">
-        <v>15939</v>
+      <c r="B263" s="200" t="s">
+        <v>4799</v>
       </c>
       <c r="C263" t="s">
-        <v>4719</v>
+        <v>4798</v>
       </c>
       <c r="D263" s="186"/>
       <c r="E263" s="186"/>
@@ -33492,11 +33916,11 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="83"/>
-      <c r="B264" s="202" t="s">
-        <v>4634</v>
+      <c r="B264" s="200">
+        <v>15939</v>
       </c>
       <c r="C264" t="s">
-        <v>4633</v>
+        <v>4719</v>
       </c>
       <c r="D264" s="186"/>
       <c r="E264" s="186"/>
@@ -33504,63 +33928,63 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="83"/>
-      <c r="B265" s="202" t="s">
-        <v>4299</v>
+      <c r="B265" s="200" t="s">
+        <v>4634</v>
       </c>
       <c r="C265" t="s">
-        <v>4300</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>4301</v>
-      </c>
+        <v>4633</v>
+      </c>
+      <c r="D265" s="186"/>
       <c r="E265" s="186"/>
       <c r="F265" s="83"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="83"/>
-      <c r="B266" s="202" t="s">
-        <v>4815</v>
+      <c r="B266" s="200" t="s">
+        <v>4299</v>
       </c>
       <c r="C266" t="s">
-        <v>4814</v>
-      </c>
-      <c r="D266" s="186"/>
+        <v>4300</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>4301</v>
+      </c>
       <c r="E266" s="186"/>
       <c r="F266" s="83"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="83"/>
-      <c r="B267" s="202" t="s">
-        <v>4302</v>
+      <c r="B267" s="200" t="s">
+        <v>4815</v>
       </c>
       <c r="C267" t="s">
-        <v>4303</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>5875</v>
-      </c>
+        <v>4814</v>
+      </c>
+      <c r="D267" s="186"/>
       <c r="E267" s="186"/>
       <c r="F267" s="83"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="83"/>
-      <c r="B268" s="202">
-        <v>59529</v>
+      <c r="B268" s="200" t="s">
+        <v>4302</v>
       </c>
       <c r="C268" t="s">
-        <v>4802</v>
-      </c>
-      <c r="D268" s="186"/>
+        <v>4303</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>5873</v>
+      </c>
       <c r="E268" s="186"/>
       <c r="F268" s="83"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="83"/>
-      <c r="B269" s="202" t="s">
-        <v>4389</v>
+      <c r="B269" s="200">
+        <v>59529</v>
       </c>
       <c r="C269" t="s">
-        <v>4390</v>
+        <v>4802</v>
       </c>
       <c r="D269" s="186"/>
       <c r="E269" s="186"/>
@@ -33568,11 +33992,11 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="83"/>
-      <c r="B270" s="202">
-        <v>29019</v>
+      <c r="B270" s="200" t="s">
+        <v>4389</v>
       </c>
       <c r="C270" t="s">
-        <v>4439</v>
+        <v>4390</v>
       </c>
       <c r="D270" s="186"/>
       <c r="E270" s="186"/>
@@ -33580,11 +34004,11 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="83"/>
-      <c r="B271" s="202" t="s">
-        <v>5844</v>
+      <c r="B271" s="200">
+        <v>29019</v>
       </c>
       <c r="C271" t="s">
-        <v>4398</v>
+        <v>4439</v>
       </c>
       <c r="D271" s="186"/>
       <c r="E271" s="186"/>
@@ -33592,61 +34016,61 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="83"/>
-      <c r="B272" s="202">
-        <v>33476</v>
+      <c r="B272" s="200" t="s">
+        <v>5843</v>
       </c>
       <c r="C272" t="s">
-        <v>4460</v>
+        <v>4398</v>
       </c>
       <c r="D272" s="186"/>
       <c r="E272" s="186"/>
       <c r="F272" s="83"/>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1">
+    <row r="273" spans="1:6">
       <c r="A273" s="83"/>
-      <c r="B273" s="202" t="s">
-        <v>1204</v>
+      <c r="B273" s="200">
+        <v>33476</v>
       </c>
       <c r="C273" t="s">
-        <v>1203</v>
+        <v>4460</v>
       </c>
       <c r="D273" s="186"/>
       <c r="E273" s="186"/>
       <c r="F273" s="83"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1">
       <c r="A274" s="83"/>
-      <c r="B274" s="202">
-        <v>64023</v>
+      <c r="B274" s="200" t="s">
+        <v>1204</v>
       </c>
       <c r="C274" t="s">
-        <v>4346</v>
-      </c>
-      <c r="D274" s="10" t="s">
-        <v>4347</v>
-      </c>
+        <v>1203</v>
+      </c>
+      <c r="D274" s="186"/>
       <c r="E274" s="186"/>
       <c r="F274" s="83"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="83"/>
-      <c r="B275" s="202" t="s">
-        <v>374</v>
+      <c r="B275" s="200">
+        <v>64023</v>
       </c>
       <c r="C275" t="s">
-        <v>375</v>
-      </c>
-      <c r="D275" s="186"/>
+        <v>4346</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>4347</v>
+      </c>
       <c r="E275" s="186"/>
       <c r="F275" s="83"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="83"/>
-      <c r="B276" s="202">
-        <v>64413</v>
+      <c r="B276" s="200" t="s">
+        <v>374</v>
       </c>
       <c r="C276" t="s">
-        <v>4410</v>
+        <v>375</v>
       </c>
       <c r="D276" s="186"/>
       <c r="E276" s="186"/>
@@ -33654,11 +34078,11 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="83"/>
-      <c r="B277" s="202" t="s">
-        <v>376</v>
+      <c r="B277" s="200">
+        <v>64413</v>
       </c>
       <c r="C277" t="s">
-        <v>4324</v>
+        <v>4410</v>
       </c>
       <c r="D277" s="186"/>
       <c r="E277" s="186"/>
@@ -33666,37 +34090,37 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="83"/>
-      <c r="B278" s="202" t="s">
-        <v>5838</v>
+      <c r="B278" s="200" t="s">
+        <v>376</v>
       </c>
       <c r="C278" t="s">
-        <v>988</v>
-      </c>
-      <c r="D278" s="10" t="s">
-        <v>1025</v>
-      </c>
+        <v>4324</v>
+      </c>
+      <c r="D278" s="186"/>
       <c r="E278" s="186"/>
       <c r="F278" s="83"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="83"/>
-      <c r="B279" s="202">
-        <v>82689</v>
+      <c r="B279" s="200" t="s">
+        <v>5837</v>
       </c>
       <c r="C279" t="s">
-        <v>5420</v>
-      </c>
-      <c r="D279" s="186"/>
+        <v>988</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>1025</v>
+      </c>
       <c r="E279" s="186"/>
       <c r="F279" s="83"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="83"/>
-      <c r="B280" s="202">
-        <v>82402</v>
+      <c r="B280" s="200">
+        <v>82689</v>
       </c>
       <c r="C280" t="s">
-        <v>4464</v>
+        <v>5420</v>
       </c>
       <c r="D280" s="186"/>
       <c r="E280" s="186"/>
@@ -33704,11 +34128,11 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="83"/>
-      <c r="B281" s="202" t="s">
-        <v>1140</v>
+      <c r="B281" s="200">
+        <v>82402</v>
       </c>
       <c r="C281" t="s">
-        <v>1139</v>
+        <v>4464</v>
       </c>
       <c r="D281" s="186"/>
       <c r="E281" s="186"/>
@@ -33716,11 +34140,11 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="83"/>
-      <c r="B282" s="202" t="s">
-        <v>4447</v>
+      <c r="B282" s="200" t="s">
+        <v>1140</v>
       </c>
       <c r="C282" t="s">
-        <v>4795</v>
+        <v>1139</v>
       </c>
       <c r="D282" s="186"/>
       <c r="E282" s="186"/>
@@ -33728,11 +34152,11 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="83"/>
-      <c r="B283" s="202">
-        <v>48104</v>
+      <c r="B283" s="200" t="s">
+        <v>4447</v>
       </c>
       <c r="C283" t="s">
-        <v>4450</v>
+        <v>4795</v>
       </c>
       <c r="D283" s="186"/>
       <c r="E283" s="186"/>
@@ -33740,37 +34164,37 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="83"/>
-      <c r="B284" s="202" t="s">
-        <v>5897</v>
+      <c r="B284" s="200">
+        <v>48104</v>
       </c>
       <c r="C284" t="s">
-        <v>4438</v>
-      </c>
-      <c r="D284" s="10" t="s">
-        <v>5816</v>
-      </c>
+        <v>4450</v>
+      </c>
+      <c r="D284" s="186"/>
       <c r="E284" s="186"/>
       <c r="F284" s="83"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="83"/>
-      <c r="B285" s="202" t="s">
-        <v>5840</v>
+      <c r="B285" s="200" t="s">
+        <v>5895</v>
       </c>
       <c r="C285" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D285" s="186"/>
+        <v>4438</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>5815</v>
+      </c>
       <c r="E285" s="186"/>
       <c r="F285" s="83"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="83"/>
-      <c r="B286" s="202" t="s">
-        <v>5430</v>
+      <c r="B286" s="200" t="s">
+        <v>5839</v>
       </c>
       <c r="C286" t="s">
-        <v>5429</v>
+        <v>1370</v>
       </c>
       <c r="D286" s="186"/>
       <c r="E286" s="186"/>
@@ -33778,11 +34202,11 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="83"/>
-      <c r="B287" s="202" t="s">
-        <v>5733</v>
+      <c r="B287" s="200" t="s">
+        <v>5430</v>
       </c>
       <c r="C287" t="s">
-        <v>5732</v>
+        <v>5429</v>
       </c>
       <c r="D287" s="186"/>
       <c r="E287" s="186"/>
@@ -33790,11 +34214,11 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="83"/>
-      <c r="B288" s="202">
-        <v>25714</v>
+      <c r="B288" s="200" t="s">
+        <v>5732</v>
       </c>
       <c r="C288" t="s">
-        <v>4457</v>
+        <v>5731</v>
       </c>
       <c r="D288" s="186"/>
       <c r="E288" s="186"/>
@@ -33802,7 +34226,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="83"/>
-      <c r="B289" s="202">
+      <c r="B289" s="200">
         <v>25714</v>
       </c>
       <c r="C289" t="s">
@@ -33814,37 +34238,37 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="83"/>
-      <c r="B290" s="202" t="s">
-        <v>4304</v>
+      <c r="B290" s="200">
+        <v>25714</v>
       </c>
       <c r="C290" t="s">
-        <v>4305</v>
-      </c>
-      <c r="D290" s="10" t="s">
-        <v>5876</v>
-      </c>
+        <v>4457</v>
+      </c>
+      <c r="D290" s="186"/>
       <c r="E290" s="186"/>
       <c r="F290" s="83"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="83"/>
-      <c r="B291" s="202" t="s">
-        <v>5843</v>
+      <c r="B291" s="200" t="s">
+        <v>4304</v>
       </c>
       <c r="C291" t="s">
-        <v>4392</v>
-      </c>
-      <c r="D291" s="186"/>
+        <v>4305</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>5874</v>
+      </c>
       <c r="E291" s="186"/>
       <c r="F291" s="83"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="83"/>
-      <c r="B292" s="202" t="s">
-        <v>5417</v>
+      <c r="B292" s="200" t="s">
+        <v>5842</v>
       </c>
       <c r="C292" t="s">
-        <v>5416</v>
+        <v>4392</v>
       </c>
       <c r="D292" s="186"/>
       <c r="E292" s="186"/>
@@ -33852,11 +34276,11 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="83"/>
-      <c r="B293" s="202" t="s">
-        <v>4407</v>
+      <c r="B293" s="200" t="s">
+        <v>5417</v>
       </c>
       <c r="C293" t="s">
-        <v>4408</v>
+        <v>5416</v>
       </c>
       <c r="D293" s="186"/>
       <c r="E293" s="186"/>
@@ -33864,11 +34288,11 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="83"/>
-      <c r="B294" s="202" t="s">
-        <v>4306</v>
+      <c r="B294" s="200" t="s">
+        <v>4407</v>
       </c>
       <c r="C294" t="s">
-        <v>4307</v>
+        <v>4408</v>
       </c>
       <c r="D294" s="186"/>
       <c r="E294" s="186"/>
@@ -33876,37 +34300,37 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="83"/>
-      <c r="B295" s="202" t="s">
-        <v>5841</v>
+      <c r="B295" s="200" t="s">
+        <v>4306</v>
       </c>
       <c r="C295" t="s">
-        <v>4308</v>
-      </c>
-      <c r="D295" s="10" t="s">
-        <v>5877</v>
-      </c>
+        <v>4307</v>
+      </c>
+      <c r="D295" s="186"/>
       <c r="E295" s="186"/>
       <c r="F295" s="83"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="83"/>
-      <c r="B296" s="202">
-        <v>71670</v>
+      <c r="B296" s="200" t="s">
+        <v>5840</v>
       </c>
       <c r="C296" t="s">
-        <v>4791</v>
-      </c>
-      <c r="D296" s="186"/>
+        <v>4308</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>5875</v>
+      </c>
       <c r="E296" s="186"/>
       <c r="F296" s="83"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="83"/>
-      <c r="B297" s="202" t="s">
-        <v>4806</v>
+      <c r="B297" s="200">
+        <v>71670</v>
       </c>
       <c r="C297" t="s">
-        <v>4805</v>
+        <v>4791</v>
       </c>
       <c r="D297" s="186"/>
       <c r="E297" s="186"/>
@@ -33914,11 +34338,11 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="83"/>
-      <c r="B298" s="202" t="s">
-        <v>5852</v>
+      <c r="B298" s="200" t="s">
+        <v>4806</v>
       </c>
       <c r="C298" t="s">
-        <v>4388</v>
+        <v>4805</v>
       </c>
       <c r="D298" s="186"/>
       <c r="E298" s="186"/>
@@ -33926,11 +34350,11 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="83"/>
-      <c r="B299" s="202" t="s">
-        <v>4384</v>
+      <c r="B299" s="200" t="s">
+        <v>5850</v>
       </c>
       <c r="C299" t="s">
-        <v>4385</v>
+        <v>4388</v>
       </c>
       <c r="D299" s="186"/>
       <c r="E299" s="186"/>
@@ -33938,11 +34362,11 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="83"/>
-      <c r="B300" s="202" t="s">
-        <v>4801</v>
+      <c r="B300" s="200" t="s">
+        <v>4384</v>
       </c>
       <c r="C300" t="s">
-        <v>4800</v>
+        <v>4385</v>
       </c>
       <c r="D300" s="186"/>
       <c r="E300" s="186"/>
@@ -33950,11 +34374,11 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="83"/>
-      <c r="B301" s="202" t="s">
-        <v>1216</v>
+      <c r="B301" s="200" t="s">
+        <v>4801</v>
       </c>
       <c r="C301" t="s">
-        <v>1215</v>
+        <v>4800</v>
       </c>
       <c r="D301" s="186"/>
       <c r="E301" s="186"/>
@@ -33962,105 +34386,113 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="83"/>
-      <c r="B302" s="202">
-        <v>13675</v>
+      <c r="B302" s="200" t="s">
+        <v>1216</v>
       </c>
       <c r="C302" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D302" s="10" t="s">
-        <v>1179</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="D302" s="186"/>
       <c r="E302" s="186"/>
       <c r="F302" s="83"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="83"/>
-      <c r="B303" s="202" t="s">
-        <v>5898</v>
+      <c r="B303" s="200">
+        <v>13675</v>
       </c>
       <c r="C303" t="s">
-        <v>829</v>
+        <v>1336</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>1430</v>
+        <v>1179</v>
       </c>
       <c r="E303" s="186"/>
       <c r="F303" s="83"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="83"/>
-      <c r="B304" s="202">
-        <v>98991</v>
+      <c r="B304" s="200" t="s">
+        <v>5896</v>
       </c>
       <c r="C304" t="s">
-        <v>4486</v>
-      </c>
-      <c r="D304" s="186"/>
+        <v>829</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>1430</v>
+      </c>
       <c r="E304" s="186"/>
       <c r="F304" s="83"/>
     </row>
-    <row r="305" spans="5:6">
+    <row r="305" spans="1:6">
+      <c r="A305" s="83"/>
+      <c r="B305" s="200">
+        <v>98991</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D305" s="186"/>
       <c r="E305" s="186"/>
       <c r="F305" s="83"/>
     </row>
-    <row r="306" spans="5:6">
+    <row r="306" spans="1:6">
       <c r="E306" s="186"/>
       <c r="F306" s="83"/>
     </row>
-    <row r="307" spans="5:6">
+    <row r="307" spans="1:6">
       <c r="E307" s="186"/>
       <c r="F307" s="83"/>
     </row>
-    <row r="308" spans="5:6">
+    <row r="308" spans="1:6">
       <c r="E308" s="186"/>
       <c r="F308" s="83"/>
     </row>
-    <row r="309" spans="5:6">
+    <row r="309" spans="1:6">
       <c r="E309" s="186"/>
       <c r="F309" s="83"/>
     </row>
-    <row r="310" spans="5:6">
+    <row r="310" spans="1:6">
       <c r="E310" s="186"/>
       <c r="F310" s="83"/>
     </row>
-    <row r="311" spans="5:6">
+    <row r="311" spans="1:6">
       <c r="E311" s="186"/>
       <c r="F311" s="83"/>
     </row>
-    <row r="312" spans="5:6">
+    <row r="312" spans="1:6">
       <c r="E312" s="186"/>
       <c r="F312" s="83"/>
     </row>
-    <row r="313" spans="5:6">
+    <row r="313" spans="1:6">
       <c r="E313" s="186"/>
       <c r="F313" s="83"/>
     </row>
-    <row r="314" spans="5:6">
+    <row r="314" spans="1:6">
       <c r="E314" s="186"/>
       <c r="F314" s="83"/>
     </row>
-    <row r="315" spans="5:6">
+    <row r="315" spans="1:6">
       <c r="E315" s="186"/>
       <c r="F315" s="83"/>
     </row>
-    <row r="316" spans="5:6">
+    <row r="316" spans="1:6">
       <c r="E316" s="186"/>
       <c r="F316" s="83"/>
     </row>
-    <row r="317" spans="5:6">
+    <row r="317" spans="1:6">
       <c r="E317" s="186"/>
       <c r="F317" s="83"/>
     </row>
-    <row r="318" spans="5:6">
+    <row r="318" spans="1:6">
       <c r="E318" s="186"/>
       <c r="F318" s="83"/>
     </row>
-    <row r="319" spans="5:6">
+    <row r="319" spans="1:6">
       <c r="E319" s="186"/>
       <c r="F319" s="83"/>
     </row>
-    <row r="320" spans="5:6">
+    <row r="320" spans="1:6">
       <c r="E320" s="186"/>
       <c r="F320" s="83"/>
     </row>
@@ -34105,6 +34537,7 @@
       <c r="F330" s="83"/>
     </row>
     <row r="331" spans="5:6">
+      <c r="E331" s="186"/>
       <c r="F331" s="83"/>
     </row>
     <row r="332" spans="5:6">
@@ -34113,138 +34546,141 @@
     <row r="333" spans="5:6">
       <c r="F333" s="83"/>
     </row>
+    <row r="334" spans="5:6">
+      <c r="F334" s="83"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F304">
-    <sortCondition sortBy="cellColor" ref="A1:A304" dxfId="0"/>
-    <sortCondition ref="C1:C304"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J305">
+    <sortCondition sortBy="cellColor" ref="A2:A305" dxfId="0"/>
+    <sortCondition ref="C2:C305"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D52" r:id="rId1" xr:uid="{D6D1482E-2674-4021-B1CC-E9A7FCE93A02}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{9C256B90-1C52-4139-B2B3-D1809D6BA101}"/>
-    <hyperlink ref="D91" r:id="rId3" xr:uid="{9A5CD273-688F-48BC-A3ED-5CBADD8C7E8C}"/>
-    <hyperlink ref="D174" r:id="rId4" xr:uid="{3FADC0C7-98AC-443D-9DE6-1549E31DE313}"/>
-    <hyperlink ref="D57" r:id="rId5" xr:uid="{AF968B3E-F08B-4057-A536-E70E451A0C6F}"/>
-    <hyperlink ref="D45" r:id="rId6" xr:uid="{741F1CEC-23EA-4397-90A6-C61B2A7D2625}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{9A23042A-5F39-4EFF-870F-DC7F76927728}"/>
-    <hyperlink ref="D42" r:id="rId8" xr:uid="{7BF1E875-CF69-4065-B702-289A7A99D1C0}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{74F8AA62-4705-409C-A066-E063920F3E19}"/>
-    <hyperlink ref="D49" r:id="rId10" xr:uid="{537DF7E5-04E1-4361-AAFF-CE6CAADDFF62}"/>
+    <hyperlink ref="D49" r:id="rId1" xr:uid="{D6D1482E-2674-4021-B1CC-E9A7FCE93A02}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{9C256B90-1C52-4139-B2B3-D1809D6BA101}"/>
+    <hyperlink ref="D88" r:id="rId3" xr:uid="{9A5CD273-688F-48BC-A3ED-5CBADD8C7E8C}"/>
+    <hyperlink ref="D175" r:id="rId4" xr:uid="{3FADC0C7-98AC-443D-9DE6-1549E31DE313}"/>
+    <hyperlink ref="D54" r:id="rId5" xr:uid="{AF968B3E-F08B-4057-A536-E70E451A0C6F}"/>
+    <hyperlink ref="D42" r:id="rId6" xr:uid="{741F1CEC-23EA-4397-90A6-C61B2A7D2625}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{9A23042A-5F39-4EFF-870F-DC7F76927728}"/>
+    <hyperlink ref="D39" r:id="rId8" xr:uid="{7BF1E875-CF69-4065-B702-289A7A99D1C0}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{74F8AA62-4705-409C-A066-E063920F3E19}"/>
+    <hyperlink ref="D46" r:id="rId10" xr:uid="{537DF7E5-04E1-4361-AAFF-CE6CAADDFF62}"/>
     <hyperlink ref="D112" r:id="rId11" xr:uid="{63A6793B-01CE-420A-BACB-AD8B058B5E6B}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{67B8D250-60DC-4646-A3FF-2DDF3BB45933}"/>
-    <hyperlink ref="D136" r:id="rId13" xr:uid="{54F0AECF-8A6D-4491-9436-1D64AB8F38E4}"/>
-    <hyperlink ref="D130" r:id="rId14" xr:uid="{E0B1366A-689A-47CC-94D7-11D1E314EFF4}"/>
-    <hyperlink ref="D55" r:id="rId15" xr:uid="{78430598-6413-4CF0-93E5-0F919EFEEEBE}"/>
-    <hyperlink ref="D220" r:id="rId16" xr:uid="{9377AA9C-B6A3-4FAE-A30C-9E433F7896F6}"/>
-    <hyperlink ref="D64" r:id="rId17" xr:uid="{1D27EC81-68EC-427A-8F89-21E2716C5A38}"/>
-    <hyperlink ref="D233" r:id="rId18" xr:uid="{84FC96C3-E30F-4F5E-9805-9A1A19254462}"/>
+    <hyperlink ref="D34" r:id="rId12" xr:uid="{67B8D250-60DC-4646-A3FF-2DDF3BB45933}"/>
+    <hyperlink ref="D137" r:id="rId13" xr:uid="{54F0AECF-8A6D-4491-9436-1D64AB8F38E4}"/>
+    <hyperlink ref="D131" r:id="rId14" xr:uid="{E0B1366A-689A-47CC-94D7-11D1E314EFF4}"/>
+    <hyperlink ref="D52" r:id="rId15" xr:uid="{78430598-6413-4CF0-93E5-0F919EFEEEBE}"/>
+    <hyperlink ref="D221" r:id="rId16" xr:uid="{9377AA9C-B6A3-4FAE-A30C-9E433F7896F6}"/>
+    <hyperlink ref="D61" r:id="rId17" xr:uid="{1D27EC81-68EC-427A-8F89-21E2716C5A38}"/>
+    <hyperlink ref="D234" r:id="rId18" xr:uid="{84FC96C3-E30F-4F5E-9805-9A1A19254462}"/>
     <hyperlink ref="D99" r:id="rId19" xr:uid="{0FC04113-26E9-427B-ABC3-E416EF5C385D}"/>
-    <hyperlink ref="D2" r:id="rId20" xr:uid="{B1E4D823-8C34-4275-9510-7F896C13E403}"/>
-    <hyperlink ref="D133" r:id="rId21" xr:uid="{97432713-A838-4419-BBC2-868362AAC7A6}"/>
-    <hyperlink ref="D151" r:id="rId22" xr:uid="{1CF35886-7310-4F6C-887E-B1FCAAD8E5C2}"/>
-    <hyperlink ref="D188" r:id="rId23" xr:uid="{157E6B53-58AE-4027-8807-88C0CC963592}"/>
+    <hyperlink ref="D3" r:id="rId20" xr:uid="{B1E4D823-8C34-4275-9510-7F896C13E403}"/>
+    <hyperlink ref="D134" r:id="rId21" xr:uid="{97432713-A838-4419-BBC2-868362AAC7A6}"/>
+    <hyperlink ref="D152" r:id="rId22" xr:uid="{1CF35886-7310-4F6C-887E-B1FCAAD8E5C2}"/>
+    <hyperlink ref="D189" r:id="rId23" xr:uid="{157E6B53-58AE-4027-8807-88C0CC963592}"/>
     <hyperlink ref="D97" r:id="rId24" xr:uid="{330299D5-3C97-40D2-BD76-3827AB11A73D}"/>
-    <hyperlink ref="D47" r:id="rId25" xr:uid="{D9EF7077-3A8B-4CAA-BADA-A7F73EBB0140}"/>
-    <hyperlink ref="D278" r:id="rId26" xr:uid="{58903167-E9C0-4F38-A6D7-FE3C404271BC}"/>
-    <hyperlink ref="D58" r:id="rId27" xr:uid="{029845E2-E1C0-4C63-8FA0-2DBFEF95ED30}"/>
-    <hyperlink ref="D143" r:id="rId28" xr:uid="{3D0E8CB6-936C-4B40-B57D-D46CD2977C24}"/>
-    <hyperlink ref="D89" r:id="rId29" xr:uid="{779929D3-3B63-46D7-9E11-CF81DD927750}"/>
-    <hyperlink ref="D118" r:id="rId30" xr:uid="{022359AF-C474-47CB-AAE3-96721CC96C34}"/>
-    <hyperlink ref="D144" r:id="rId31" xr:uid="{0E259F4D-24FC-4164-A00A-5EC6BF392446}"/>
-    <hyperlink ref="D56" r:id="rId32" xr:uid="{220331FC-994F-40D0-8EC9-15530973C7D0}"/>
-    <hyperlink ref="D302" r:id="rId33" xr:uid="{7EFBD9CF-FBE0-44B3-9704-499AD8D9AD1C}"/>
-    <hyperlink ref="D257" r:id="rId34" xr:uid="{1F2CDA33-4BBF-4A4A-BDB4-EBF90A7B1419}"/>
-    <hyperlink ref="D117" r:id="rId35" xr:uid="{36713F80-85ED-415A-8391-C511BC9EA822}"/>
-    <hyperlink ref="D44" r:id="rId36" xr:uid="{D718E980-09C9-4B00-9B86-814B93C0B173}"/>
-    <hyperlink ref="D3" r:id="rId37" xr:uid="{E5FBA7FE-FD79-4BCD-89DF-644657C53DF3}"/>
-    <hyperlink ref="D238" r:id="rId38" xr:uid="{4FFF70CD-E775-4A4C-B9BC-EDB97028AF44}"/>
-    <hyperlink ref="D53" r:id="rId39" xr:uid="{A6D9F3E7-A05A-48BC-8623-992FC9F1F232}"/>
-    <hyperlink ref="D168" r:id="rId40" xr:uid="{7523B30E-508D-4AE6-A9B3-08F042EE2E34}"/>
-    <hyperlink ref="D149" r:id="rId41" xr:uid="{B165C4A3-6223-4B65-9CAB-88DB93A14A13}"/>
-    <hyperlink ref="D208" r:id="rId42" xr:uid="{DA999416-B05E-4623-A318-BF7376588D74}"/>
-    <hyperlink ref="D303" r:id="rId43" xr:uid="{776DA69C-9BE9-46D3-B8F1-0E3867570EA4}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{D9EF7077-3A8B-4CAA-BADA-A7F73EBB0140}"/>
+    <hyperlink ref="D279" r:id="rId26" xr:uid="{58903167-E9C0-4F38-A6D7-FE3C404271BC}"/>
+    <hyperlink ref="D55" r:id="rId27" xr:uid="{029845E2-E1C0-4C63-8FA0-2DBFEF95ED30}"/>
+    <hyperlink ref="D144" r:id="rId28" xr:uid="{3D0E8CB6-936C-4B40-B57D-D46CD2977C24}"/>
+    <hyperlink ref="D86" r:id="rId29" xr:uid="{779929D3-3B63-46D7-9E11-CF81DD927750}"/>
+    <hyperlink ref="D119" r:id="rId30" xr:uid="{022359AF-C474-47CB-AAE3-96721CC96C34}"/>
+    <hyperlink ref="D145" r:id="rId31" xr:uid="{0E259F4D-24FC-4164-A00A-5EC6BF392446}"/>
+    <hyperlink ref="D53" r:id="rId32" xr:uid="{220331FC-994F-40D0-8EC9-15530973C7D0}"/>
+    <hyperlink ref="D303" r:id="rId33" xr:uid="{7EFBD9CF-FBE0-44B3-9704-499AD8D9AD1C}"/>
+    <hyperlink ref="D258" r:id="rId34" xr:uid="{1F2CDA33-4BBF-4A4A-BDB4-EBF90A7B1419}"/>
+    <hyperlink ref="D118" r:id="rId35" xr:uid="{36713F80-85ED-415A-8391-C511BC9EA822}"/>
+    <hyperlink ref="D41" r:id="rId36" xr:uid="{D718E980-09C9-4B00-9B86-814B93C0B173}"/>
+    <hyperlink ref="D90" r:id="rId37" xr:uid="{E5FBA7FE-FD79-4BCD-89DF-644657C53DF3}"/>
+    <hyperlink ref="D239" r:id="rId38" xr:uid="{4FFF70CD-E775-4A4C-B9BC-EDB97028AF44}"/>
+    <hyperlink ref="D50" r:id="rId39" xr:uid="{A6D9F3E7-A05A-48BC-8623-992FC9F1F232}"/>
+    <hyperlink ref="D169" r:id="rId40" xr:uid="{7523B30E-508D-4AE6-A9B3-08F042EE2E34}"/>
+    <hyperlink ref="D150" r:id="rId41" xr:uid="{B165C4A3-6223-4B65-9CAB-88DB93A14A13}"/>
+    <hyperlink ref="D209" r:id="rId42" xr:uid="{DA999416-B05E-4623-A318-BF7376588D74}"/>
+    <hyperlink ref="D304" r:id="rId43" xr:uid="{776DA69C-9BE9-46D3-B8F1-0E3867570EA4}"/>
     <hyperlink ref="D110" r:id="rId44" xr:uid="{E887F915-BEA4-4A86-B0D2-F533BCE8589A}"/>
-    <hyperlink ref="D79" r:id="rId45" xr:uid="{1E97A2D1-C3D2-4EE5-9036-98348304A2A4}"/>
-    <hyperlink ref="D159" r:id="rId46" xr:uid="{AF449DFE-949F-4719-8292-1B1E1C780C7A}"/>
-    <hyperlink ref="D209" r:id="rId47" xr:uid="{FED4BD37-C851-43BD-9065-12749B4155BB}"/>
-    <hyperlink ref="D23" r:id="rId48" xr:uid="{64A35734-1C1A-4520-B8B5-A0A542723F1C}"/>
-    <hyperlink ref="D265" r:id="rId49" xr:uid="{47D02EFB-8B57-460C-9C33-6E4EFDCABDA7}"/>
-    <hyperlink ref="D27" r:id="rId50" xr:uid="{5483BAE4-47A4-4D12-B981-0C87B9F5A8BD}"/>
-    <hyperlink ref="D25" r:id="rId51" xr:uid="{5CB478B8-C2EB-4479-B213-11B3C96F8F0F}"/>
-    <hyperlink ref="D155" r:id="rId52" xr:uid="{37A54FDB-7ED1-4F2B-A835-77ABBA9AA484}"/>
-    <hyperlink ref="D202" r:id="rId53" xr:uid="{3F5F1267-4CB2-4DF4-BB87-E90F200A756C}"/>
-    <hyperlink ref="D160" r:id="rId54" xr:uid="{60A63BBE-D0A6-41F1-901F-DB23CCC88B31}"/>
-    <hyperlink ref="D123" r:id="rId55" xr:uid="{5A19D462-1DAE-45D2-995D-765D8B265634}"/>
-    <hyperlink ref="D54" r:id="rId56" xr:uid="{6CAF4F24-845E-4B02-B36D-EADBD5840620}"/>
-    <hyperlink ref="D33" r:id="rId57" xr:uid="{73F8C369-618F-4FC8-884F-A2D91645473E}"/>
-    <hyperlink ref="D9" r:id="rId58" xr:uid="{7AF064D1-C150-4157-ADFE-81905BFA5D4C}"/>
-    <hyperlink ref="D132" r:id="rId59" xr:uid="{AE22505F-70A5-43C5-95FF-10B0E09E08CA}"/>
-    <hyperlink ref="D245" r:id="rId60" xr:uid="{58438913-BB16-4DE0-828D-010B103FAC2D}"/>
+    <hyperlink ref="D76" r:id="rId45" xr:uid="{1E97A2D1-C3D2-4EE5-9036-98348304A2A4}"/>
+    <hyperlink ref="D160" r:id="rId46" xr:uid="{AF449DFE-949F-4719-8292-1B1E1C780C7A}"/>
+    <hyperlink ref="D210" r:id="rId47" xr:uid="{FED4BD37-C851-43BD-9065-12749B4155BB}"/>
+    <hyperlink ref="D20" r:id="rId48" xr:uid="{64A35734-1C1A-4520-B8B5-A0A542723F1C}"/>
+    <hyperlink ref="D266" r:id="rId49" xr:uid="{47D02EFB-8B57-460C-9C33-6E4EFDCABDA7}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{5483BAE4-47A4-4D12-B981-0C87B9F5A8BD}"/>
+    <hyperlink ref="D22" r:id="rId51" xr:uid="{5CB478B8-C2EB-4479-B213-11B3C96F8F0F}"/>
+    <hyperlink ref="D156" r:id="rId52" xr:uid="{37A54FDB-7ED1-4F2B-A835-77ABBA9AA484}"/>
+    <hyperlink ref="D203" r:id="rId53" xr:uid="{3F5F1267-4CB2-4DF4-BB87-E90F200A756C}"/>
+    <hyperlink ref="D161" r:id="rId54" xr:uid="{60A63BBE-D0A6-41F1-901F-DB23CCC88B31}"/>
+    <hyperlink ref="D124" r:id="rId55" xr:uid="{5A19D462-1DAE-45D2-995D-765D8B265634}"/>
+    <hyperlink ref="D51" r:id="rId56" xr:uid="{6CAF4F24-845E-4B02-B36D-EADBD5840620}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{73F8C369-618F-4FC8-884F-A2D91645473E}"/>
+    <hyperlink ref="D7" r:id="rId58" xr:uid="{7AF064D1-C150-4157-ADFE-81905BFA5D4C}"/>
+    <hyperlink ref="D133" r:id="rId59" xr:uid="{AE22505F-70A5-43C5-95FF-10B0E09E08CA}"/>
+    <hyperlink ref="D246" r:id="rId60" xr:uid="{58438913-BB16-4DE0-828D-010B103FAC2D}"/>
     <hyperlink ref="D103" r:id="rId61" xr:uid="{1E80F99A-1B19-483D-A5F2-D03846F18C84}"/>
-    <hyperlink ref="D78" r:id="rId62" xr:uid="{BAE8800D-18E8-4BC9-9F92-A76A1D4EEA97}"/>
-    <hyperlink ref="D171" r:id="rId63" xr:uid="{369B3DAF-292A-42B8-8690-71BE8E554DBC}"/>
-    <hyperlink ref="D67" r:id="rId64" xr:uid="{B7FB0EB8-6A4B-44AE-943C-2BA65AADAC3B}"/>
-    <hyperlink ref="D203" r:id="rId65" xr:uid="{920186FF-16E6-493B-A4E8-88BBD750634F}"/>
-    <hyperlink ref="D6" r:id="rId66" xr:uid="{5D2C40AC-A07E-4618-BDD2-1E82149BCD06}"/>
-    <hyperlink ref="D40" r:id="rId67" xr:uid="{29E1A351-48DD-4F69-B32F-02560ABBFC23}"/>
-    <hyperlink ref="D65" r:id="rId68" xr:uid="{2482F2A7-D5D7-42E7-A0A4-BF848AC9DF63}"/>
-    <hyperlink ref="D163" r:id="rId69" xr:uid="{0A79F2DD-8888-4900-ADD0-C420528AF565}"/>
-    <hyperlink ref="D76" r:id="rId70" xr:uid="{2A77B167-889C-4EDA-89CC-EF93D6E2D0B2}"/>
-    <hyperlink ref="D16" r:id="rId71" xr:uid="{B0BD715B-2322-4DCA-B250-CD7E7880482C}"/>
-    <hyperlink ref="D28" r:id="rId72" xr:uid="{730C52D3-ED5A-4559-A794-0EB4415C4F24}"/>
-    <hyperlink ref="D86" r:id="rId73" xr:uid="{5A0099C8-0101-4AD8-A4A9-4400A99F4E89}"/>
-    <hyperlink ref="D39" r:id="rId74" xr:uid="{DD471CB9-4668-43A7-9588-357AB0E5590D}"/>
-    <hyperlink ref="D204" r:id="rId75" xr:uid="{C5782F8F-D73C-4C38-9058-C736341E34C1}"/>
-    <hyperlink ref="D5" r:id="rId76" xr:uid="{BCD5E313-963E-4F4A-94DB-A52920B6C3C3}"/>
-    <hyperlink ref="D72" r:id="rId77" xr:uid="{8E63428B-3347-46D5-BB68-1BFED339773C}"/>
+    <hyperlink ref="D75" r:id="rId62" xr:uid="{BAE8800D-18E8-4BC9-9F92-A76A1D4EEA97}"/>
+    <hyperlink ref="D172" r:id="rId63" xr:uid="{369B3DAF-292A-42B8-8690-71BE8E554DBC}"/>
+    <hyperlink ref="D64" r:id="rId64" xr:uid="{B7FB0EB8-6A4B-44AE-943C-2BA65AADAC3B}"/>
+    <hyperlink ref="D204" r:id="rId65" xr:uid="{920186FF-16E6-493B-A4E8-88BBD750634F}"/>
+    <hyperlink ref="D5" r:id="rId66" xr:uid="{5D2C40AC-A07E-4618-BDD2-1E82149BCD06}"/>
+    <hyperlink ref="D37" r:id="rId67" xr:uid="{29E1A351-48DD-4F69-B32F-02560ABBFC23}"/>
+    <hyperlink ref="D62" r:id="rId68" xr:uid="{2482F2A7-D5D7-42E7-A0A4-BF848AC9DF63}"/>
+    <hyperlink ref="D164" r:id="rId69" xr:uid="{0A79F2DD-8888-4900-ADD0-C420528AF565}"/>
+    <hyperlink ref="D73" r:id="rId70" xr:uid="{2A77B167-889C-4EDA-89CC-EF93D6E2D0B2}"/>
+    <hyperlink ref="D13" r:id="rId71" xr:uid="{B0BD715B-2322-4DCA-B250-CD7E7880482C}"/>
+    <hyperlink ref="D25" r:id="rId72" xr:uid="{730C52D3-ED5A-4559-A794-0EB4415C4F24}"/>
+    <hyperlink ref="D83" r:id="rId73" xr:uid="{5A0099C8-0101-4AD8-A4A9-4400A99F4E89}"/>
+    <hyperlink ref="D36" r:id="rId74" xr:uid="{DD471CB9-4668-43A7-9588-357AB0E5590D}"/>
+    <hyperlink ref="D205" r:id="rId75" xr:uid="{C5782F8F-D73C-4C38-9058-C736341E34C1}"/>
+    <hyperlink ref="D4" r:id="rId76" xr:uid="{BCD5E313-963E-4F4A-94DB-A52920B6C3C3}"/>
+    <hyperlink ref="D69" r:id="rId77" xr:uid="{8E63428B-3347-46D5-BB68-1BFED339773C}"/>
     <hyperlink ref="D102" r:id="rId78" xr:uid="{D61718EE-F0DE-4032-AB4B-074C4558B23F}"/>
-    <hyperlink ref="D77" r:id="rId79" xr:uid="{66BB2471-2736-4E9D-87E0-E5634BC87DD7}"/>
-    <hyperlink ref="D198" r:id="rId80" xr:uid="{610865CD-DD7C-4831-B334-FAD22CB82024}"/>
-    <hyperlink ref="E70" r:id="rId81" xr:uid="{F7EE5D3A-F997-4462-B48E-375D6D96348D}"/>
-    <hyperlink ref="D30" r:id="rId82" xr:uid="{0AE9FCBB-5A68-459D-B6BC-A27DE0B90499}"/>
-    <hyperlink ref="D73" r:id="rId83" xr:uid="{43BDA2CA-7E1A-47B9-91D0-756E2A9DD697}"/>
-    <hyperlink ref="D284" r:id="rId84" xr:uid="{CC21D5F8-85B1-41F9-86FA-45EB85A72939}"/>
-    <hyperlink ref="D74" r:id="rId85" xr:uid="{50A3C893-E030-4561-9ECD-662675506C1F}"/>
-    <hyperlink ref="D66" r:id="rId86" xr:uid="{0721E5A5-70C7-49C1-AF65-21C654E0B8FF}"/>
-    <hyperlink ref="E8" r:id="rId87" xr:uid="{A146B6C9-03FA-4DEA-BF49-B21DEA143F3E}"/>
-    <hyperlink ref="E11" r:id="rId88" xr:uid="{A847E2C0-9BF4-4857-8387-8E9D8EBFF6F1}"/>
-    <hyperlink ref="D50" r:id="rId89" xr:uid="{030327F2-A482-4134-AB66-A2E19A590F09}"/>
-    <hyperlink ref="D75" r:id="rId90" xr:uid="{F37B06BF-7E81-4A99-B2D9-8E46FE2BAF14}"/>
+    <hyperlink ref="D74" r:id="rId79" xr:uid="{66BB2471-2736-4E9D-87E0-E5634BC87DD7}"/>
+    <hyperlink ref="D199" r:id="rId80" xr:uid="{610865CD-DD7C-4831-B334-FAD22CB82024}"/>
+    <hyperlink ref="E67" r:id="rId81" xr:uid="{F7EE5D3A-F997-4462-B48E-375D6D96348D}"/>
+    <hyperlink ref="D27" r:id="rId82" xr:uid="{0AE9FCBB-5A68-459D-B6BC-A27DE0B90499}"/>
+    <hyperlink ref="D70" r:id="rId83" xr:uid="{43BDA2CA-7E1A-47B9-91D0-756E2A9DD697}"/>
+    <hyperlink ref="D285" r:id="rId84" xr:uid="{CC21D5F8-85B1-41F9-86FA-45EB85A72939}"/>
+    <hyperlink ref="D71" r:id="rId85" xr:uid="{50A3C893-E030-4561-9ECD-662675506C1F}"/>
+    <hyperlink ref="D63" r:id="rId86" xr:uid="{0721E5A5-70C7-49C1-AF65-21C654E0B8FF}"/>
+    <hyperlink ref="E6" r:id="rId87" xr:uid="{A146B6C9-03FA-4DEA-BF49-B21DEA143F3E}"/>
+    <hyperlink ref="E8" r:id="rId88" xr:uid="{A847E2C0-9BF4-4857-8387-8E9D8EBFF6F1}"/>
+    <hyperlink ref="D47" r:id="rId89" xr:uid="{030327F2-A482-4134-AB66-A2E19A590F09}"/>
+    <hyperlink ref="D72" r:id="rId90" xr:uid="{F37B06BF-7E81-4A99-B2D9-8E46FE2BAF14}"/>
     <hyperlink ref="D104" r:id="rId91" xr:uid="{9DF18F36-5325-4CE9-AE77-483D1113F297}"/>
-    <hyperlink ref="E89" r:id="rId92" xr:uid="{F3B13E30-2299-4070-9D86-37BBAAAD4F77}"/>
-    <hyperlink ref="D8" r:id="rId93" xr:uid="{7351776D-02CE-48A4-A74C-E38A9B3FBE04}"/>
-    <hyperlink ref="D11" r:id="rId94" xr:uid="{66A8CCEB-0F2B-49CF-987C-3DA8DA71FC90}"/>
-    <hyperlink ref="D17" r:id="rId95" xr:uid="{AA4F1DB4-BBDD-4243-B201-F823BBFBE38D}"/>
-    <hyperlink ref="D18" r:id="rId96" xr:uid="{266D9DA9-BFEA-446B-81E2-002D6D932968}"/>
-    <hyperlink ref="D19" r:id="rId97" xr:uid="{4B2447BE-EEE3-44ED-A3DF-C1E083D45EED}"/>
-    <hyperlink ref="D20" r:id="rId98" xr:uid="{5DF897F6-0EBE-49E3-8000-15EBC8DCA8D1}"/>
-    <hyperlink ref="D22" r:id="rId99" xr:uid="{88CCD47B-EF66-4396-A6FC-B8184E785C08}"/>
-    <hyperlink ref="D24" r:id="rId100" xr:uid="{51007702-9B9B-43E2-9A6B-3ABB5689112C}"/>
-    <hyperlink ref="D29" r:id="rId101" xr:uid="{5921B036-3221-4863-A6CA-DAEF3F111BAF}"/>
-    <hyperlink ref="D32" r:id="rId102" xr:uid="{930B9529-A35E-4C3B-B6FA-407713ABA2EE}"/>
-    <hyperlink ref="D46" r:id="rId103" xr:uid="{0305B824-0A97-4FF2-B2A7-459083C10B1E}"/>
-    <hyperlink ref="D51" r:id="rId104" xr:uid="{E61FC490-9AD0-4699-B5CA-8595ACD6AFE8}"/>
-    <hyperlink ref="D59" r:id="rId105" xr:uid="{B672E5AD-6CBF-451B-9EC0-A3028B5FCB50}"/>
-    <hyperlink ref="D68" r:id="rId106" xr:uid="{8090E1FB-48F3-45EC-BF72-41117A459BF7}"/>
-    <hyperlink ref="D69" r:id="rId107" xr:uid="{E37F5F0D-0285-43F9-9D64-4BE3A462BC36}"/>
-    <hyperlink ref="D70" r:id="rId108" xr:uid="{0A060420-9DD7-4155-8BF9-9DC92B1E0A08}"/>
-    <hyperlink ref="D94" r:id="rId109" xr:uid="{F5325D66-2B89-4705-8ECD-DE57B141D326}"/>
+    <hyperlink ref="E86" r:id="rId92" xr:uid="{F3B13E30-2299-4070-9D86-37BBAAAD4F77}"/>
+    <hyperlink ref="D6" r:id="rId93" xr:uid="{7351776D-02CE-48A4-A74C-E38A9B3FBE04}"/>
+    <hyperlink ref="D8" r:id="rId94" xr:uid="{66A8CCEB-0F2B-49CF-987C-3DA8DA71FC90}"/>
+    <hyperlink ref="D14" r:id="rId95" xr:uid="{AA4F1DB4-BBDD-4243-B201-F823BBFBE38D}"/>
+    <hyperlink ref="D15" r:id="rId96" xr:uid="{266D9DA9-BFEA-446B-81E2-002D6D932968}"/>
+    <hyperlink ref="D16" r:id="rId97" xr:uid="{4B2447BE-EEE3-44ED-A3DF-C1E083D45EED}"/>
+    <hyperlink ref="D17" r:id="rId98" xr:uid="{5DF897F6-0EBE-49E3-8000-15EBC8DCA8D1}"/>
+    <hyperlink ref="D19" r:id="rId99" xr:uid="{88CCD47B-EF66-4396-A6FC-B8184E785C08}"/>
+    <hyperlink ref="D21" r:id="rId100" xr:uid="{51007702-9B9B-43E2-9A6B-3ABB5689112C}"/>
+    <hyperlink ref="D26" r:id="rId101" xr:uid="{5921B036-3221-4863-A6CA-DAEF3F111BAF}"/>
+    <hyperlink ref="D29" r:id="rId102" xr:uid="{930B9529-A35E-4C3B-B6FA-407713ABA2EE}"/>
+    <hyperlink ref="D43" r:id="rId103" xr:uid="{0305B824-0A97-4FF2-B2A7-459083C10B1E}"/>
+    <hyperlink ref="D48" r:id="rId104" xr:uid="{E61FC490-9AD0-4699-B5CA-8595ACD6AFE8}"/>
+    <hyperlink ref="D56" r:id="rId105" xr:uid="{B672E5AD-6CBF-451B-9EC0-A3028B5FCB50}"/>
+    <hyperlink ref="D65" r:id="rId106" xr:uid="{8090E1FB-48F3-45EC-BF72-41117A459BF7}"/>
+    <hyperlink ref="D66" r:id="rId107" xr:uid="{E37F5F0D-0285-43F9-9D64-4BE3A462BC36}"/>
+    <hyperlink ref="D67" r:id="rId108" xr:uid="{0A060420-9DD7-4155-8BF9-9DC92B1E0A08}"/>
+    <hyperlink ref="D93" r:id="rId109" xr:uid="{F5325D66-2B89-4705-8ECD-DE57B141D326}"/>
     <hyperlink ref="D111" r:id="rId110" xr:uid="{7A8E6987-54BF-42C0-8AB8-C7A46E5DFC26}"/>
-    <hyperlink ref="D124" r:id="rId111" xr:uid="{A9224358-9C7A-4CCF-B546-723C54D0382E}"/>
-    <hyperlink ref="D128" r:id="rId112" xr:uid="{EB3B3AB3-DD65-4D6D-9853-885847C085C1}"/>
-    <hyperlink ref="D134" r:id="rId113" xr:uid="{BED8FE57-6CC7-4633-BB27-2EB9D1CF1C6B}"/>
-    <hyperlink ref="D172" r:id="rId114" xr:uid="{960DEC23-2119-4EA9-AE5A-56C3688C91DB}"/>
-    <hyperlink ref="D183" r:id="rId115" xr:uid="{4604D28B-5E43-422C-9D1E-99E01D25338E}"/>
-    <hyperlink ref="D190" r:id="rId116" xr:uid="{648B9A30-8C6F-4960-8C06-A02C7EFA4E92}"/>
-    <hyperlink ref="D194" r:id="rId117" xr:uid="{C0E92027-2A0F-40E7-BBB6-9B8CC5AC9897}"/>
-    <hyperlink ref="D207" r:id="rId118" xr:uid="{CEA79B48-DEE5-4AFC-9E79-1A702F269C3B}"/>
-    <hyperlink ref="D215" r:id="rId119" xr:uid="{97AB2B78-82F3-4B24-95ED-202EE266AECB}"/>
-    <hyperlink ref="D219" r:id="rId120" xr:uid="{CB454EE0-6827-4F36-B7FC-0087F2F39E60}"/>
-    <hyperlink ref="D267" r:id="rId121" xr:uid="{002A33F6-01F1-4A01-98E9-25E49969E612}"/>
-    <hyperlink ref="D274" r:id="rId122" xr:uid="{1CB8F24B-B796-4CF1-811C-B93EFC023B79}"/>
-    <hyperlink ref="D290" r:id="rId123" xr:uid="{EC6565C7-D170-4D9D-9D08-F4C489F93BBB}"/>
-    <hyperlink ref="D295" r:id="rId124" xr:uid="{66F73DCC-AC4E-49E4-B66E-A1F6AA3EDE3D}"/>
-    <hyperlink ref="D26" r:id="rId125" xr:uid="{A66E0BEE-2AF9-4A99-9466-415564EA9FC4}"/>
-    <hyperlink ref="D43" r:id="rId126" xr:uid="{FF67AA0C-06B1-44C0-A1FD-133BC350C544}"/>
+    <hyperlink ref="D125" r:id="rId111" xr:uid="{A9224358-9C7A-4CCF-B546-723C54D0382E}"/>
+    <hyperlink ref="D129" r:id="rId112" xr:uid="{EB3B3AB3-DD65-4D6D-9853-885847C085C1}"/>
+    <hyperlink ref="D135" r:id="rId113" xr:uid="{BED8FE57-6CC7-4633-BB27-2EB9D1CF1C6B}"/>
+    <hyperlink ref="D173" r:id="rId114" xr:uid="{960DEC23-2119-4EA9-AE5A-56C3688C91DB}"/>
+    <hyperlink ref="D184" r:id="rId115" xr:uid="{4604D28B-5E43-422C-9D1E-99E01D25338E}"/>
+    <hyperlink ref="D191" r:id="rId116" xr:uid="{648B9A30-8C6F-4960-8C06-A02C7EFA4E92}"/>
+    <hyperlink ref="D195" r:id="rId117" xr:uid="{C0E92027-2A0F-40E7-BBB6-9B8CC5AC9897}"/>
+    <hyperlink ref="D208" r:id="rId118" xr:uid="{CEA79B48-DEE5-4AFC-9E79-1A702F269C3B}"/>
+    <hyperlink ref="D216" r:id="rId119" xr:uid="{97AB2B78-82F3-4B24-95ED-202EE266AECB}"/>
+    <hyperlink ref="D220" r:id="rId120" xr:uid="{CB454EE0-6827-4F36-B7FC-0087F2F39E60}"/>
+    <hyperlink ref="D268" r:id="rId121" xr:uid="{002A33F6-01F1-4A01-98E9-25E49969E612}"/>
+    <hyperlink ref="D275" r:id="rId122" xr:uid="{1CB8F24B-B796-4CF1-811C-B93EFC023B79}"/>
+    <hyperlink ref="D291" r:id="rId123" xr:uid="{EC6565C7-D170-4D9D-9D08-F4C489F93BBB}"/>
+    <hyperlink ref="D296" r:id="rId124" xr:uid="{66F73DCC-AC4E-49E4-B66E-A1F6AA3EDE3D}"/>
+    <hyperlink ref="D23" r:id="rId125" xr:uid="{A66E0BEE-2AF9-4A99-9466-415564EA9FC4}"/>
+    <hyperlink ref="D40" r:id="rId126" xr:uid="{FF67AA0C-06B1-44C0-A1FD-133BC350C544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId127"/>
@@ -34266,22 +34702,22 @@
   <sheetData>
     <row r="4" spans="2:2" ht="17.25">
       <c r="B4" s="193" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.25">
       <c r="B5" s="194" t="s">
-        <v>5536</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.25">
       <c r="B6" s="194" t="s">
-        <v>5537</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.25">
       <c r="B7" s="194" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
     </row>
   </sheetData>
@@ -34344,7 +34780,7 @@
         <v>2028</v>
       </c>
       <c r="H5" s="192" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -34363,13 +34799,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="C7" t="s">
+        <v>5493</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>5494</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>5495</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -34384,7 +34820,7 @@
         <v>4018</v>
       </c>
       <c r="C9" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="D9" s="6">
         <v>43046</v>
@@ -34396,7 +34832,7 @@
         <v>3612</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -34408,7 +34844,7 @@
         <v>1646</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -34444,7 +34880,7 @@
         <v>1691</v>
       </c>
       <c r="C13" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>1675</v>
@@ -34927,21 +35363,21 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C53" t="s">
         <v>5578</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5579</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>5607</v>
+      </c>
+      <c r="C55" t="s">
         <v>5608</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>5609</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5610</v>
       </c>
     </row>
   </sheetData>
@@ -40988,7 +41424,7 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="G145" s="6">
         <v>43027</v>
@@ -60367,7 +60803,7 @@
         <v>25</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="E608">
         <v>46</v>
@@ -64317,7 +64753,7 @@
         <v>34</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="E717">
         <v>1</v>
@@ -64569,7 +65005,7 @@
         <v>43</v>
       </c>
       <c r="F725" s="90" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="G725" s="6">
         <v>43405</v>
@@ -64803,7 +65239,7 @@
         <v>14</v>
       </c>
       <c r="F731" s="90" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="G731" s="6">
         <v>43411</v>
@@ -64877,7 +65313,7 @@
         <v>2</v>
       </c>
       <c r="F733" s="90" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="G733" s="6">
         <v>43413</v>
@@ -66375,7 +66811,7 @@
         <v>2</v>
       </c>
       <c r="F775" s="75" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
       <c r="G775" s="6">
         <v>43448</v>
@@ -66456,7 +66892,7 @@
         <v>43448</v>
       </c>
       <c r="I777" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
       <c r="K777" s="9">
         <v>6794.44</v>
@@ -66743,7 +67179,7 @@
         <v>110</v>
       </c>
       <c r="F785" s="90" t="s">
-        <v>5778</v>
+        <v>5777</v>
       </c>
       <c r="G785" s="6">
         <v>43453</v>
@@ -66752,7 +67188,7 @@
         <v>160</v>
       </c>
       <c r="I785" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="K785" s="9">
         <v>5464.8</v>
@@ -67273,7 +67709,7 @@
         <v>17</v>
       </c>
       <c r="G800" s="7" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="K800" s="11">
         <f>K286+K321+K380+K435+K479+K536+K582+K629+K680+K722+K756+K799</f>
@@ -67761,7 +68197,7 @@
         <v>43474</v>
       </c>
       <c r="I814" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="K814" s="9">
         <v>9350.39</v>
@@ -67905,7 +68341,7 @@
         <v>140</v>
       </c>
       <c r="I818" s="73" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="K818" s="9">
         <v>2446.62</v>
@@ -68124,7 +68560,7 @@
         <v>160</v>
       </c>
       <c r="I824" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="K824" s="9">
         <v>5182.6400000000003</v>
@@ -68229,7 +68665,7 @@
         <v>43484</v>
       </c>
       <c r="I827" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
       <c r="K827" s="9">
         <v>4573.57</v>
@@ -68263,7 +68699,7 @@
         <v>43487</v>
       </c>
       <c r="I828" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
       <c r="K828" s="9">
         <v>3667.14</v>
@@ -68291,7 +68727,7 @@
         <v>1</v>
       </c>
       <c r="F829" s="75" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="G829" s="6">
         <v>43487</v>
@@ -68328,7 +68764,7 @@
         <v>43487</v>
       </c>
       <c r="I830" t="s">
-        <v>5560</v>
+        <v>5559</v>
       </c>
       <c r="K830" s="9">
         <v>1478</v>
@@ -68356,7 +68792,7 @@
         <v>279</v>
       </c>
       <c r="F831" s="75" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="G831" s="6">
         <v>43487</v>
@@ -68428,7 +68864,7 @@
         <v>43487</v>
       </c>
       <c r="I833" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="K833" s="9">
         <v>902</v>
@@ -68450,7 +68886,7 @@
         <v>33</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="E834">
         <v>19</v>
@@ -68485,7 +68921,7 @@
         <v>34</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="E835">
         <v>14</v>
@@ -68520,7 +68956,7 @@
         <v>35</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
       <c r="E836">
         <v>100</v>
@@ -68535,7 +68971,7 @@
         <v>160</v>
       </c>
       <c r="I836" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="K836" s="9">
         <v>4164</v>
@@ -68558,7 +68994,7 @@
         <v>36</v>
       </c>
       <c r="B837" t="s">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="E837">
         <v>999</v>
@@ -68573,7 +69009,7 @@
         <v>160</v>
       </c>
       <c r="I837" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="K837" s="9">
         <v>3866.13</v>
@@ -68595,7 +69031,7 @@
         <v>37</v>
       </c>
       <c r="B838" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
       <c r="E838">
         <v>3</v>
@@ -68630,13 +69066,13 @@
         <v>38</v>
       </c>
       <c r="B839" t="s">
-        <v>5492</v>
+        <v>5491</v>
       </c>
       <c r="E839">
         <v>3</v>
       </c>
       <c r="F839" t="s">
-        <v>5510</v>
+        <v>5509</v>
       </c>
       <c r="G839" s="6">
         <v>43490</v>
@@ -68645,7 +69081,7 @@
         <v>160</v>
       </c>
       <c r="I839" t="s">
-        <v>5511</v>
+        <v>5510</v>
       </c>
       <c r="K839" s="9">
         <v>4779</v>
@@ -68667,7 +69103,7 @@
         <v>39</v>
       </c>
       <c r="B840" t="s">
-        <v>5493</v>
+        <v>5492</v>
       </c>
       <c r="E840">
         <v>1</v>
@@ -68701,7 +69137,7 @@
         <v>40</v>
       </c>
       <c r="B841" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="E841">
         <v>4</v>
@@ -68736,7 +69172,7 @@
         <v>41</v>
       </c>
       <c r="B842" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="E842">
         <v>19</v>
@@ -68771,7 +69207,7 @@
         <v>42</v>
       </c>
       <c r="B843" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="E843">
         <v>7</v>
@@ -68806,13 +69242,13 @@
         <v>43</v>
       </c>
       <c r="B844" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="E844">
         <v>1</v>
       </c>
       <c r="F844" s="75" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="G844" s="6">
         <v>43494</v>
@@ -68840,7 +69276,7 @@
         <v>44</v>
       </c>
       <c r="B845" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
       <c r="E845">
         <v>7</v>
@@ -68855,7 +69291,7 @@
         <v>160</v>
       </c>
       <c r="I845" t="s">
-        <v>5526</v>
+        <v>5525</v>
       </c>
       <c r="K845" s="9">
         <v>2088.8000000000002</v>
@@ -68877,13 +69313,13 @@
         <v>45</v>
       </c>
       <c r="B846" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="E846">
         <v>9</v>
       </c>
       <c r="F846" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="G846" s="6">
         <v>43494</v>
@@ -68892,7 +69328,7 @@
         <v>160</v>
       </c>
       <c r="I846" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="K846" s="9">
         <v>2546.1</v>
@@ -68914,13 +69350,13 @@
         <v>46</v>
       </c>
       <c r="B847" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="E847">
         <v>28</v>
       </c>
       <c r="F847" s="75" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
       <c r="G847" s="6">
         <v>43494</v>
@@ -68948,7 +69384,7 @@
         <v>47</v>
       </c>
       <c r="B848" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="E848">
         <v>8</v>
@@ -68960,7 +69396,7 @@
         <v>43495</v>
       </c>
       <c r="I848" t="s">
-        <v>5540</v>
+        <v>5539</v>
       </c>
       <c r="K848" s="9">
         <v>538.4</v>
@@ -68982,7 +69418,7 @@
         <v>48</v>
       </c>
       <c r="B849" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="E849">
         <v>12</v>
@@ -69017,13 +69453,13 @@
         <v>49</v>
       </c>
       <c r="B850" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
       <c r="E850">
         <v>1</v>
       </c>
       <c r="F850" s="75" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
       <c r="G850" s="6">
         <v>43495</v>
@@ -69051,7 +69487,7 @@
         <v>50</v>
       </c>
       <c r="B851" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="E851">
         <v>1</v>
@@ -69082,13 +69518,13 @@
         <v>51</v>
       </c>
       <c r="B852" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="E852">
         <v>1</v>
       </c>
       <c r="F852" s="75" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
       <c r="G852" s="6">
         <v>43496</v>
@@ -69113,7 +69549,7 @@
         <v>52</v>
       </c>
       <c r="B853" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
       <c r="E853">
         <v>50</v>
@@ -69125,7 +69561,7 @@
         <v>43496</v>
       </c>
       <c r="I853" t="s">
-        <v>5550</v>
+        <v>5549</v>
       </c>
       <c r="K853" s="9">
         <v>13498</v>
@@ -69170,7 +69606,7 @@
         <v>1</v>
       </c>
       <c r="B856" t="s">
-        <v>5570</v>
+        <v>5569</v>
       </c>
       <c r="E856">
         <v>20</v>
@@ -69185,7 +69621,7 @@
         <v>140</v>
       </c>
       <c r="I856" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="K856" s="1">
         <v>16715.400000000001</v>
@@ -69203,7 +69639,7 @@
         <v>2</v>
       </c>
       <c r="B857" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="E857">
         <v>1</v>
@@ -69215,7 +69651,7 @@
         <v>43501</v>
       </c>
       <c r="I857" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="K857" s="1">
         <v>4224.55</v>
@@ -69233,13 +69669,13 @@
         <v>3</v>
       </c>
       <c r="B858" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="E858">
         <v>2434</v>
       </c>
       <c r="F858" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
       <c r="G858" s="6">
         <v>43501</v>
@@ -69248,7 +69684,7 @@
         <v>120</v>
       </c>
       <c r="I858" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="K858" s="1">
         <v>1849.84</v>
@@ -69266,19 +69702,19 @@
         <v>4</v>
       </c>
       <c r="B859" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="E859">
         <v>26</v>
       </c>
       <c r="F859" s="90" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="G859" s="6">
         <v>43501</v>
       </c>
       <c r="I859" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
       <c r="K859" s="1">
         <v>275.08</v>
@@ -69296,7 +69732,7 @@
         <v>5</v>
       </c>
       <c r="B860" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="E860">
         <v>4</v>
@@ -69311,7 +69747,7 @@
         <v>120</v>
       </c>
       <c r="I860" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="K860" s="1">
         <v>39.520000000000003</v>
@@ -69326,7 +69762,7 @@
         <v>6</v>
       </c>
       <c r="B861" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="E861">
         <v>6</v>
@@ -69341,7 +69777,7 @@
         <v>160</v>
       </c>
       <c r="I861" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="K861" s="1">
         <v>2849.16</v>
@@ -69359,10 +69795,10 @@
         <v>7</v>
       </c>
       <c r="B862" t="s">
-        <v>5580</v>
+        <v>5579</v>
       </c>
       <c r="D862" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="E862">
         <v>10</v>
@@ -69374,7 +69810,7 @@
         <v>43502</v>
       </c>
       <c r="I862" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="K862" s="1">
         <v>5486.9</v>
@@ -69392,7 +69828,7 @@
         <v>8</v>
       </c>
       <c r="B863" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="E863">
         <v>14</v>
@@ -69404,7 +69840,7 @@
         <v>43502</v>
       </c>
       <c r="I863" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="K863" s="1">
         <v>2012.64</v>
@@ -69422,7 +69858,7 @@
         <v>9</v>
       </c>
       <c r="B864" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="E864">
         <v>49</v>
@@ -69434,7 +69870,7 @@
         <v>43502</v>
       </c>
       <c r="I864" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="K864" s="1">
         <v>1978.13</v>
@@ -69452,7 +69888,7 @@
         <v>10</v>
       </c>
       <c r="B865" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="E865">
         <v>27</v>
@@ -69479,7 +69915,7 @@
         <v>11</v>
       </c>
       <c r="B866" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="E866">
         <v>19</v>
@@ -69491,7 +69927,7 @@
         <v>43502</v>
       </c>
       <c r="I866" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="K866" s="1">
         <v>9545.6</v>
@@ -69509,7 +69945,7 @@
         <v>12</v>
       </c>
       <c r="B867" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="E867">
         <v>14</v>
@@ -69533,7 +69969,7 @@
         <v>13</v>
       </c>
       <c r="B868" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="E868">
         <v>2</v>
@@ -69557,7 +69993,7 @@
         <v>14</v>
       </c>
       <c r="B869" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="E869">
         <v>8</v>
@@ -69569,7 +70005,7 @@
         <v>43502</v>
       </c>
       <c r="I869" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="K869" s="1">
         <v>796.96</v>
@@ -69587,7 +70023,7 @@
         <v>15</v>
       </c>
       <c r="B870" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="E870">
         <v>3</v>
@@ -69611,7 +70047,7 @@
         <v>16</v>
       </c>
       <c r="B871" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="D871" s="196">
         <v>5935015740494</v>
@@ -69620,13 +70056,13 @@
         <v>14</v>
       </c>
       <c r="F871" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="G871" s="6">
         <v>43502</v>
       </c>
       <c r="I871" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
       <c r="K871" s="1">
         <v>1604.82</v>
@@ -69644,7 +70080,7 @@
         <v>17</v>
       </c>
       <c r="B872" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="D872" s="196">
         <v>5935016157811</v>
@@ -69653,13 +70089,13 @@
         <v>65</v>
       </c>
       <c r="F872" s="90" t="s">
-        <v>5777</v>
+        <v>5776</v>
       </c>
       <c r="G872" s="6">
         <v>43502</v>
       </c>
       <c r="I872" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="K872" s="1">
         <v>3290.3</v>
@@ -69674,7 +70110,7 @@
         <v>18</v>
       </c>
       <c r="B873" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="D873" s="196"/>
       <c r="E873">
@@ -69699,7 +70135,7 @@
         <v>19</v>
       </c>
       <c r="B874" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="D874" s="196"/>
       <c r="E874">
@@ -69724,7 +70160,7 @@
         <v>20</v>
       </c>
       <c r="B875" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="D875" s="196"/>
       <c r="E875">
@@ -69749,7 +70185,7 @@
         <v>21</v>
       </c>
       <c r="B876" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D876" s="196"/>
       <c r="E876">
@@ -69762,7 +70198,7 @@
         <v>43503</v>
       </c>
       <c r="I876" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="K876" s="1">
         <v>1491.04</v>
@@ -69780,7 +70216,7 @@
         <v>22</v>
       </c>
       <c r="B877" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="D877" s="196"/>
       <c r="E877">
@@ -69793,7 +70229,7 @@
         <v>43503</v>
       </c>
       <c r="I877" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="K877" s="1">
         <v>7565.11</v>
@@ -69811,7 +70247,7 @@
         <v>23</v>
       </c>
       <c r="B878" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="D878" s="196"/>
       <c r="E878">
@@ -69837,7 +70273,7 @@
         <v>24</v>
       </c>
       <c r="B879" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="D879" s="196">
         <v>5930011262867</v>
@@ -69846,7 +70282,7 @@
         <v>21</v>
       </c>
       <c r="F879" s="90" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="G879" s="6">
         <v>43504</v>
@@ -69855,7 +70291,7 @@
         <v>43664</v>
       </c>
       <c r="I879" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="K879" s="1">
         <v>8106</v>
@@ -69873,7 +70309,7 @@
         <v>25</v>
       </c>
       <c r="B880" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="D880" s="196">
         <v>5975015966883</v>
@@ -69888,7 +70324,7 @@
         <v>43507</v>
       </c>
       <c r="H880" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="K880" s="164">
         <v>5289.72</v>
@@ -69903,7 +70339,7 @@
         <v>26</v>
       </c>
       <c r="B881" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="D881" s="196">
         <v>6150014934376</v>
@@ -69918,7 +70354,7 @@
         <v>43507</v>
       </c>
       <c r="H881" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="K881" s="164">
         <v>1283</v>
@@ -69933,7 +70369,7 @@
         <v>27</v>
       </c>
       <c r="B882" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="D882" s="196">
         <v>6150992596415</v>
@@ -69948,10 +70384,10 @@
         <v>43507</v>
       </c>
       <c r="H882" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="I882" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="K882" s="164">
         <v>5017.6000000000004</v>
@@ -69969,7 +70405,7 @@
         <v>28</v>
       </c>
       <c r="B883" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="D883" s="196">
         <v>5996014740545</v>
@@ -69978,13 +70414,13 @@
         <v>14</v>
       </c>
       <c r="F883" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="G883" s="6">
         <v>43507</v>
       </c>
       <c r="H883" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="K883" s="164">
         <v>1707.44</v>
@@ -69999,7 +70435,7 @@
         <v>29</v>
       </c>
       <c r="B884" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="D884" s="196">
         <v>5930011265326</v>
@@ -70014,10 +70450,10 @@
         <v>43507</v>
       </c>
       <c r="H884" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="I884" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="K884" s="164">
         <v>9790.8700000000008</v>
@@ -70035,7 +70471,7 @@
         <v>30</v>
       </c>
       <c r="B885" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="D885" s="196">
         <v>5935013670500</v>
@@ -70050,10 +70486,10 @@
         <v>43507</v>
       </c>
       <c r="H885" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="I885" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="K885" s="164">
         <v>3421.52</v>
@@ -70071,7 +70507,7 @@
         <v>31</v>
       </c>
       <c r="B886" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
       <c r="D886" s="196">
         <v>5315016292965</v>
@@ -70086,10 +70522,10 @@
         <v>43507</v>
       </c>
       <c r="H886" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="I886" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="K886" s="164">
         <v>2369.79</v>
@@ -70107,7 +70543,7 @@
         <v>32</v>
       </c>
       <c r="B887" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
       <c r="D887" s="196">
         <v>6625014372464</v>
@@ -70122,10 +70558,10 @@
         <v>43507</v>
       </c>
       <c r="H887" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="I887" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="K887" s="9">
         <v>845.47</v>
@@ -70143,7 +70579,7 @@
         <v>33</v>
       </c>
       <c r="B888" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="D888" s="196">
         <v>5935011013539</v>
@@ -70158,7 +70594,7 @@
         <v>43509</v>
       </c>
       <c r="H888" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="K888" s="9">
         <v>4782.24</v>
@@ -70173,7 +70609,7 @@
         <v>34</v>
       </c>
       <c r="B889" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
       <c r="D889" s="196">
         <v>5935016151707</v>
@@ -70188,7 +70624,7 @@
         <v>43509</v>
       </c>
       <c r="H889" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="K889" s="9">
         <v>1259.3399999999999</v>
@@ -70203,7 +70639,7 @@
         <v>35</v>
       </c>
       <c r="B890" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="D890" s="196">
         <v>6150015770553</v>
@@ -70212,16 +70648,16 @@
         <v>65</v>
       </c>
       <c r="F890" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="G890" s="6">
         <v>43509</v>
       </c>
       <c r="H890" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
       <c r="I890" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
       <c r="K890" s="9">
         <v>6228.95</v>
@@ -70239,7 +70675,7 @@
         <v>36</v>
       </c>
       <c r="B891" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="D891" s="196">
         <v>6625014372465</v>
@@ -70254,10 +70690,10 @@
         <v>43509</v>
       </c>
       <c r="H891" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="I891" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="K891" s="9">
         <v>22593.33</v>
@@ -70275,7 +70711,7 @@
         <v>37</v>
       </c>
       <c r="B892" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="D892" s="196">
         <v>4810014355671</v>
@@ -70290,10 +70726,10 @@
         <v>43509</v>
       </c>
       <c r="H892" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="I892" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="K892" s="9">
         <v>4557.3500000000004</v>
@@ -70311,7 +70747,7 @@
         <v>38</v>
       </c>
       <c r="B893" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="D893" s="196">
         <v>5935012542181</v>
@@ -70326,7 +70762,7 @@
         <v>43509</v>
       </c>
       <c r="H893" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="K893" s="9">
         <v>2752.98</v>
@@ -70341,7 +70777,7 @@
         <v>39</v>
       </c>
       <c r="B894" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="D894" s="196">
         <v>5935007397495</v>
@@ -70356,10 +70792,10 @@
         <v>43510</v>
       </c>
       <c r="H894" t="s">
+        <v>5720</v>
+      </c>
+      <c r="I894" t="s">
         <v>5721</v>
-      </c>
-      <c r="I894" t="s">
-        <v>5722</v>
       </c>
       <c r="K894" s="9">
         <v>15746.85</v>
@@ -70377,7 +70813,7 @@
         <v>40</v>
       </c>
       <c r="B895" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="D895" s="196">
         <v>6150013389520</v>
@@ -70392,10 +70828,10 @@
         <v>43515</v>
       </c>
       <c r="H895" t="s">
+        <v>5761</v>
+      </c>
+      <c r="I895" t="s">
         <v>5762</v>
-      </c>
-      <c r="I895" t="s">
-        <v>5763</v>
       </c>
       <c r="K895" s="9">
         <v>9639</v>
@@ -70413,7 +70849,7 @@
         <v>41</v>
       </c>
       <c r="B896" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="D896" s="196">
         <v>5998015867425</v>
@@ -70428,7 +70864,7 @@
         <v>43515</v>
       </c>
       <c r="H896" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="K896" s="9">
         <v>5418.77</v>
@@ -70443,25 +70879,25 @@
         <v>42</v>
       </c>
       <c r="B897" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D897" t="s">
         <v>5765</v>
-      </c>
-      <c r="D897" t="s">
-        <v>5766</v>
       </c>
       <c r="E897">
         <v>22</v>
       </c>
       <c r="F897" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="G897" s="6">
         <v>43515</v>
       </c>
       <c r="H897" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="I897" s="75" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="K897" s="9">
         <v>19404</v>
@@ -70476,10 +70912,10 @@
         <v>43</v>
       </c>
       <c r="B898" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D898" t="s">
         <v>5773</v>
-      </c>
-      <c r="D898" t="s">
-        <v>5774</v>
       </c>
       <c r="E898">
         <v>12</v>
@@ -70491,7 +70927,7 @@
         <v>43516</v>
       </c>
       <c r="H898" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="K898" s="9">
         <v>816</v>
@@ -70506,7 +70942,7 @@
         <v>44</v>
       </c>
       <c r="B899" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="D899" s="196">
         <v>5340013434333</v>
@@ -91758,10 +92194,10 @@
         <v>3251</v>
       </c>
       <c r="H757" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="I757" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="J757" s="6">
         <v>43490</v>
@@ -91787,16 +92223,16 @@
         <v>4666.74</v>
       </c>
       <c r="H758" t="s">
-        <v>5463</v>
+        <v>5462</v>
       </c>
       <c r="I758" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="J758" s="6">
         <v>43490</v>
       </c>
       <c r="K758" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="759" spans="1:11">
@@ -91816,16 +92252,16 @@
         <v>4666.74</v>
       </c>
       <c r="H759" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="I759" t="s">
-        <v>5464</v>
+        <v>5463</v>
       </c>
       <c r="J759" s="6">
         <v>43493</v>
       </c>
       <c r="K759" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="760" spans="1:11">
@@ -91845,16 +92281,16 @@
         <v>4556</v>
       </c>
       <c r="H760" t="s">
+        <v>5464</v>
+      </c>
+      <c r="I760" t="s">
         <v>5465</v>
-      </c>
-      <c r="I760" t="s">
-        <v>5466</v>
       </c>
       <c r="J760" s="6">
         <v>43490</v>
       </c>
       <c r="K760" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="761" spans="1:11">
@@ -91874,16 +92310,16 @@
         <v>4556</v>
       </c>
       <c r="H761" t="s">
-        <v>5471</v>
+        <v>5470</v>
       </c>
       <c r="I761" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="J761" s="6">
         <v>43490</v>
       </c>
       <c r="K761" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="762" spans="1:11">
@@ -91903,10 +92339,10 @@
         <v>192.96</v>
       </c>
       <c r="H762" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="I762" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="J762" s="6">
         <v>43493</v>
@@ -91932,10 +92368,10 @@
         <v>98.72</v>
       </c>
       <c r="H763" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="I763" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="J763" s="6">
         <v>43493</v>
@@ -91961,16 +92397,16 @@
         <v>5735.45</v>
       </c>
       <c r="H764" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="I764" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
       <c r="J764" s="6">
         <v>43493</v>
       </c>
       <c r="K764" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="765" spans="1:11">
@@ -91990,10 +92426,10 @@
         <v>879.84</v>
       </c>
       <c r="H765" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="I765" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="J765" s="6">
         <v>43493</v>
@@ -92019,10 +92455,10 @@
         <v>672.12</v>
       </c>
       <c r="H766" t="s">
-        <v>5487</v>
+        <v>5486</v>
       </c>
       <c r="I766" t="s">
-        <v>5486</v>
+        <v>5485</v>
       </c>
       <c r="J766" s="6">
         <v>43493</v>
@@ -92045,16 +92481,16 @@
         <v>9168.06</v>
       </c>
       <c r="H767" t="s">
-        <v>5503</v>
+        <v>5502</v>
       </c>
       <c r="I767" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="J767" s="6">
         <v>43493</v>
       </c>
       <c r="K767" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="768" spans="1:11">
@@ -92074,16 +92510,16 @@
         <v>997.38</v>
       </c>
       <c r="H768" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="I768" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="J768" s="6">
         <v>43494</v>
       </c>
       <c r="K768" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="769" spans="1:11">
@@ -92103,16 +92539,16 @@
         <v>1325.58</v>
       </c>
       <c r="H769" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="I769" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="J769" s="6">
         <v>43494</v>
       </c>
       <c r="K769" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="770" spans="1:11">
@@ -92132,16 +92568,16 @@
         <v>2598.96</v>
       </c>
       <c r="H770" t="s">
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="I770" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="J770" s="6">
         <v>43494</v>
       </c>
       <c r="K770" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="771" spans="1:11">
@@ -92161,16 +92597,16 @@
         <v>9482.4</v>
       </c>
       <c r="H771" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
       <c r="I771" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="J771" s="6">
         <v>43495</v>
       </c>
       <c r="K771" t="s">
-        <v>5534</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="772" spans="1:11">
@@ -92190,16 +92626,16 @@
         <v>9417.1299999999992</v>
       </c>
       <c r="H772" t="s">
-        <v>5546</v>
+        <v>5545</v>
       </c>
       <c r="I772" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
       <c r="J772" s="6">
         <v>43496</v>
       </c>
       <c r="K772" t="s">
-        <v>5547</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="773" spans="1:11">
@@ -92235,16 +92671,16 @@
         <v>9790.83</v>
       </c>
       <c r="H775" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="I775" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="J775" s="6">
         <v>43497</v>
       </c>
       <c r="K775" t="s">
-        <v>5553</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="776" spans="1:11">
@@ -92264,16 +92700,16 @@
         <v>4446.68</v>
       </c>
       <c r="H776" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="I776" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="J776" s="6">
         <v>43497</v>
       </c>
       <c r="K776" t="s">
-        <v>5556</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="777" spans="1:11">
@@ -92293,16 +92729,16 @@
         <v>6853</v>
       </c>
       <c r="H777" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="I777" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="J777" s="6">
         <v>43501</v>
       </c>
       <c r="K777" t="s">
-        <v>5563</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="778" spans="1:11">
@@ -92322,16 +92758,16 @@
         <v>11244.94</v>
       </c>
       <c r="H778" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="I778" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="J778" s="6">
         <v>43504</v>
       </c>
       <c r="K778" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="779" spans="1:11">
@@ -92351,13 +92787,13 @@
         <v>7343.5</v>
       </c>
       <c r="H779" t="s">
+        <v>5567</v>
+      </c>
+      <c r="I779" t="s">
+        <v>5566</v>
+      </c>
+      <c r="K779" t="s">
         <v>5568</v>
-      </c>
-      <c r="I779" t="s">
-        <v>5567</v>
-      </c>
-      <c r="K779" t="s">
-        <v>5569</v>
       </c>
     </row>
     <row r="780" spans="1:11">
@@ -92377,16 +92813,16 @@
         <v>33825.279999999999</v>
       </c>
       <c r="H780" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="I780" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="J780" s="6">
         <v>43503</v>
       </c>
       <c r="K780" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="781" spans="1:11">
@@ -92397,7 +92833,7 @@
         <v>3719</v>
       </c>
       <c r="C781" s="25" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="E781" s="75">
         <v>10</v>
@@ -92406,16 +92842,16 @@
         <v>1108.5999999999999</v>
       </c>
       <c r="H781" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="I781" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="J781" s="6">
         <v>43504</v>
       </c>
       <c r="K781" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="782" spans="1:11">
@@ -92423,7 +92859,7 @@
         <v>68</v>
       </c>
       <c r="B782" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="C782" s="25" t="s">
         <v>2352</v>
@@ -92435,16 +92871,16 @@
         <v>2546.1</v>
       </c>
       <c r="H782" t="s">
+        <v>5616</v>
+      </c>
+      <c r="I782" t="s">
         <v>5617</v>
-      </c>
-      <c r="I782" t="s">
-        <v>5618</v>
       </c>
       <c r="J782" s="6">
         <v>43507</v>
       </c>
       <c r="K782" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="783" spans="1:11">
@@ -92464,16 +92900,16 @@
         <v>6862.89</v>
       </c>
       <c r="H783" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="I783" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="J783" s="6">
         <v>43507</v>
       </c>
       <c r="K783" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="784" spans="1:11">
@@ -92493,16 +92929,16 @@
         <v>5519.82</v>
       </c>
       <c r="H784" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="I784" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="J784" s="6">
         <v>43507</v>
       </c>
       <c r="K784" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="785" spans="1:11">
@@ -92522,16 +92958,16 @@
         <v>3127.96</v>
       </c>
       <c r="H785" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="I785" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="J785" s="6">
         <v>43508</v>
       </c>
       <c r="K785" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="786" spans="1:11">
@@ -92551,16 +92987,16 @@
         <v>2826.92</v>
       </c>
       <c r="H786" t="s">
+        <v>5651</v>
+      </c>
+      <c r="I786" t="s">
         <v>5652</v>
-      </c>
-      <c r="I786" t="s">
-        <v>5653</v>
       </c>
       <c r="J786" s="6">
         <v>43508</v>
       </c>
       <c r="K786" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="787" spans="1:11">
@@ -92568,7 +93004,7 @@
         <v>73</v>
       </c>
       <c r="B787" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="C787" t="s">
         <v>4050</v>
@@ -92580,16 +93016,16 @@
         <v>538.4</v>
       </c>
       <c r="H787" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
       <c r="I787" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
       <c r="J787" s="6">
         <v>43508</v>
       </c>
       <c r="K787" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="788" spans="1:11">
@@ -92600,7 +93036,7 @@
         <v>5235</v>
       </c>
       <c r="C788" s="25" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="E788" s="75">
         <v>3</v>
@@ -92609,16 +93045,16 @@
         <v>3963</v>
       </c>
       <c r="H788" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
       <c r="I788" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="J788" s="6">
         <v>43508</v>
       </c>
       <c r="K788" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="789" spans="1:11">
@@ -92629,7 +93065,7 @@
         <v>4737</v>
       </c>
       <c r="C789" s="73" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="E789" s="75">
         <v>1</v>
@@ -92638,16 +93074,16 @@
         <v>456.64</v>
       </c>
       <c r="H789" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
       <c r="I789" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="J789" s="6">
         <v>43508</v>
       </c>
       <c r="K789" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="790" spans="1:11">
@@ -92667,16 +93103,16 @@
         <v>2170.17</v>
       </c>
       <c r="H790" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
       <c r="I790" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="J790" s="6">
         <v>43509</v>
       </c>
       <c r="K790" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="791" spans="1:11">
@@ -92684,7 +93120,7 @@
         <v>77</v>
       </c>
       <c r="B791" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="C791" s="25" t="s">
         <v>2605</v>
@@ -92696,16 +93132,16 @@
         <v>7565.11</v>
       </c>
       <c r="H791" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="I791" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="J791" s="6">
         <v>43510</v>
       </c>
       <c r="K791" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="792" spans="1:11">
@@ -92725,16 +93161,16 @@
         <v>5672.28</v>
       </c>
       <c r="H792" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="I792" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="J792" s="6">
         <v>43510</v>
       </c>
       <c r="K792" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="793" spans="1:11">
@@ -92754,16 +93190,16 @@
         <v>11545.65</v>
       </c>
       <c r="H793" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
       <c r="I793" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="J793" s="6">
         <v>43510</v>
       </c>
       <c r="K793" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="794" spans="1:11">
@@ -92783,10 +93219,10 @@
         <v>902</v>
       </c>
       <c r="H794" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
       <c r="I794" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="J794" s="6">
         <v>43511</v>
@@ -92812,16 +93248,16 @@
         <v>2546</v>
       </c>
       <c r="H795" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
       <c r="I795" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="J795" s="6">
         <v>43511</v>
       </c>
       <c r="K795" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="796" spans="1:11">
@@ -92841,16 +93277,16 @@
         <v>2989.56</v>
       </c>
       <c r="H796" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="I796" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="J796" s="6">
         <v>43511</v>
       </c>
       <c r="K796" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="797" spans="1:11">
@@ -92858,7 +93294,7 @@
         <v>83</v>
       </c>
       <c r="B797" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="C797" t="s">
         <v>1677</v>
@@ -92870,10 +93306,10 @@
         <v>39.520000000000003</v>
       </c>
       <c r="H797" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="I797" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="J797" s="6">
         <v>43514</v>
@@ -92899,16 +93335,16 @@
         <v>11096.07</v>
       </c>
       <c r="H798" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
       <c r="I798" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="J798" s="6">
         <v>43514</v>
       </c>
       <c r="K798" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="799" spans="1:11">
@@ -92928,16 +93364,16 @@
         <v>14794.76</v>
       </c>
       <c r="H799" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="I799" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="J799" s="6">
         <v>43514</v>
       </c>
       <c r="K799" t="s">
-        <v>5750</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="800" spans="1:11">
@@ -92957,16 +93393,16 @@
         <v>5189.49</v>
       </c>
       <c r="H800" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="I800" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="J800" s="6">
         <v>43515</v>
       </c>
       <c r="K800" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="801" spans="1:11">
@@ -92986,16 +93422,16 @@
         <v>5189.49</v>
       </c>
       <c r="H801" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="I801" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="J801" s="6">
         <v>43515</v>
       </c>
       <c r="K801" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="802" spans="1:11">
@@ -93006,7 +93442,7 @@
         <v>4868</v>
       </c>
       <c r="C802" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="E802">
         <v>92</v>
@@ -93015,16 +93451,16 @@
         <v>9168.7199999999993</v>
       </c>
       <c r="H802" t="s">
-        <v>5771</v>
+        <v>5770</v>
       </c>
       <c r="I802" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="J802" s="6">
         <v>43516</v>
       </c>
       <c r="K802" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="803" spans="1:11">
@@ -93044,16 +93480,16 @@
         <v>26057.72</v>
       </c>
       <c r="H803" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
       <c r="I803" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
       <c r="J803" s="6">
         <v>43517</v>
       </c>
       <c r="K803" t="s">
-        <v>5781</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="804" spans="1:11">
@@ -93061,7 +93497,7 @@
         <v>90</v>
       </c>
       <c r="B804" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="C804" t="s">
         <v>1458</v>
@@ -93073,16 +93509,16 @@
         <v>6228.95</v>
       </c>
       <c r="H804" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="I804" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
       <c r="J804" s="6">
         <v>43517</v>
       </c>
       <c r="K804" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="805" spans="1:11">
@@ -93102,16 +93538,16 @@
         <v>9350.39</v>
       </c>
       <c r="H805" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="I805" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="J805" s="6">
         <v>43517</v>
       </c>
       <c r="K805" t="s">
-        <v>5786</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="806" spans="1:11">
@@ -93119,7 +93555,7 @@
         <v>92</v>
       </c>
       <c r="B806" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
       <c r="C806" t="s">
         <v>109</v>
@@ -93131,16 +93567,16 @@
         <v>4164</v>
       </c>
       <c r="H806" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="I806" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="J806" s="6">
         <v>43519</v>
       </c>
       <c r="K806" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="807" spans="1:11">
@@ -93148,7 +93584,7 @@
         <v>93</v>
       </c>
       <c r="B807" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
       <c r="C807" t="s">
         <v>4050</v>
@@ -93160,16 +93596,16 @@
         <v>2088.8000000000002</v>
       </c>
       <c r="H807" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="I807" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="J807" s="6">
         <v>43519</v>
       </c>
       <c r="K807" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="808" spans="1:11">
@@ -93189,10 +93625,10 @@
         <v>469.38</v>
       </c>
       <c r="H808" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="I808" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="J808" s="6">
         <v>43519</v>
@@ -93218,16 +93654,16 @@
         <v>2881.05</v>
       </c>
       <c r="H809" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="I809" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="J809" s="6">
         <v>43521</v>
       </c>
       <c r="K809" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="810" spans="1:11">
@@ -93238,7 +93674,7 @@
         <v>5232</v>
       </c>
       <c r="C810" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="E810" s="75">
         <v>6</v>
@@ -93247,16 +93683,16 @@
         <v>5920.32</v>
       </c>
       <c r="H810" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
       <c r="I810" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="J810" s="6">
         <v>43521</v>
       </c>
       <c r="K810" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="811" spans="1:11">
@@ -93276,16 +93712,16 @@
         <v>826</v>
       </c>
       <c r="H811" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
       <c r="I811" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="J811" s="6">
         <v>43521</v>
       </c>
       <c r="K811" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="812" spans="1:11">
@@ -93305,13 +93741,13 @@
         <v>3990</v>
       </c>
       <c r="H812" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I812" t="s">
+        <v>5807</v>
+      </c>
+      <c r="K812" t="s">
         <v>5809</v>
-      </c>
-      <c r="I812" t="s">
-        <v>5808</v>
-      </c>
-      <c r="K812" t="s">
-        <v>5810</v>
       </c>
     </row>
     <row r="813" spans="1:11">
@@ -93319,13 +93755,13 @@
         <v>99</v>
       </c>
       <c r="B813" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="H813" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
       <c r="I813" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="814" spans="1:11">
@@ -94081,7 +94517,7 @@
     </row>
     <row r="17" spans="1:17" ht="36">
       <c r="A17" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="B17" s="11">
         <f>B8-D8</f>

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0FE10-15D8-4C60-A585-FA756F411D41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828A864-9F1A-4510-BA95-863FB94A291C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9564" uniqueCount="5968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9596" uniqueCount="5995">
   <si>
     <t>TSE</t>
   </si>
@@ -19418,6 +19418,87 @@
   </si>
   <si>
     <t>Attention: Tony Davis</t>
+  </si>
+  <si>
+    <t>Hiab USA, Inc.</t>
+  </si>
+  <si>
+    <t>702 Columbia Drive</t>
+  </si>
+  <si>
+    <t>Plainfield, IN 46168</t>
+  </si>
+  <si>
+    <t>Phone: 1-800-837-2351</t>
+  </si>
+  <si>
+    <t>ITT Cannon</t>
+  </si>
+  <si>
+    <t>56 Technology Dr.</t>
+  </si>
+  <si>
+    <t>Irvine, CA 92618</t>
+  </si>
+  <si>
+    <t>Attention: Lorraine Cerulli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425 Hanley Industrial Court </t>
+  </si>
+  <si>
+    <t>St. Louis, MO 63144</t>
+  </si>
+  <si>
+    <t>Phone: 800-243-8162</t>
+  </si>
+  <si>
+    <t>Kooltronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Pennington-Hopewell Road </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennington, NJ 08534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone: (609) 466-3400 </t>
+  </si>
+  <si>
+    <t>KTSDI LLC</t>
+  </si>
+  <si>
+    <t>801 E. Middletown Road</t>
+  </si>
+  <si>
+    <t>North Lima/ YNG, OH 44452</t>
+  </si>
+  <si>
+    <t>Phone: 330-783-2000</t>
+  </si>
+  <si>
+    <t>Leddynamics, Inc.</t>
+  </si>
+  <si>
+    <t>44 Hull ST PO BOX 444 Suite 100</t>
+  </si>
+  <si>
+    <t>Randolph, VT 05060</t>
+  </si>
+  <si>
+    <t>Attention: Bob Sparadeo</t>
+  </si>
+  <si>
+    <t>Mafo Naval Closures BV</t>
+  </si>
+  <si>
+    <t>P.O. Box 212, 7556 AE Almelo</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>Att: Renée de Lange</t>
   </si>
 </sst>
 </file>
@@ -30293,8 +30374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
   <dimension ref="A1:J334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30304,9 +30385,9 @@
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30825,7 +30906,18 @@
       <c r="E22" s="186" t="s">
         <v>4268</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="83" t="s">
+        <v>5968</v>
+      </c>
+      <c r="G22" s="206" t="s">
+        <v>5969</v>
+      </c>
+      <c r="H22" s="206" t="s">
+        <v>5970</v>
+      </c>
+      <c r="I22" s="206" t="s">
+        <v>5971</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="199"/>
@@ -30839,7 +30931,18 @@
         <v>4267</v>
       </c>
       <c r="E23" s="186"/>
-      <c r="F23" s="83"/>
+      <c r="F23" s="83" t="s">
+        <v>5968</v>
+      </c>
+      <c r="G23" s="206" t="s">
+        <v>5969</v>
+      </c>
+      <c r="H23" s="206" t="s">
+        <v>5970</v>
+      </c>
+      <c r="I23" s="206" t="s">
+        <v>5971</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="199" t="s">
@@ -30855,7 +30958,18 @@
         <v>678</v>
       </c>
       <c r="E24" s="197"/>
-      <c r="F24" s="83"/>
+      <c r="F24" s="83" t="s">
+        <v>5972</v>
+      </c>
+      <c r="G24" s="206" t="s">
+        <v>5973</v>
+      </c>
+      <c r="H24" s="206" t="s">
+        <v>5974</v>
+      </c>
+      <c r="J24" s="207" t="s">
+        <v>5975</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="199"/>
@@ -30869,7 +30983,18 @@
         <v>4322</v>
       </c>
       <c r="E25" s="186"/>
-      <c r="F25" s="83"/>
+      <c r="F25" s="83" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G25" s="206" t="s">
+        <v>5976</v>
+      </c>
+      <c r="H25" s="206" t="s">
+        <v>5977</v>
+      </c>
+      <c r="I25" s="206" t="s">
+        <v>5978</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="199"/>
@@ -30909,7 +31034,7 @@
       <c r="E28" s="186"/>
       <c r="F28" s="83"/>
     </row>
-    <row r="29" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="199"/>
       <c r="B29" s="201" t="s">
         <v>987</v>
@@ -30921,9 +31046,20 @@
         <v>5857</v>
       </c>
       <c r="E29" s="186"/>
-      <c r="F29" s="83"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1">
+      <c r="F29" s="83" t="s">
+        <v>5979</v>
+      </c>
+      <c r="G29" s="206" t="s">
+        <v>5980</v>
+      </c>
+      <c r="H29" s="206" t="s">
+        <v>5981</v>
+      </c>
+      <c r="I29" s="206" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="199"/>
       <c r="B30" s="200" t="s">
         <v>1673</v>
@@ -30935,7 +31071,18 @@
         <v>1674</v>
       </c>
       <c r="E30" s="186"/>
-      <c r="F30" s="83"/>
+      <c r="F30" s="83" t="s">
+        <v>5983</v>
+      </c>
+      <c r="G30" s="212" t="s">
+        <v>5984</v>
+      </c>
+      <c r="H30" s="207" t="s">
+        <v>5985</v>
+      </c>
+      <c r="I30" s="207" t="s">
+        <v>5986</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="199"/>
@@ -30961,7 +31108,7 @@
       <c r="E32" s="186"/>
       <c r="F32" s="83"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:10">
       <c r="A33" s="199"/>
       <c r="B33" s="200" t="s">
         <v>5881</v>
@@ -30973,7 +31120,7 @@
       <c r="E33" s="186"/>
       <c r="F33" s="83"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:10">
       <c r="A34" s="199"/>
       <c r="B34" s="202" t="s">
         <v>502</v>
@@ -30985,9 +31132,20 @@
         <v>641</v>
       </c>
       <c r="E34" s="186"/>
-      <c r="F34" s="83"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="83" t="s">
+        <v>5987</v>
+      </c>
+      <c r="G34" s="212" t="s">
+        <v>5988</v>
+      </c>
+      <c r="H34" s="207" t="s">
+        <v>5989</v>
+      </c>
+      <c r="J34" s="207" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="199"/>
       <c r="B35" s="202" t="s">
         <v>4469</v>
@@ -30999,7 +31157,7 @@
       <c r="E35" s="186"/>
       <c r="F35" s="83"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:10">
       <c r="A36" s="199"/>
       <c r="B36" s="200" t="s">
         <v>1166</v>
@@ -31011,9 +31169,20 @@
         <v>4286</v>
       </c>
       <c r="E36" s="186"/>
-      <c r="F36" s="83"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="206" t="s">
+        <v>5991</v>
+      </c>
+      <c r="G36" s="206" t="s">
+        <v>5992</v>
+      </c>
+      <c r="H36" s="206" t="s">
+        <v>5993</v>
+      </c>
+      <c r="J36" s="206" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="199"/>
       <c r="B37" s="200">
         <v>87009</v>
@@ -31027,7 +31196,7 @@
       <c r="E37" s="186"/>
       <c r="F37" s="83"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:10">
       <c r="A38" s="199"/>
       <c r="B38" s="200" t="s">
         <v>4441</v>
@@ -31039,7 +31208,7 @@
       <c r="E38" s="186"/>
       <c r="F38" s="83"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:10">
       <c r="A39" s="199" t="s">
         <v>1913</v>
       </c>
@@ -31055,7 +31224,7 @@
       <c r="E39" s="186"/>
       <c r="F39" s="83"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:10">
       <c r="A40" s="199"/>
       <c r="B40" s="200" t="s">
         <v>449</v>
@@ -31069,7 +31238,7 @@
       <c r="E40" s="197"/>
       <c r="F40" s="83"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:10">
       <c r="A41" s="199"/>
       <c r="B41" s="200" t="s">
         <v>985</v>
@@ -31083,7 +31252,7 @@
       <c r="E41" s="186"/>
       <c r="F41" s="83"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:10">
       <c r="A42" s="199"/>
       <c r="B42" s="200" t="s">
         <v>225</v>
@@ -31097,7 +31266,7 @@
       <c r="E42" s="186"/>
       <c r="F42" s="83"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+    <row r="43" spans="1:10" ht="18" customHeight="1">
       <c r="A43" s="199"/>
       <c r="B43" s="200">
         <v>32387</v>
@@ -31111,7 +31280,7 @@
       <c r="E43" s="186"/>
       <c r="F43" s="83"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:10">
       <c r="A44" s="199"/>
       <c r="B44" s="200" t="s">
         <v>818</v>
@@ -31125,7 +31294,7 @@
       <c r="E44" s="186"/>
       <c r="F44" s="83"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:10">
       <c r="A45" s="199"/>
       <c r="B45" s="200" t="s">
         <v>456</v>
@@ -31137,7 +31306,7 @@
       <c r="E45" s="186"/>
       <c r="F45" s="83"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:10">
       <c r="A46" s="199"/>
       <c r="B46" s="200" t="s">
         <v>616</v>
@@ -31151,7 +31320,7 @@
       <c r="E46" s="186"/>
       <c r="F46" s="83"/>
     </row>
-    <row r="47" spans="1:6" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A47" s="199"/>
       <c r="B47" s="200" t="s">
         <v>4311</v>
@@ -31165,7 +31334,7 @@
       <c r="E47" s="186"/>
       <c r="F47" s="83"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:10">
       <c r="A48" s="199"/>
       <c r="B48" s="200" t="s">
         <v>4419</v>

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Kalwar\Documents\WestSim_Shared\WestSim\AADASHBOARD\FEB19\Cagecodelist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F27828-AC96-4B73-A31C-D0DDB67E975C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAEDA6-BB38-4124-BEB5-6290EE94EE61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="20460" windowHeight="10890" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
+    <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
   <sheets>
     <sheet name="QuoteCal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30856,10 +30856,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
-  <dimension ref="A1:J333"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35560,115 +35560,6 @@
       <c r="D305" s="186"/>
       <c r="E305" s="186"/>
       <c r="F305" s="83"/>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="E306" s="186"/>
-      <c r="F306" s="83"/>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="E307" s="186"/>
-      <c r="F307" s="83"/>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="E308" s="186"/>
-      <c r="F308" s="83"/>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="E309" s="186"/>
-      <c r="F309" s="83"/>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="E310" s="186"/>
-      <c r="F310" s="83"/>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="E311" s="186"/>
-      <c r="F311" s="83"/>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="E312" s="186"/>
-      <c r="F312" s="83"/>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="E313" s="186"/>
-      <c r="F313" s="83"/>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="E314" s="186"/>
-      <c r="F314" s="83"/>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="E315" s="186"/>
-      <c r="F315" s="83"/>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="E316" s="186"/>
-      <c r="F316" s="83"/>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="E317" s="186"/>
-      <c r="F317" s="83"/>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="E318" s="186"/>
-      <c r="F318" s="83"/>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="E319" s="186"/>
-      <c r="F319" s="83"/>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="E320" s="186"/>
-      <c r="F320" s="83"/>
-    </row>
-    <row r="321" spans="5:6">
-      <c r="E321" s="186"/>
-      <c r="F321" s="83"/>
-    </row>
-    <row r="322" spans="5:6">
-      <c r="E322" s="186"/>
-      <c r="F322" s="83"/>
-    </row>
-    <row r="323" spans="5:6">
-      <c r="E323" s="186"/>
-      <c r="F323" s="83"/>
-    </row>
-    <row r="324" spans="5:6">
-      <c r="E324" s="186"/>
-      <c r="F324" s="83"/>
-    </row>
-    <row r="325" spans="5:6">
-      <c r="E325" s="186"/>
-      <c r="F325" s="83"/>
-    </row>
-    <row r="326" spans="5:6">
-      <c r="E326" s="186"/>
-      <c r="F326" s="83"/>
-    </row>
-    <row r="327" spans="5:6">
-      <c r="E327" s="186"/>
-      <c r="F327" s="83"/>
-    </row>
-    <row r="328" spans="5:6">
-      <c r="E328" s="186"/>
-      <c r="F328" s="83"/>
-    </row>
-    <row r="329" spans="5:6">
-      <c r="E329" s="186"/>
-      <c r="F329" s="83"/>
-    </row>
-    <row r="330" spans="5:6">
-      <c r="E330" s="186"/>
-      <c r="F330" s="83"/>
-    </row>
-    <row r="331" spans="5:6">
-      <c r="F331" s="83"/>
-    </row>
-    <row r="332" spans="5:6">
-      <c r="F332" s="83"/>
-    </row>
-    <row r="333" spans="5:6">
-      <c r="F333" s="83"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J305">

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAEDA6-BB38-4124-BEB5-6290EE94EE61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF3187-4031-4D49-9C4F-FC5B630953E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9766" uniqueCount="6153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9767" uniqueCount="6154">
   <si>
     <t>TSE</t>
   </si>
@@ -19973,6 +19973,9 @@
   <si>
     <t>Attention: Deanna Howell</t>
   </si>
+  <si>
+    <t>alphonso.brooks@standardcal.com</t>
+  </si>
 </sst>
 </file>
 
@@ -19984,7 +19987,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20394,15 +20397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -20425,7 +20419,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20513,12 +20507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20759,7 +20747,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -20999,7 +20987,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -21015,24 +21003,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -30858,8 +30846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
   <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30980,7 +30968,7 @@
       <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="D6" s="10" t="s">
         <v>4242</v>
       </c>
       <c r="E6" s="186"/>
@@ -31026,13 +31014,13 @@
       <c r="D8" s="204" t="s">
         <v>5843</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="10" t="s">
         <v>4246</v>
       </c>
       <c r="F8" s="83" t="s">
         <v>5904</v>
       </c>
-      <c r="G8" s="211" t="s">
+      <c r="G8" s="209" t="s">
         <v>5905</v>
       </c>
       <c r="H8" s="206" t="s">
@@ -31083,10 +31071,10 @@
       <c r="F10" s="83" t="s">
         <v>5911</v>
       </c>
-      <c r="G10" s="212" t="s">
+      <c r="G10" s="210" t="s">
         <v>5913</v>
       </c>
-      <c r="H10" s="212" t="s">
+      <c r="H10" s="210" t="s">
         <v>5914</v>
       </c>
       <c r="J10" s="206" t="s">
@@ -31170,7 +31158,7 @@
       <c r="F14" s="83" t="s">
         <v>5929</v>
       </c>
-      <c r="G14" s="211" t="s">
+      <c r="G14" s="209" t="s">
         <v>5930</v>
       </c>
       <c r="H14" s="206" t="s">
@@ -31270,7 +31258,9 @@
         <v>88</v>
       </c>
       <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
+      <c r="E18" s="10" t="s">
+        <v>6153</v>
+      </c>
       <c r="F18" s="83" t="s">
         <v>4854</v>
       </c>
@@ -31332,7 +31322,7 @@
       <c r="F20" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="211" t="s">
+      <c r="G20" s="209" t="s">
         <v>5950</v>
       </c>
       <c r="H20" s="206" t="s">
@@ -31591,7 +31581,7 @@
       <c r="F32" s="83" t="s">
         <v>5973</v>
       </c>
-      <c r="G32" s="211" t="s">
+      <c r="G32" s="209" t="s">
         <v>5974</v>
       </c>
       <c r="H32" s="206" t="s">
@@ -31652,7 +31642,7 @@
       <c r="F36" s="83" t="s">
         <v>5977</v>
       </c>
-      <c r="G36" s="211" t="s">
+      <c r="G36" s="209" t="s">
         <v>5978</v>
       </c>
       <c r="H36" s="206" t="s">
@@ -31738,7 +31728,7 @@
       <c r="F41" s="83" t="s">
         <v>5985</v>
       </c>
-      <c r="G41" s="211" t="s">
+      <c r="G41" s="209" t="s">
         <v>5986</v>
       </c>
       <c r="H41" s="206" t="s">
@@ -31785,7 +31775,7 @@
       <c r="F43" s="83" t="s">
         <v>5992</v>
       </c>
-      <c r="G43" s="211" t="s">
+      <c r="G43" s="209" t="s">
         <v>5993</v>
       </c>
       <c r="H43" s="206" t="s">
@@ -31807,7 +31797,7 @@
         <v>438</v>
       </c>
       <c r="E44" s="186"/>
-      <c r="F44" s="213" t="s">
+      <c r="F44" s="211" t="s">
         <v>5996</v>
       </c>
       <c r="G44" t="s">
@@ -31866,7 +31856,7 @@
       <c r="F46" s="83" t="s">
         <v>6005</v>
       </c>
-      <c r="G46" s="211" t="s">
+      <c r="G46" s="209" t="s">
         <v>6006</v>
       </c>
       <c r="H46" s="206" t="s">
@@ -31900,7 +31890,7 @@
       <c r="F48" s="83" t="s">
         <v>6008</v>
       </c>
-      <c r="G48" s="211" t="s">
+      <c r="G48" s="209" t="s">
         <v>6009</v>
       </c>
       <c r="H48" s="206" t="s">
@@ -31922,7 +31912,7 @@
       <c r="F49" s="83" t="s">
         <v>1958</v>
       </c>
-      <c r="G49" s="211" t="s">
+      <c r="G49" s="209" t="s">
         <v>6011</v>
       </c>
       <c r="H49" s="206" t="s">
@@ -31947,7 +31937,7 @@
       <c r="F50" s="83" t="s">
         <v>4136</v>
       </c>
-      <c r="G50" s="211" t="s">
+      <c r="G50" s="209" t="s">
         <v>6015</v>
       </c>
       <c r="H50" s="206" t="s">
@@ -31994,7 +31984,7 @@
       <c r="F52" s="83" t="s">
         <v>6020</v>
       </c>
-      <c r="G52" s="211" t="s">
+      <c r="G52" s="209" t="s">
         <v>6021</v>
       </c>
       <c r="H52" s="206" t="s">
@@ -32075,7 +32065,7 @@
       <c r="F56" s="83" t="s">
         <v>6033</v>
       </c>
-      <c r="G56" s="211" t="s">
+      <c r="G56" s="209" t="s">
         <v>6034</v>
       </c>
       <c r="H56" s="206" t="s">
@@ -32100,10 +32090,10 @@
       <c r="F57" s="83" t="s">
         <v>2429</v>
       </c>
-      <c r="G57" s="212" t="s">
+      <c r="G57" s="210" t="s">
         <v>6037</v>
       </c>
-      <c r="H57" s="212" t="s">
+      <c r="H57" s="210" t="s">
         <v>6038</v>
       </c>
       <c r="I57" s="206" t="s">
@@ -32155,7 +32145,7 @@
         <v>520</v>
       </c>
       <c r="D61" s="186"/>
-      <c r="E61" s="207"/>
+      <c r="E61" s="213"/>
       <c r="F61" s="83"/>
     </row>
     <row r="62" spans="1:10">
@@ -32170,7 +32160,7 @@
         <v>670</v>
       </c>
       <c r="E62" s="186"/>
-      <c r="F62" s="209"/>
+      <c r="F62" s="214"/>
     </row>
     <row r="63" spans="1:10" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A63" s="199"/>
@@ -32197,7 +32187,7 @@
       <c r="D64" s="10" t="s">
         <v>5815</v>
       </c>
-      <c r="E64" s="208"/>
+      <c r="E64" s="207"/>
       <c r="F64" s="83"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1">
@@ -32212,7 +32202,7 @@
         <v>4294</v>
       </c>
       <c r="E65" s="186"/>
-      <c r="F65" s="210"/>
+      <c r="F65" s="208"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="199"/>
@@ -32229,7 +32219,7 @@
       <c r="F66" s="83" t="s">
         <v>6040</v>
       </c>
-      <c r="G66" s="214" t="s">
+      <c r="G66" s="212" t="s">
         <v>6041</v>
       </c>
       <c r="H66" s="206" t="s">
@@ -32330,7 +32320,7 @@
       <c r="F71" s="83" t="s">
         <v>6052</v>
       </c>
-      <c r="G71" s="211" t="s">
+      <c r="G71" s="209" t="s">
         <v>6053</v>
       </c>
       <c r="H71" s="206" t="s">
@@ -32399,7 +32389,7 @@
       <c r="F75" s="83" t="s">
         <v>6056</v>
       </c>
-      <c r="G75" s="211" t="s">
+      <c r="G75" s="209" t="s">
         <v>6057</v>
       </c>
       <c r="H75" s="206" t="s">
@@ -32452,7 +32442,7 @@
       <c r="F77" s="83" t="s">
         <v>6066</v>
       </c>
-      <c r="G77" s="211" t="s">
+      <c r="G77" s="209" t="s">
         <v>6067</v>
       </c>
       <c r="H77" s="206" t="s">
@@ -32933,7 +32923,7 @@
       <c r="F112" s="83" t="s">
         <v>6078</v>
       </c>
-      <c r="G112" s="211" t="s">
+      <c r="G112" s="209" t="s">
         <v>6079</v>
       </c>
       <c r="H112" s="206" t="s">
@@ -33163,7 +33153,7 @@
       <c r="F126" s="83" t="s">
         <v>6097</v>
       </c>
-      <c r="G126" s="211" t="s">
+      <c r="G126" s="209" t="s">
         <v>6098</v>
       </c>
       <c r="H126" s="206" t="s">
@@ -33290,7 +33280,7 @@
       <c r="F135" s="83" t="s">
         <v>6101</v>
       </c>
-      <c r="G135" s="211" t="s">
+      <c r="G135" s="209" t="s">
         <v>6102</v>
       </c>
       <c r="H135" s="206" t="s">
@@ -33541,7 +33531,7 @@
       <c r="F152" s="83" t="s">
         <v>2252</v>
       </c>
-      <c r="G152" s="211" t="s">
+      <c r="G152" s="209" t="s">
         <v>6115</v>
       </c>
       <c r="H152" s="206" t="s">
@@ -33706,7 +33696,7 @@
       <c r="F163" s="83" t="s">
         <v>4780</v>
       </c>
-      <c r="G163" s="211" t="s">
+      <c r="G163" s="209" t="s">
         <v>6123</v>
       </c>
       <c r="H163" s="206" t="s">
@@ -34008,7 +33998,7 @@
       <c r="F186" s="83" t="s">
         <v>6127</v>
       </c>
-      <c r="G186" s="211" t="s">
+      <c r="G186" s="209" t="s">
         <v>6128</v>
       </c>
       <c r="H186" s="206" t="s">
@@ -35360,10 +35350,10 @@
         <v>5864</v>
       </c>
       <c r="E291" s="186"/>
-      <c r="F291" s="211" t="s">
+      <c r="F291" s="209" t="s">
         <v>6144</v>
       </c>
-      <c r="G291" s="211" t="s">
+      <c r="G291" s="209" t="s">
         <v>6145</v>
       </c>
       <c r="H291" s="206" t="s">
@@ -35539,7 +35529,7 @@
       <c r="F304" s="83" t="s">
         <v>6149</v>
       </c>
-      <c r="G304" s="211" t="s">
+      <c r="G304" s="209" t="s">
         <v>6150</v>
       </c>
       <c r="H304" s="206" t="s">
@@ -35687,9 +35677,10 @@
     <hyperlink ref="D102" r:id="rId118" xr:uid="{53041BB8-8F5E-429C-BA8B-AC0D21FB3C9A}"/>
     <hyperlink ref="D26" r:id="rId119" xr:uid="{52023773-05B7-476D-B81A-C12EBF8E9E51}"/>
     <hyperlink ref="E72" r:id="rId120" xr:uid="{5C2D91B8-9071-4EC7-9598-883D8C911AF4}"/>
+    <hyperlink ref="E18" r:id="rId121" xr:uid="{E566AF6D-1CB5-4948-B035-53C2C907D480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId121"/>
+  <pageSetup orientation="portrait" r:id="rId122"/>
 </worksheet>
 </file>
 

--- a/CageCodelist.xlsx
+++ b/CageCodelist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Kalwar\Documents\WestSim_Shared\WestSim\AADASHBOARD\FEB19\Cagecodelist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB5A07-E5C0-45DA-8D45-648C75D19A6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C030785-44E7-46E3-8FDC-8D9BB9198863}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" firstSheet="16" activeTab="16" xr2:uid="{BFAE7096-C865-48E4-884B-BB11FAFA2759}"/>
   </bookViews>
   <sheets>
     <sheet name="QuoteCal" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9896" uniqueCount="6161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9886" uniqueCount="6160">
   <si>
     <t>TSE</t>
   </si>
@@ -19989,13 +19989,10 @@
     <t>angelinaherrera@moldeddevices.com</t>
   </si>
   <si>
+    <t>kathyj@philagear.com ; gquinlan@philagear.com</t>
+  </si>
+  <si>
     <t>thysee@theleeco.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kathyj@philagear.com </t>
-  </si>
-  <si>
-    <t>gquinlan@philagear.com</t>
   </si>
 </sst>
 </file>
@@ -30864,10 +30861,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA825E1-D4F3-4B14-9B07-A99A0DC7EB36}">
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:J333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30875,7 +30872,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
@@ -30926,9 +30923,7 @@
       <c r="D2" s="10" t="s">
         <v>6148</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>6148</v>
-      </c>
+      <c r="E2" s="186"/>
       <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:10">
@@ -30942,9 +30937,7 @@
       <c r="D3" s="10" t="s">
         <v>6149</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>6149</v>
-      </c>
+      <c r="E3" s="83"/>
       <c r="F3" s="83" t="s">
         <v>1999</v>
       </c>
@@ -31159,9 +31152,7 @@
       <c r="D12" s="10" t="s">
         <v>6151</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>6151</v>
-      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="83" t="s">
         <v>5916</v>
       </c>
@@ -31313,9 +31304,10 @@
       <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>6152</v>
       </c>
+      <c r="E18" s="186"/>
       <c r="F18" s="83" t="s">
         <v>4850</v>
       </c>
@@ -31402,9 +31394,7 @@
       <c r="D21" s="10" t="s">
         <v>6153</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>6153</v>
-      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="83" t="s">
         <v>5949</v>
       </c>
@@ -31617,9 +31607,7 @@
       <c r="D30" s="10" t="s">
         <v>6154</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>6154</v>
-      </c>
+      <c r="E30" s="186"/>
       <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
@@ -31750,9 +31738,7 @@
       <c r="D37" s="10" t="s">
         <v>6155</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>6155</v>
-      </c>
+      <c r="E37" s="186"/>
       <c r="F37" s="83"/>
     </row>
     <row r="38" spans="1:10">
@@ -31766,9 +31752,7 @@
       <c r="D38" s="10" t="s">
         <v>6156</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>6156</v>
-      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="204" t="s">
         <v>5977</v>
       </c>
@@ -31819,9 +31803,7 @@
       <c r="D41" s="10" t="s">
         <v>6157</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>6157</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="83" t="s">
         <v>5981</v>
       </c>
@@ -32323,7 +32305,7 @@
       </c>
       <c r="F64" s="83"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1">
       <c r="A65" s="198"/>
       <c r="B65" s="199">
         <v>24602</v>
@@ -32339,7 +32321,7 @@
       </c>
       <c r="F65" s="207"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:10">
       <c r="A66" s="198"/>
       <c r="B66" s="199" t="s">
         <v>4329</v>
@@ -32366,7 +32348,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:10">
       <c r="A67" s="198"/>
       <c r="B67" s="199" t="s">
         <v>4359</v>
@@ -32382,7 +32364,7 @@
       </c>
       <c r="F67" s="83"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:10">
       <c r="A68" s="198"/>
       <c r="B68" s="199">
         <v>64411</v>
@@ -32398,7 +32380,7 @@
       </c>
       <c r="F68" s="83"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:10">
       <c r="A69" s="198"/>
       <c r="B69" s="199" t="s">
         <v>376</v>
@@ -32421,7 +32403,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="A70" s="198"/>
       <c r="B70" s="199" t="s">
         <v>5826</v>
@@ -32429,12 +32411,10 @@
       <c r="C70" t="s">
         <v>508</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>6159</v>
-      </c>
+      <c r="D70" s="186" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E70" s="186"/>
       <c r="F70" s="83" t="s">
         <v>6039</v>
       </c>
@@ -32447,11 +32427,8 @@
       <c r="J70" s="205" t="s">
         <v>6042</v>
       </c>
-      <c r="K70" s="10" t="s">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="198"/>
       <c r="B71" s="199" t="s">
         <v>4406</v>
@@ -32478,7 +32455,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1">
+    <row r="72" spans="1:10" ht="15" customHeight="1">
       <c r="A72" s="198"/>
       <c r="B72" s="199" t="s">
         <v>4436</v>
@@ -32494,7 +32471,7 @@
       </c>
       <c r="F72" s="83"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="A73" s="198"/>
       <c r="B73" s="199" t="s">
         <v>1632</v>
@@ -32510,7 +32487,7 @@
       </c>
       <c r="F73" s="83"/>
     </row>
-    <row r="74" spans="1:11" ht="17.649999999999999" customHeight="1">
+    <row r="74" spans="1:10" ht="17.649999999999999" customHeight="1">
       <c r="A74" s="198"/>
       <c r="B74" s="199">
         <v>44256</v>
@@ -32526,7 +32503,7 @@
       </c>
       <c r="F74" s="83"/>
     </row>
-    <row r="75" spans="1:11" ht="16.149999999999999" customHeight="1">
+    <row r="75" spans="1:10" ht="16.149999999999999" customHeight="1">
       <c r="A75" s="198"/>
       <c r="B75" s="199" t="s">
         <v>1573</v>
@@ -32556,7 +32533,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" s="198"/>
       <c r="B76" s="199" t="s">
         <v>4362</v>
@@ -32583,7 +32560,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:10">
       <c r="A77" s="198"/>
       <c r="B77" s="199" t="s">
         <v>4749</v>
@@ -32613,7 +32590,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:10">
       <c r="A78" s="198"/>
       <c r="B78" s="199" t="s">
         <v>1168</v>
@@ -32629,7 +32606,7 @@
       </c>
       <c r="F78" s="83"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:10">
       <c r="A79" s="83"/>
       <c r="B79" s="199" t="s">
         <v>4456</v>
@@ -32641,7 +32618,7 @@
       <c r="E79" s="186"/>
       <c r="F79" s="83"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="A80" s="83"/>
       <c r="B80" s="199" t="s">
         <v>5829</v>
@@ -34397,7 +34374,7 @@
         <v>169</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>6158</v>
+        <v>6159</v>
       </c>
       <c r="E198" s="186"/>
       <c r="F198" s="83"/>
@@ -36179,26 +36156,15 @@
     <hyperlink ref="D3" r:id="rId233" xr:uid="{E1F4BD84-941A-41AF-B77C-39523E08042C}"/>
     <hyperlink ref="D9" r:id="rId234" xr:uid="{CBAE0DF8-B002-429C-9AEB-FD9E61EE9362}"/>
     <hyperlink ref="D12" r:id="rId235" xr:uid="{41A46595-BF21-49EE-AFE5-187231C65658}"/>
-    <hyperlink ref="E18" r:id="rId236" xr:uid="{25B6EDCF-28BE-4C0A-85AA-EDC1BAB31E4E}"/>
+    <hyperlink ref="D18" r:id="rId236" xr:uid="{25B6EDCF-28BE-4C0A-85AA-EDC1BAB31E4E}"/>
     <hyperlink ref="D21" r:id="rId237" xr:uid="{F1DDAE33-7BD9-40EE-9508-E6DDCC4B7B25}"/>
     <hyperlink ref="D30" r:id="rId238" xr:uid="{D8C4CBE7-FC7A-4B13-A1BD-5383C1C0EDBD}"/>
     <hyperlink ref="D37" r:id="rId239" xr:uid="{C4B34480-B00A-43DF-851A-2EC45E7F4637}"/>
     <hyperlink ref="D38" r:id="rId240" xr:uid="{CD02149C-DA19-4D37-8D7C-854D15934153}"/>
     <hyperlink ref="D198" r:id="rId241" xr:uid="{6BA35E2A-1058-4829-86C3-37A0D4FA06C2}"/>
-    <hyperlink ref="E2" r:id="rId242" xr:uid="{4E77B4D0-FBB4-4A36-85A0-F3B897250B7F}"/>
-    <hyperlink ref="E3" r:id="rId243" xr:uid="{A8BBB552-1EDB-4A73-A385-8FD4A49CBB9E}"/>
-    <hyperlink ref="E12" r:id="rId244" xr:uid="{C1A5AD5B-4F52-405F-8F2D-09816F1F3AD7}"/>
-    <hyperlink ref="E21" r:id="rId245" xr:uid="{30B2AF63-21BF-4FE8-B037-57B4B06CFAA1}"/>
-    <hyperlink ref="E30" r:id="rId246" xr:uid="{ED041997-CE3F-401F-ACDE-3B94E32B8B2A}"/>
-    <hyperlink ref="E37" r:id="rId247" xr:uid="{79E67223-3966-41CF-AAAA-4220D0FFF238}"/>
-    <hyperlink ref="E38" r:id="rId248" xr:uid="{188685DE-CF03-4287-83AC-70210C82010C}"/>
-    <hyperlink ref="E41" r:id="rId249" xr:uid="{7D9E69EB-278E-4FA2-B669-82D6222CEA36}"/>
-    <hyperlink ref="D70" r:id="rId250" xr:uid="{6EDBE4DC-7524-4B11-9309-2A10C831CF55}"/>
-    <hyperlink ref="K70" r:id="rId251" xr:uid="{E8667CDA-26CD-4759-8D52-4F1578D75E22}"/>
-    <hyperlink ref="E70" r:id="rId252" xr:uid="{36C3E570-0C9F-4600-8611-CC66BF9435F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId253"/>
+  <pageSetup orientation="portrait" r:id="rId242"/>
 </worksheet>
 </file>
 
